--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5AE54F-866D-447C-92FD-7579B6F969E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD3B190-2EFE-4ED3-A2BD-C8FCDA7901CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1610" windowWidth="36340" windowHeight="18960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2390" yWindow="1840" windowWidth="36340" windowHeight="18960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="367">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1141,6 +1141,12 @@
   <si>
     <t>Dylan Dog #454</t>
   </si>
+  <si>
+    <t>RARE FLAVOURS #2 (OF 6) CVR A ANDRADE</t>
+  </si>
+  <si>
+    <t>Wonder Woman #51: Wonder Woman #4</t>
+  </si>
 </sst>
 </file>
 
@@ -1150,7 +1156,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1323,8 +1329,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1373,6 +1385,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1393,7 +1423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1541,6 +1571,35 @@
     <xf numFmtId="16" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1758,13 +1817,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B11" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:XFD12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="55.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="95.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
     <col min="4" max="26" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1973,43 +2034,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:26" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="75">
         <v>45413</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="77">
         <v>45413</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="78">
         <v>4.24</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="78">
         <v>1</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
@@ -16629,10 +16690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16641,7 +16702,7 @@
     <col min="2" max="2" width="8.1796875" customWidth="1"/>
     <col min="3" max="3" width="50.6328125" customWidth="1"/>
     <col min="4" max="4" width="7.6328125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="26" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17130,7 +17191,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+      <c r="A26" s="83">
         <v>45421</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -17197,7 +17258,7 @@
       <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+      <c r="A29" s="75">
         <v>45412</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -17277,7 +17338,7 @@
       <c r="Z30" s="12"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+      <c r="A31" s="81">
         <v>45412</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -17457,7 +17518,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+      <c r="A38" s="75">
         <v>45413</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -17657,7 +17718,7 @@
       <c r="Z44" s="12"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="A45" s="75">
         <v>45408</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -17897,7 +17958,7 @@
       <c r="Z50" s="12"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+      <c r="A51" s="52">
         <v>45383</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -17917,7 +17978,7 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+      <c r="A52" s="52">
         <v>45351</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -17926,7 +17987,7 @@
       <c r="C52" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="82">
         <v>45383</v>
       </c>
       <c r="E52" s="11">
@@ -18017,7 +18078,7 @@
       <c r="Z54" s="12"/>
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+      <c r="A55" s="83">
         <v>45395</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -18057,7 +18118,7 @@
       <c r="Z55" s="12"/>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+      <c r="A56" s="52">
         <v>45395</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -18066,7 +18127,7 @@
       <c r="C56" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="82">
         <v>45383</v>
       </c>
       <c r="E56" s="11">
@@ -18296,7 +18357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="62">
         <v>45465</v>
       </c>
@@ -18316,63 +18377,135 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="74">
+        <v>45382</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="D66" s="20">
+        <v>45323</v>
+      </c>
+      <c r="E66" s="11">
+        <v>4.24</v>
+      </c>
+      <c r="F66" s="11">
+        <v>1</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+    </row>
+    <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="39">
+        <v>45469</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="D67" s="20">
+        <v>45413</v>
+      </c>
+      <c r="E67" s="11">
+        <v>2.85</v>
+      </c>
+      <c r="F67" s="11">
+        <v>1</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+    </row>
+    <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
@@ -22059,10 +22192,6 @@
     <row r="1001" spans="5:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E1001" s="2"/>
       <c r="F1001" s="2"/>
-    </row>
-    <row r="1002" spans="5:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E1002" s="2"/>
-      <c r="F1002" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29716,7 +29845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/repofumetti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBDAC0-B4FC-4F44-A046-94157129FABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A0F01-9908-8B49-88B2-2395FA750C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="560" windowWidth="33600" windowHeight="18800" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="410">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1239,6 +1239,42 @@
   </si>
   <si>
     <t>X-MEN #1 TONY DANIEL VAR</t>
+  </si>
+  <si>
+    <t>Vinted</t>
+  </si>
+  <si>
+    <t>X-Men Omnibus vol.1 Jim Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinted </t>
+  </si>
+  <si>
+    <t>X-Men  Execuzione</t>
+  </si>
+  <si>
+    <t>Marvel omnibus Annihilation</t>
+  </si>
+  <si>
+    <t>Omnibus spider-man di david michelinie</t>
+  </si>
+  <si>
+    <t>Alpha Flight Byrne omnibus panini</t>
+  </si>
+  <si>
+    <t>Super Villain Team Up - Marvel O</t>
+  </si>
+  <si>
+    <t>Avengers di hickman omnibus 1 mondo</t>
+  </si>
+  <si>
+    <t>Omnibus Marvel Spiderman Mcfarla</t>
+  </si>
+  <si>
+    <t>Marvel Omnibus Capitan America</t>
+  </si>
+  <si>
+    <t>Omnibus Capitan America La morte del sogno Esaurito</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1285,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1449,8 +1485,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF757575"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF171717"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1517,6 +1565,12 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1537,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1722,7 +1776,12 @@
     <xf numFmtId="14" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7480,8 +7539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7649,54 +7708,164 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D16" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C17" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>402</v>
+      </c>
+      <c r="C18" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D18" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D19" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D20" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D21" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D22" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23" s="96" t="s">
+        <v>407</v>
+      </c>
+      <c r="C23" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D23" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D24" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25" s="97" t="s">
+        <v>409</v>
+      </c>
+      <c r="C25" s="51">
+        <v>45482</v>
+      </c>
+      <c r="D25" s="2">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10616,7 +10785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -12390,7 +12559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="277" zoomScaleNormal="277" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17035,8 +17204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A9" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18661,7 +18830,7 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="95">
         <v>45301</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -35698,7 +35867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/repofumetti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2A0F01-9908-8B49-88B2-2395FA750C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEA826C-3914-7544-88A6-4DC447F953EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="560" windowWidth="33600" windowHeight="18800" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="418">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1275,6 +1275,30 @@
   </si>
   <si>
     <t>Omnibus Capitan America La morte del sogno Esaurito</t>
+  </si>
+  <si>
+    <t>J-POp</t>
+  </si>
+  <si>
+    <t>Takahashi del negozio di biciclette #3</t>
+  </si>
+  <si>
+    <t>Milo Manara Collection #27</t>
+  </si>
+  <si>
+    <t>Super Tex #33</t>
+  </si>
+  <si>
+    <t>Nathan Never #397 bis</t>
+  </si>
+  <si>
+    <t>Boneli</t>
+  </si>
+  <si>
+    <t>Zagor #708</t>
+  </si>
+  <si>
+    <t>Tex 765</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1309,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1497,6 +1521,11 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1591,7 +1620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1782,6 +1811,13 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7539,7 +7575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -10786,7 +10822,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11486,7 +11522,7 @@
       <c r="B26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="99" t="s">
         <v>371</v>
       </c>
       <c r="D26" s="77">
@@ -11506,7 +11542,7 @@
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="98" t="s">
         <v>373</v>
       </c>
       <c r="D27" s="77">
@@ -11579,7 +11615,26 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51">
+        <v>45482</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C31" s="98" t="s">
+        <v>411</v>
+      </c>
+      <c r="D31" s="77">
+        <v>45474</v>
+      </c>
+      <c r="E31" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+    </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17204,8 +17259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17505,7 +17560,7 @@
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="101" t="s">
         <v>121</v>
       </c>
       <c r="D15" s="25">
@@ -17565,7 +17620,7 @@
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="101" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="25">
@@ -30538,8 +30593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A47" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31358,18 +31413,71 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="2"/>
+      <c r="A50" s="51">
+        <v>45479</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="D50" s="2">
+        <v>12.99</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="2"/>
+      <c r="A51" s="51">
+        <v>45479</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
+      <c r="A52" s="51">
+        <v>45479</v>
+      </c>
+      <c r="B52" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="2"/>
+      <c r="A53" s="51">
+        <v>45475</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="51">
+        <v>45479</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="100" t="s">
+        <v>417</v>
+      </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -35867,8 +35975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36046,10 +36154,10 @@
       <c r="Z14" s="46"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="102">
         <v>45488</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="50" t="s">
         <v>239</v>
       </c>
       <c r="C15" s="2">

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/repofumetti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEA826C-3914-7544-88A6-4DC447F953EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA8498A-C418-BD4C-8B7C-0BB77946E7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -1309,7 +1309,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,6 +1526,11 @@
       <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1620,7 +1625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1652,9 +1657,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1818,6 +1820,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2035,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2146,7 +2160,7 @@
       <c r="A8" s="6">
         <v>45416</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="85" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8">
@@ -2184,7 +2198,7 @@
       <c r="A9" s="6">
         <v>45413</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="105" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
@@ -2222,7 +2236,7 @@
       <c r="A10" s="6">
         <v>45413</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="86" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="8">
@@ -2252,49 +2266,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70">
+    <row r="12" spans="1:26" s="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="69">
         <v>45413</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="87">
         <v>45413</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="88">
         <v>4.24</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="88">
         <v>4.24</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>45444</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="86" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="8">
@@ -2332,7 +2346,7 @@
       <c r="A14" s="6">
         <v>45413</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="8">
@@ -2417,39 +2431,39 @@
       <c r="A19" s="13">
         <v>45413</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>45474</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>6.79</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>1</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -2472,7 +2486,7 @@
       <c r="A21" s="6">
         <v>45413</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="106" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="8">
@@ -2540,7 +2554,7 @@
       <c r="A25" s="6">
         <v>45383</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="91" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="8">
@@ -2553,25 +2567,25 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="91" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70">
+    <row r="26" spans="1:26" s="90" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="69">
         <v>45383</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="88">
+      <c r="C26" s="87">
         <v>45444</v>
       </c>
-      <c r="D26" s="89">
+      <c r="D26" s="88">
         <v>4.24</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="88">
         <v>4.24</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="84" t="s">
         <v>369</v>
       </c>
       <c r="C27" s="1">
@@ -2590,7 +2604,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="75" t="s">
         <v>376</v>
       </c>
       <c r="C29" s="1">
@@ -2604,7 +2618,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="75" t="s">
         <v>378</v>
       </c>
       <c r="C30" s="1">
@@ -2618,7 +2632,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="75" t="s">
         <v>379</v>
       </c>
       <c r="C31" s="1">
@@ -2632,7 +2646,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="75" t="s">
         <v>380</v>
       </c>
       <c r="C32" s="1">
@@ -2646,7 +2660,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="75" t="s">
         <v>381</v>
       </c>
       <c r="C33" s="1">
@@ -2660,7 +2674,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="75" t="s">
         <v>386</v>
       </c>
       <c r="C34" s="1">
@@ -2674,7 +2688,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="83" t="s">
         <v>372</v>
       </c>
       <c r="C35" s="1">
@@ -2688,7 +2702,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="75" t="s">
         <v>375</v>
       </c>
       <c r="C36" s="1">
@@ -2702,7 +2716,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="75" t="s">
         <v>387</v>
       </c>
       <c r="C37" s="1">
@@ -2716,7 +2730,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="75" t="s">
         <v>388</v>
       </c>
       <c r="C38" s="1">
@@ -2730,7 +2744,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="75" t="s">
         <v>390</v>
       </c>
       <c r="C39" s="1">
@@ -2744,7 +2758,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="75" t="s">
         <v>392</v>
       </c>
       <c r="C40" s="1">
@@ -2758,7 +2772,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="75" t="s">
         <v>395</v>
       </c>
       <c r="C41" s="1">
@@ -2772,7 +2786,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="75" t="s">
         <v>397</v>
       </c>
       <c r="C42" s="1">
@@ -7660,7 +7674,7 @@
       <c r="A9" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>285</v>
       </c>
       <c r="C9" s="3">
@@ -7677,7 +7691,7 @@
       <c r="B10" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="50">
         <v>45519</v>
       </c>
       <c r="D10" s="2">
@@ -7691,7 +7705,7 @@
       <c r="B11" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="50">
         <v>45519</v>
       </c>
       <c r="D11" s="2">
@@ -7705,7 +7719,7 @@
       <c r="B12" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="50">
         <v>45519</v>
       </c>
       <c r="D12" s="2">
@@ -7719,7 +7733,7 @@
       <c r="B13" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="50">
         <v>45519</v>
       </c>
       <c r="D13" s="2">
@@ -7733,7 +7747,7 @@
       <c r="B14" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="50">
         <v>45519</v>
       </c>
       <c r="D14" s="2">
@@ -7750,7 +7764,7 @@
       <c r="B16" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="50">
         <v>45482</v>
       </c>
       <c r="D16" s="2">
@@ -7764,7 +7778,7 @@
       <c r="B17" t="s">
         <v>401</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="50">
         <v>45482</v>
       </c>
       <c r="D17" s="2">
@@ -7775,10 +7789,10 @@
       <c r="A18" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="95" t="s">
         <v>402</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="50">
         <v>45482</v>
       </c>
       <c r="D18" s="2">
@@ -7789,10 +7803,10 @@
       <c r="A19" t="s">
         <v>398</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="95" t="s">
         <v>403</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="50">
         <v>45482</v>
       </c>
       <c r="D19" s="2">
@@ -7803,10 +7817,10 @@
       <c r="A20" t="s">
         <v>398</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="50">
         <v>45482</v>
       </c>
       <c r="D20" s="2">
@@ -7817,10 +7831,10 @@
       <c r="A21" t="s">
         <v>398</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="95" t="s">
         <v>405</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <v>45482</v>
       </c>
       <c r="D21" s="2">
@@ -7831,10 +7845,10 @@
       <c r="A22" t="s">
         <v>398</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="95" t="s">
         <v>406</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <v>45482</v>
       </c>
       <c r="D22" s="2">
@@ -7845,10 +7859,10 @@
       <c r="A23" t="s">
         <v>398</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="95" t="s">
         <v>407</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="50">
         <v>45482</v>
       </c>
       <c r="D23" s="2">
@@ -7859,10 +7873,10 @@
       <c r="A24" t="s">
         <v>398</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="95" t="s">
         <v>408</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="50">
         <v>45482</v>
       </c>
       <c r="D24" s="2">
@@ -7873,10 +7887,10 @@
       <c r="A25" t="s">
         <v>398</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>409</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="50">
         <v>45482</v>
       </c>
       <c r="D25" s="2">
@@ -10836,7 +10850,7 @@
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>45421</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -10845,7 +10859,7 @@
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>45413</v>
       </c>
       <c r="E3" s="10">
@@ -10876,7 +10890,7 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>45421</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -10885,7 +10899,7 @@
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>45413</v>
       </c>
       <c r="E4" s="10">
@@ -10916,7 +10930,7 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>45416</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -10925,7 +10939,7 @@
       <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>45444</v>
       </c>
       <c r="E5" s="10">
@@ -10956,7 +10970,7 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>45413</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -10965,7 +10979,7 @@
       <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>45413</v>
       </c>
       <c r="E6" s="10">
@@ -10996,7 +11010,7 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70">
+      <c r="A7" s="69">
         <v>45414</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -11005,7 +11019,7 @@
       <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>45444</v>
       </c>
       <c r="E7" s="10">
@@ -11036,16 +11050,16 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93">
+      <c r="A8" s="92">
         <v>45381</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>45413</v>
       </c>
       <c r="E8" s="10">
@@ -11076,16 +11090,16 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70">
+      <c r="A9" s="69">
         <v>45361</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>45383</v>
       </c>
       <c r="E9" s="10">
@@ -11116,16 +11130,16 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>45401</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>45444</v>
       </c>
       <c r="E10" s="10">
@@ -11156,7 +11170,7 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>45401</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -11165,7 +11179,7 @@
       <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>45383</v>
       </c>
       <c r="E11" s="10">
@@ -11196,16 +11210,16 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>45401</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>45383</v>
       </c>
       <c r="E12" s="10">
@@ -11236,16 +11250,16 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>45401</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="48">
         <v>45383</v>
       </c>
       <c r="E13" s="10">
@@ -11276,16 +11290,16 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="94">
+      <c r="A14" s="93">
         <v>45413</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>45413</v>
       </c>
       <c r="E14" s="10">
@@ -11296,16 +11310,16 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58">
+      <c r="A15" s="57">
         <v>45442</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>45413</v>
       </c>
       <c r="E15" s="10">
@@ -11316,16 +11330,16 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <v>45444</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>45352</v>
       </c>
       <c r="E16" s="10">
@@ -11336,16 +11350,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="80">
+      <c r="A17" s="79">
         <v>45444</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>45474</v>
       </c>
       <c r="E17" s="10">
@@ -11356,7 +11370,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79">
+      <c r="A18" s="78">
         <v>45444</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -11365,7 +11379,7 @@
       <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>45474</v>
       </c>
       <c r="E18" s="10">
@@ -11376,16 +11390,16 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>45444</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <v>45383</v>
       </c>
       <c r="E19" s="10">
@@ -11396,16 +11410,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>45444</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>45413</v>
       </c>
       <c r="E20" s="10">
@@ -11416,16 +11430,16 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <v>45444</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>45383</v>
       </c>
       <c r="E21" s="10">
@@ -11436,16 +11450,16 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>45444</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>45231</v>
       </c>
       <c r="E22" s="10">
@@ -11456,16 +11470,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>45465</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>45231</v>
       </c>
       <c r="E23" s="10">
@@ -11476,16 +11490,16 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+      <c r="A24" s="25">
         <v>45465</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>45231</v>
       </c>
       <c r="E24" s="10">
@@ -11496,16 +11510,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
+      <c r="A25" s="25">
         <v>45465</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>45231</v>
       </c>
       <c r="E25" s="10">
@@ -11516,16 +11530,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51">
+      <c r="A26" s="50">
         <v>45474</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="98" t="s">
         <v>371</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="76">
         <v>45474</v>
       </c>
       <c r="E26" s="10">
@@ -11536,16 +11550,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51">
+      <c r="A27" s="50">
         <v>45474</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="97" t="s">
         <v>373</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="76">
         <v>45474</v>
       </c>
       <c r="E27" s="10">
@@ -11556,16 +11570,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51">
+      <c r="A28" s="50">
         <v>45474</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="76">
         <v>45474</v>
       </c>
       <c r="E28" s="10">
@@ -11576,16 +11590,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51">
+      <c r="A29" s="50">
         <v>45474</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="76">
         <v>45444</v>
       </c>
       <c r="E29" s="10">
@@ -11596,16 +11610,16 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51">
+      <c r="A30" s="50">
         <v>45474</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="76">
         <v>45413</v>
       </c>
       <c r="E30" s="10">
@@ -11616,16 +11630,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <v>45482</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C31" s="98" t="s">
+      <c r="C31" s="97" t="s">
         <v>411</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="76">
         <v>45474</v>
       </c>
       <c r="E31" s="10">
@@ -12634,10 +12648,10 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>45418</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="2">
@@ -12651,10 +12665,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>45418</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="2">
@@ -12668,7 +12682,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>45413</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -12685,7 +12699,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>45413</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -12702,7 +12716,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>45413</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -12719,7 +12733,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>45413</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -12736,7 +12750,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>45413</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -12753,7 +12767,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>45413</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -12770,7 +12784,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>45413</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -12787,7 +12801,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>45413</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -12804,7 +12818,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>45413</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -12821,7 +12835,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>45413</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -12838,7 +12852,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>45413</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -12855,7 +12869,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>45413</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -12872,7 +12886,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>45413</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -12889,7 +12903,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>45413</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -12906,7 +12920,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>45413</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -12923,7 +12937,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>45413</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -12940,7 +12954,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>45413</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -12957,7 +12971,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>45413</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -12974,7 +12988,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>45413</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -12991,7 +13005,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+      <c r="A24" s="25">
         <v>45413</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -13008,7 +13022,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
+      <c r="A25" s="25">
         <v>45413</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -13025,7 +13039,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
+      <c r="A26" s="25">
         <v>45413</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -13042,7 +13056,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
+      <c r="A27" s="25">
         <v>45413</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -13173,7 +13187,7 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="31" t="s">
         <v>83</v>
       </c>
     </row>
@@ -13190,7 +13204,7 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="31" t="s">
         <v>83</v>
       </c>
     </row>
@@ -13207,7 +13221,7 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="31" t="s">
         <v>83</v>
       </c>
     </row>
@@ -13224,7 +13238,7 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="31" t="s">
         <v>83</v>
       </c>
     </row>
@@ -13241,211 +13255,211 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33">
+      <c r="A39" s="32">
         <v>45418</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33">
+      <c r="A40" s="32">
         <v>45418</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="34">
         <v>0</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33">
+      <c r="A41" s="32">
         <v>45418</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="34">
         <v>0</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="33">
+      <c r="A42" s="32">
         <v>45418</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="34">
         <v>0</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="33">
+      <c r="A43" s="32">
         <v>45418</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="34">
         <v>0</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33">
+      <c r="A44" s="32">
         <v>45418</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="34">
         <v>0</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="33">
+      <c r="A45" s="32">
         <v>45418</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="34">
         <v>0</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="33">
+      <c r="A46" s="32">
         <v>45418</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="34">
         <v>0</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="33">
+      <c r="A47" s="32">
         <v>45418</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="34">
         <v>0</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33">
+      <c r="A48" s="32">
         <v>45418</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="34">
         <v>0</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33">
+      <c r="A49" s="32">
         <v>45418</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="34">
         <v>0</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33">
+      <c r="A50" s="32">
         <v>45418</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="34">
         <v>0</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="33" t="s">
         <v>95</v>
       </c>
     </row>
@@ -17260,7 +17274,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17283,7 +17297,7 @@
       <c r="C1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="24">
         <v>45505</v>
       </c>
       <c r="E1" s="2">
@@ -17303,7 +17317,7 @@
       <c r="C2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>45505</v>
       </c>
       <c r="E2" s="2">
@@ -17323,7 +17337,7 @@
       <c r="C3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>45505</v>
       </c>
       <c r="E3" s="2">
@@ -17343,7 +17357,7 @@
       <c r="C4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>45505</v>
       </c>
       <c r="E4" s="2">
@@ -17363,7 +17377,7 @@
       <c r="C5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>45505</v>
       </c>
       <c r="E5" s="2">
@@ -17383,7 +17397,7 @@
       <c r="C6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>45505</v>
       </c>
       <c r="E6" s="2">
@@ -17403,7 +17417,7 @@
       <c r="C7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>45505</v>
       </c>
       <c r="E7" s="2">
@@ -17423,7 +17437,7 @@
       <c r="C8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>45505</v>
       </c>
       <c r="E8" s="2">
@@ -17443,7 +17457,7 @@
       <c r="C9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>45505</v>
       </c>
       <c r="E9" s="2">
@@ -17463,7 +17477,7 @@
       <c r="C10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>45505</v>
       </c>
       <c r="E10" s="2">
@@ -17483,7 +17497,7 @@
       <c r="C11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>45597</v>
       </c>
       <c r="E11" s="2">
@@ -17500,10 +17514,10 @@
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>45474</v>
       </c>
       <c r="E12" s="2">
@@ -17523,7 +17537,7 @@
       <c r="C13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>45536</v>
       </c>
       <c r="E13" s="2">
@@ -17543,7 +17557,7 @@
       <c r="C14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>45536</v>
       </c>
       <c r="E14" s="2">
@@ -17560,10 +17574,10 @@
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>45474</v>
       </c>
       <c r="E15" s="2">
@@ -17583,7 +17597,7 @@
       <c r="C16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>45474</v>
       </c>
       <c r="E16" s="2">
@@ -17603,7 +17617,7 @@
       <c r="C17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>45474</v>
       </c>
       <c r="E17" s="2">
@@ -17620,10 +17634,10 @@
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>45474</v>
       </c>
       <c r="E18" s="2">
@@ -17634,7 +17648,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>45444</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -17643,7 +17657,7 @@
       <c r="C19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <v>45413</v>
       </c>
       <c r="E19" s="2">
@@ -17654,7 +17668,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>45465</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -17663,7 +17677,7 @@
       <c r="C20" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>45413</v>
       </c>
       <c r="E20" s="2">
@@ -17674,7 +17688,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <v>45444</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -17683,7 +17697,7 @@
       <c r="C21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>45413</v>
       </c>
       <c r="E21" s="2">
@@ -17694,7 +17708,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>45465</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -17703,7 +17717,7 @@
       <c r="C22" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>45413</v>
       </c>
       <c r="E22" s="2">
@@ -17727,7 +17741,7 @@
       <c r="C24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>45474</v>
       </c>
       <c r="E24" s="10">
@@ -17747,7 +17761,7 @@
       <c r="C25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>45474</v>
       </c>
       <c r="E25" s="10">
@@ -17758,7 +17772,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71">
+      <c r="A26" s="70">
         <v>45421</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -17767,7 +17781,7 @@
       <c r="C26" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>45474</v>
       </c>
       <c r="E26" s="10">
@@ -17780,21 +17794,21 @@
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="19"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81">
+      <c r="A28" s="80">
         <v>45414</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>45413</v>
       </c>
       <c r="E28" s="10">
@@ -17825,7 +17839,7 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="70">
+      <c r="A29" s="69">
         <v>45412</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -17834,7 +17848,7 @@
       <c r="C29" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>45444</v>
       </c>
       <c r="E29" s="10">
@@ -17865,7 +17879,7 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38">
+      <c r="A30" s="37">
         <v>45414</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -17874,7 +17888,7 @@
       <c r="C30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>45413</v>
       </c>
       <c r="E30" s="10">
@@ -17905,7 +17919,7 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="70">
+      <c r="A31" s="69">
         <v>45412</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -17914,7 +17928,7 @@
       <c r="C31" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>45444</v>
       </c>
       <c r="E31" s="10">
@@ -17945,16 +17959,16 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <v>45414</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>45413</v>
       </c>
       <c r="E32" s="10">
@@ -17985,7 +17999,7 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="70">
+      <c r="A33" s="69">
         <v>45413</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -17994,7 +18008,7 @@
       <c r="C33" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>45474</v>
       </c>
       <c r="E33" s="10">
@@ -18014,7 +18028,7 @@
       <c r="C34" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>45474</v>
       </c>
       <c r="E34" s="10">
@@ -18031,16 +18045,16 @@
       <c r="B35" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="39">
         <v>45505</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="40">
         <v>121.13</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <v>12.11</v>
       </c>
     </row>
@@ -18051,16 +18065,16 @@
       <c r="B36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="39">
         <v>45505</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="40">
         <v>121.13</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <v>12.11</v>
       </c>
     </row>
@@ -18074,7 +18088,7 @@
       <c r="C37" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>45505</v>
       </c>
       <c r="E37" s="10">
@@ -18085,7 +18099,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="70">
+      <c r="A38" s="69">
         <v>45413</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -18094,7 +18108,7 @@
       <c r="C38" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="18">
         <v>45474</v>
       </c>
       <c r="E38" s="10">
@@ -18114,7 +18128,7 @@
       <c r="C39" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>45597</v>
       </c>
       <c r="E39" s="10">
@@ -18134,7 +18148,7 @@
       <c r="C40" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>45474</v>
       </c>
       <c r="E40" s="10">
@@ -18154,7 +18168,7 @@
       <c r="C41" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <v>45474</v>
       </c>
       <c r="E41" s="10">
@@ -18165,16 +18179,16 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="81">
+      <c r="A42" s="80">
         <v>45382</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <v>45413</v>
       </c>
       <c r="E42" s="10">
@@ -18205,7 +18219,7 @@
       <c r="Z42" s="11"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <v>45382</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -18214,7 +18228,7 @@
       <c r="C43" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>45413</v>
       </c>
       <c r="E43" s="10">
@@ -18254,7 +18268,7 @@
       <c r="C44" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>45566</v>
       </c>
       <c r="E44" s="10">
@@ -18285,7 +18299,7 @@
       <c r="Z44" s="11"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="83">
+      <c r="A45" s="82">
         <v>45408</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -18294,7 +18308,7 @@
       <c r="C45" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="18">
         <v>45474</v>
       </c>
       <c r="E45" s="10">
@@ -18334,7 +18348,7 @@
       <c r="C46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>45597</v>
       </c>
       <c r="E46" s="10">
@@ -18365,7 +18379,7 @@
       <c r="Z46" s="11"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18">
+      <c r="A47" s="17">
         <v>45382</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -18374,7 +18388,7 @@
       <c r="C47" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="18">
         <v>45413</v>
       </c>
       <c r="E47" s="10">
@@ -18405,16 +18419,16 @@
       <c r="Z47" s="11"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+      <c r="A48" s="17">
         <v>45382</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="18">
         <v>45413</v>
       </c>
       <c r="E48" s="10">
@@ -18445,16 +18459,16 @@
       <c r="Z48" s="11"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18">
+      <c r="A49" s="17">
         <v>45382</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>45413</v>
       </c>
       <c r="E49" s="10">
@@ -18485,7 +18499,7 @@
       <c r="Z49" s="11"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18">
+      <c r="A50" s="17">
         <v>45408</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -18494,7 +18508,7 @@
       <c r="C50" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>45413</v>
       </c>
       <c r="E50" s="10">
@@ -18525,7 +18539,7 @@
       <c r="Z50" s="11"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70">
+      <c r="A51" s="69">
         <v>45383</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -18534,7 +18548,7 @@
       <c r="C51" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>45474</v>
       </c>
       <c r="E51" s="10">
@@ -18545,7 +18559,7 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="70">
+      <c r="A52" s="69">
         <v>45351</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -18554,7 +18568,7 @@
       <c r="C52" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D52" s="49">
+      <c r="D52" s="48">
         <v>45383</v>
       </c>
       <c r="E52" s="10">
@@ -18585,7 +18599,7 @@
       <c r="Z52" s="11"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18">
+      <c r="A53" s="17">
         <v>45413</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -18594,7 +18608,7 @@
       <c r="C53" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="18">
         <v>45413</v>
       </c>
       <c r="E53" s="10">
@@ -18605,7 +18619,7 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="81">
+      <c r="A54" s="80">
         <v>45395</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -18614,7 +18628,7 @@
       <c r="C54" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <v>45413</v>
       </c>
       <c r="E54" s="10">
@@ -18645,7 +18659,7 @@
       <c r="Z54" s="11"/>
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="71">
+      <c r="A55" s="70">
         <v>45395</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -18654,7 +18668,7 @@
       <c r="C55" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>45383</v>
       </c>
       <c r="E55" s="10">
@@ -18685,7 +18699,7 @@
       <c r="Z55" s="11"/>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="70">
+      <c r="A56" s="69">
         <v>45395</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -18694,7 +18708,7 @@
       <c r="C56" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="49">
+      <c r="D56" s="48">
         <v>45383</v>
       </c>
       <c r="E56" s="10">
@@ -18725,7 +18739,7 @@
       <c r="Z56" s="11"/>
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18">
+      <c r="A57" s="17">
         <v>45408</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -18734,7 +18748,7 @@
       <c r="C57" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="18">
         <v>45383</v>
       </c>
       <c r="E57" s="10">
@@ -18765,7 +18779,7 @@
       <c r="Z57" s="11"/>
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18">
+      <c r="A58" s="17">
         <v>45401</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -18774,7 +18788,7 @@
       <c r="C58" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="18">
         <v>45383</v>
       </c>
       <c r="E58" s="10">
@@ -18805,7 +18819,7 @@
       <c r="Z58" s="11"/>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18">
+      <c r="A59" s="17">
         <v>45383</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -18814,7 +18828,7 @@
       <c r="C59" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <v>45352</v>
       </c>
       <c r="E59" s="10">
@@ -18825,7 +18839,7 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18">
+      <c r="A60" s="17">
         <v>45398</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -18834,7 +18848,7 @@
       <c r="C60" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="18">
         <v>45383</v>
       </c>
       <c r="E60" s="10">
@@ -18845,7 +18859,7 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18">
+      <c r="A61" s="17">
         <v>45398</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -18854,7 +18868,7 @@
       <c r="C61" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="18">
         <v>45505</v>
       </c>
       <c r="E61" s="10">
@@ -18865,7 +18879,7 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
+      <c r="A62" s="17">
         <v>45389</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -18874,7 +18888,7 @@
       <c r="C62" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="18">
         <v>45383</v>
       </c>
       <c r="E62" s="10">
@@ -18885,7 +18899,7 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="95">
+      <c r="A63" s="94">
         <v>45301</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -18894,7 +18908,7 @@
       <c r="C63" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="21">
         <v>45292</v>
       </c>
       <c r="E63" s="10">
@@ -18905,16 +18919,16 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="58">
+      <c r="A64" s="57">
         <v>45435</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="25">
+      <c r="D64" s="24">
         <v>45413</v>
       </c>
       <c r="E64" s="10">
@@ -18925,16 +18939,16 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="58">
+      <c r="A65" s="57">
         <v>45465</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="24">
         <v>45444</v>
       </c>
       <c r="E65" s="10">
@@ -18945,16 +18959,16 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="82">
+      <c r="A66" s="81">
         <v>45382</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="18">
         <v>45323</v>
       </c>
       <c r="E66" s="10">
@@ -18985,16 +18999,16 @@
       <c r="Z66" s="11"/>
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="81">
+      <c r="A67" s="80">
         <v>45469</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="18">
         <v>45413</v>
       </c>
       <c r="E67" s="10">
@@ -19025,16 +19039,16 @@
       <c r="Z67" s="11"/>
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="78">
+      <c r="A68" s="77">
         <v>45465</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="76" t="s">
+      <c r="C68" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="D68" s="77">
+      <c r="D68" s="76">
         <v>45444</v>
       </c>
       <c r="E68" s="2">
@@ -19045,16 +19059,16 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51">
+      <c r="A69" s="50">
         <v>45474</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="D69" s="77">
+      <c r="D69" s="76">
         <v>45536</v>
       </c>
       <c r="E69" s="2">
@@ -19065,16 +19079,16 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="A70" s="50">
         <v>45474</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="76" t="s">
+      <c r="C70" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="D70" s="77">
+      <c r="D70" s="76">
         <v>45536</v>
       </c>
       <c r="E70" s="2">
@@ -19085,16 +19099,16 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51">
+      <c r="A71" s="50">
         <v>45474</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="76" t="s">
+      <c r="C71" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="D71" s="77">
+      <c r="D71" s="76">
         <v>45536</v>
       </c>
       <c r="E71" s="2">
@@ -19105,7 +19119,7 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51">
+      <c r="A72" s="50">
         <v>45474</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -19114,7 +19128,7 @@
       <c r="C72" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D72" s="77">
+      <c r="D72" s="76">
         <v>45474</v>
       </c>
       <c r="E72" s="2">
@@ -19125,16 +19139,16 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="51">
+      <c r="A73" s="50">
         <v>45474</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="76" t="s">
+      <c r="C73" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="D73" s="51">
+      <c r="D73" s="50">
         <v>45536</v>
       </c>
       <c r="E73" s="2">
@@ -19145,16 +19159,16 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="51">
+      <c r="A74" s="50">
         <v>45474</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="76" t="s">
+      <c r="C74" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="D74" s="51">
+      <c r="D74" s="50">
         <v>45536</v>
       </c>
       <c r="E74" s="2">
@@ -19165,16 +19179,16 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="51">
+      <c r="A75" s="50">
         <v>45474</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="76" t="s">
+      <c r="C75" s="75" t="s">
         <v>389</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="50">
         <v>45536</v>
       </c>
       <c r="E75" s="2">
@@ -19191,10 +19205,10 @@
       <c r="B76" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="76" t="s">
+      <c r="C76" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="50">
         <v>45536</v>
       </c>
       <c r="E76" s="2">
@@ -27073,16 +27087,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="44"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="44"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="44"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>45416</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -27091,7 +27105,7 @@
       <c r="C4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>45413</v>
       </c>
       <c r="E4" s="10">
@@ -27122,7 +27136,7 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>45413</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -27131,7 +27145,7 @@
       <c r="C5" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>45413</v>
       </c>
       <c r="E5" s="10">
@@ -27162,7 +27176,7 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>45414</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -27171,7 +27185,7 @@
       <c r="C6" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>45413</v>
       </c>
       <c r="E6" s="10">
@@ -27202,7 +27216,7 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>45393</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -27211,7 +27225,7 @@
       <c r="C7" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>45413</v>
       </c>
       <c r="E7" s="10">
@@ -27231,7 +27245,7 @@
       <c r="C8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="42">
         <v>45383</v>
       </c>
       <c r="E8" s="10">
@@ -27262,7 +27276,7 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>45409</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -27271,7 +27285,7 @@
       <c r="C9" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>45383</v>
       </c>
       <c r="E9" s="10">
@@ -27282,7 +27296,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>45417</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -27291,7 +27305,7 @@
       <c r="C10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>45413</v>
       </c>
       <c r="E10" s="10">
@@ -27302,7 +27316,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>45416</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -27311,7 +27325,7 @@
       <c r="C11" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>45413</v>
       </c>
       <c r="E11" s="10">
@@ -27342,13 +27356,13 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>45419</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>178</v>
       </c>
       <c r="D12" s="3">
@@ -27368,7 +27382,7 @@
       <c r="B13" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>179</v>
       </c>
       <c r="D13" s="3">
@@ -27388,7 +27402,7 @@
       <c r="B14" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="3">
@@ -27408,7 +27422,7 @@
       <c r="B15" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="3">
@@ -27422,13 +27436,13 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>45429</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="3">
@@ -27442,13 +27456,13 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>45430</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>183</v>
       </c>
       <c r="D17" s="3">
@@ -27462,13 +27476,13 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>45442</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>184</v>
       </c>
       <c r="D18" s="3">
@@ -27488,7 +27502,7 @@
       <c r="B19" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>185</v>
       </c>
       <c r="D19" s="3">
@@ -27508,7 +27522,7 @@
       <c r="B20" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>186</v>
       </c>
       <c r="D20" s="3">
@@ -27522,13 +27536,13 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <v>45422</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="3">
@@ -27548,10 +27562,10 @@
       <c r="B22" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>45444</v>
       </c>
       <c r="E22" s="10">
@@ -27568,10 +27582,10 @@
       <c r="B23" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>45444</v>
       </c>
       <c r="E23" s="10">
@@ -27588,10 +27602,10 @@
       <c r="B24" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>45444</v>
       </c>
       <c r="E24" s="10">
@@ -27602,16 +27616,16 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51">
+      <c r="A25" s="50">
         <v>45465</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="50">
         <v>45465</v>
       </c>
       <c r="E25" s="10">
@@ -27622,7 +27636,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>45416</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -27631,7 +27645,7 @@
       <c r="C26" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>45413</v>
       </c>
       <c r="E26" s="10">
@@ -27662,2926 +27676,2926 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="44"/>
+      <c r="C27" s="43"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="44"/>
+      <c r="C28" s="43"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="44"/>
+      <c r="C29" s="43"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="44"/>
+      <c r="C30" s="43"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="44"/>
+      <c r="C31" s="43"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="44"/>
+      <c r="C32" s="43"/>
     </row>
     <row r="33" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="44"/>
+      <c r="C33" s="43"/>
     </row>
     <row r="34" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="44"/>
+      <c r="C34" s="43"/>
     </row>
     <row r="35" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="44"/>
+      <c r="C35" s="43"/>
     </row>
     <row r="36" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="44"/>
+      <c r="C36" s="43"/>
     </row>
     <row r="37" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="44"/>
+      <c r="C37" s="43"/>
     </row>
     <row r="38" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="44"/>
+      <c r="C38" s="43"/>
     </row>
     <row r="39" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="44"/>
+      <c r="C39" s="43"/>
     </row>
     <row r="40" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="44"/>
+      <c r="C40" s="43"/>
     </row>
     <row r="41" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="44"/>
+      <c r="C41" s="43"/>
     </row>
     <row r="42" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="44"/>
+      <c r="C42" s="43"/>
     </row>
     <row r="43" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="44"/>
+      <c r="C43" s="43"/>
     </row>
     <row r="44" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="44"/>
+      <c r="C44" s="43"/>
     </row>
     <row r="45" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="44"/>
+      <c r="C45" s="43"/>
     </row>
     <row r="46" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="44"/>
+      <c r="C46" s="43"/>
     </row>
     <row r="47" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="44"/>
+      <c r="C47" s="43"/>
     </row>
     <row r="48" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="44"/>
+      <c r="C48" s="43"/>
     </row>
     <row r="49" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="44"/>
+      <c r="C49" s="43"/>
     </row>
     <row r="50" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="44"/>
+      <c r="C50" s="43"/>
     </row>
     <row r="51" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="44"/>
+      <c r="C51" s="43"/>
     </row>
     <row r="52" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="44"/>
+      <c r="C52" s="43"/>
     </row>
     <row r="53" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="44"/>
+      <c r="C53" s="43"/>
     </row>
     <row r="54" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="44"/>
+      <c r="C54" s="43"/>
     </row>
     <row r="55" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="44"/>
+      <c r="C55" s="43"/>
     </row>
     <row r="56" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="44"/>
+      <c r="C56" s="43"/>
     </row>
     <row r="57" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="44"/>
+      <c r="C57" s="43"/>
     </row>
     <row r="58" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="44"/>
+      <c r="C58" s="43"/>
     </row>
     <row r="59" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="44"/>
+      <c r="C59" s="43"/>
     </row>
     <row r="60" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="44"/>
+      <c r="C60" s="43"/>
     </row>
     <row r="61" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="44"/>
+      <c r="C61" s="43"/>
     </row>
     <row r="62" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="44"/>
+      <c r="C62" s="43"/>
     </row>
     <row r="63" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="44"/>
+      <c r="C63" s="43"/>
     </row>
     <row r="64" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="44"/>
+      <c r="C64" s="43"/>
     </row>
     <row r="65" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="44"/>
+      <c r="C65" s="43"/>
     </row>
     <row r="66" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="44"/>
+      <c r="C66" s="43"/>
     </row>
     <row r="67" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="44"/>
+      <c r="C67" s="43"/>
     </row>
     <row r="68" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="44"/>
+      <c r="C68" s="43"/>
     </row>
     <row r="69" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="44"/>
+      <c r="C69" s="43"/>
     </row>
     <row r="70" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="44"/>
+      <c r="C70" s="43"/>
     </row>
     <row r="71" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="44"/>
+      <c r="C71" s="43"/>
     </row>
     <row r="72" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="44"/>
+      <c r="C72" s="43"/>
     </row>
     <row r="73" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="44"/>
+      <c r="C73" s="43"/>
     </row>
     <row r="74" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="44"/>
+      <c r="C74" s="43"/>
     </row>
     <row r="75" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="44"/>
+      <c r="C75" s="43"/>
     </row>
     <row r="76" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="44"/>
+      <c r="C76" s="43"/>
     </row>
     <row r="77" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="44"/>
+      <c r="C77" s="43"/>
     </row>
     <row r="78" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="44"/>
+      <c r="C78" s="43"/>
     </row>
     <row r="79" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="44"/>
+      <c r="C79" s="43"/>
     </row>
     <row r="80" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="44"/>
+      <c r="C80" s="43"/>
     </row>
     <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="44"/>
+      <c r="C81" s="43"/>
     </row>
     <row r="82" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="44"/>
+      <c r="C82" s="43"/>
     </row>
     <row r="83" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="44"/>
+      <c r="C83" s="43"/>
     </row>
     <row r="84" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="44"/>
+      <c r="C84" s="43"/>
     </row>
     <row r="85" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="44"/>
+      <c r="C85" s="43"/>
     </row>
     <row r="86" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="44"/>
+      <c r="C86" s="43"/>
     </row>
     <row r="87" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="44"/>
+      <c r="C87" s="43"/>
     </row>
     <row r="88" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="44"/>
+      <c r="C88" s="43"/>
     </row>
     <row r="89" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="44"/>
+      <c r="C89" s="43"/>
     </row>
     <row r="90" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="44"/>
+      <c r="C90" s="43"/>
     </row>
     <row r="91" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="44"/>
+      <c r="C91" s="43"/>
     </row>
     <row r="92" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="44"/>
+      <c r="C92" s="43"/>
     </row>
     <row r="93" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="44"/>
+      <c r="C93" s="43"/>
     </row>
     <row r="94" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="44"/>
+      <c r="C94" s="43"/>
     </row>
     <row r="95" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="44"/>
+      <c r="C95" s="43"/>
     </row>
     <row r="96" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="44"/>
+      <c r="C96" s="43"/>
     </row>
     <row r="97" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="44"/>
+      <c r="C97" s="43"/>
     </row>
     <row r="98" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="44"/>
+      <c r="C98" s="43"/>
     </row>
     <row r="99" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="44"/>
+      <c r="C99" s="43"/>
     </row>
     <row r="100" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="44"/>
+      <c r="C100" s="43"/>
     </row>
     <row r="101" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="44"/>
+      <c r="C101" s="43"/>
     </row>
     <row r="102" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="44"/>
+      <c r="C102" s="43"/>
     </row>
     <row r="103" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="44"/>
+      <c r="C103" s="43"/>
     </row>
     <row r="104" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="44"/>
+      <c r="C104" s="43"/>
     </row>
     <row r="105" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="44"/>
+      <c r="C105" s="43"/>
     </row>
     <row r="106" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="44"/>
+      <c r="C106" s="43"/>
     </row>
     <row r="107" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="44"/>
+      <c r="C107" s="43"/>
     </row>
     <row r="108" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="44"/>
+      <c r="C108" s="43"/>
     </row>
     <row r="109" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="44"/>
+      <c r="C109" s="43"/>
     </row>
     <row r="110" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="44"/>
+      <c r="C110" s="43"/>
     </row>
     <row r="111" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="44"/>
+      <c r="C111" s="43"/>
     </row>
     <row r="112" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="44"/>
+      <c r="C112" s="43"/>
     </row>
     <row r="113" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="44"/>
+      <c r="C113" s="43"/>
     </row>
     <row r="114" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="44"/>
+      <c r="C114" s="43"/>
     </row>
     <row r="115" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="44"/>
+      <c r="C115" s="43"/>
     </row>
     <row r="116" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="44"/>
+      <c r="C116" s="43"/>
     </row>
     <row r="117" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="44"/>
+      <c r="C117" s="43"/>
     </row>
     <row r="118" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="44"/>
+      <c r="C118" s="43"/>
     </row>
     <row r="119" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="44"/>
+      <c r="C119" s="43"/>
     </row>
     <row r="120" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="44"/>
+      <c r="C120" s="43"/>
     </row>
     <row r="121" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="44"/>
+      <c r="C121" s="43"/>
     </row>
     <row r="122" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="44"/>
+      <c r="C122" s="43"/>
     </row>
     <row r="123" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="44"/>
+      <c r="C123" s="43"/>
     </row>
     <row r="124" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="44"/>
+      <c r="C124" s="43"/>
     </row>
     <row r="125" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="44"/>
+      <c r="C125" s="43"/>
     </row>
     <row r="126" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="44"/>
+      <c r="C126" s="43"/>
     </row>
     <row r="127" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C127" s="44"/>
+      <c r="C127" s="43"/>
     </row>
     <row r="128" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="44"/>
+      <c r="C128" s="43"/>
     </row>
     <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C129" s="44"/>
+      <c r="C129" s="43"/>
     </row>
     <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="44"/>
+      <c r="C130" s="43"/>
     </row>
     <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="44"/>
+      <c r="C131" s="43"/>
     </row>
     <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="44"/>
+      <c r="C132" s="43"/>
     </row>
     <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="44"/>
+      <c r="C133" s="43"/>
     </row>
     <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="44"/>
+      <c r="C134" s="43"/>
     </row>
     <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="44"/>
+      <c r="C135" s="43"/>
     </row>
     <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="44"/>
+      <c r="C136" s="43"/>
     </row>
     <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="44"/>
+      <c r="C137" s="43"/>
     </row>
     <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="44"/>
+      <c r="C138" s="43"/>
     </row>
     <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="44"/>
+      <c r="C139" s="43"/>
     </row>
     <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="44"/>
+      <c r="C140" s="43"/>
     </row>
     <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="44"/>
+      <c r="C141" s="43"/>
     </row>
     <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C142" s="44"/>
+      <c r="C142" s="43"/>
     </row>
     <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C143" s="44"/>
+      <c r="C143" s="43"/>
     </row>
     <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="44"/>
+      <c r="C144" s="43"/>
     </row>
     <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C145" s="44"/>
+      <c r="C145" s="43"/>
     </row>
     <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C146" s="44"/>
+      <c r="C146" s="43"/>
     </row>
     <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C147" s="44"/>
+      <c r="C147" s="43"/>
     </row>
     <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C148" s="44"/>
+      <c r="C148" s="43"/>
     </row>
     <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C149" s="44"/>
+      <c r="C149" s="43"/>
     </row>
     <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C150" s="44"/>
+      <c r="C150" s="43"/>
     </row>
     <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C151" s="44"/>
+      <c r="C151" s="43"/>
     </row>
     <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="44"/>
+      <c r="C152" s="43"/>
     </row>
     <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C153" s="44"/>
+      <c r="C153" s="43"/>
     </row>
     <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C154" s="44"/>
+      <c r="C154" s="43"/>
     </row>
     <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C155" s="44"/>
+      <c r="C155" s="43"/>
     </row>
     <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C156" s="44"/>
+      <c r="C156" s="43"/>
     </row>
     <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C157" s="44"/>
+      <c r="C157" s="43"/>
     </row>
     <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C158" s="44"/>
+      <c r="C158" s="43"/>
     </row>
     <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C159" s="44"/>
+      <c r="C159" s="43"/>
     </row>
     <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="44"/>
+      <c r="C160" s="43"/>
     </row>
     <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="44"/>
+      <c r="C161" s="43"/>
     </row>
     <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C162" s="44"/>
+      <c r="C162" s="43"/>
     </row>
     <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C163" s="44"/>
+      <c r="C163" s="43"/>
     </row>
     <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C164" s="44"/>
+      <c r="C164" s="43"/>
     </row>
     <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C165" s="44"/>
+      <c r="C165" s="43"/>
     </row>
     <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="44"/>
+      <c r="C166" s="43"/>
     </row>
     <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C167" s="44"/>
+      <c r="C167" s="43"/>
     </row>
     <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="44"/>
+      <c r="C168" s="43"/>
     </row>
     <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C169" s="44"/>
+      <c r="C169" s="43"/>
     </row>
     <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C170" s="44"/>
+      <c r="C170" s="43"/>
     </row>
     <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C171" s="44"/>
+      <c r="C171" s="43"/>
     </row>
     <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="44"/>
+      <c r="C172" s="43"/>
     </row>
     <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C173" s="44"/>
+      <c r="C173" s="43"/>
     </row>
     <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C174" s="44"/>
+      <c r="C174" s="43"/>
     </row>
     <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C175" s="44"/>
+      <c r="C175" s="43"/>
     </row>
     <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="44"/>
+      <c r="C176" s="43"/>
     </row>
     <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C177" s="44"/>
+      <c r="C177" s="43"/>
     </row>
     <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C178" s="44"/>
+      <c r="C178" s="43"/>
     </row>
     <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C179" s="44"/>
+      <c r="C179" s="43"/>
     </row>
     <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C180" s="44"/>
+      <c r="C180" s="43"/>
     </row>
     <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C181" s="44"/>
+      <c r="C181" s="43"/>
     </row>
     <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C182" s="44"/>
+      <c r="C182" s="43"/>
     </row>
     <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C183" s="44"/>
+      <c r="C183" s="43"/>
     </row>
     <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="44"/>
+      <c r="C184" s="43"/>
     </row>
     <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C185" s="44"/>
+      <c r="C185" s="43"/>
     </row>
     <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C186" s="44"/>
+      <c r="C186" s="43"/>
     </row>
     <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C187" s="44"/>
+      <c r="C187" s="43"/>
     </row>
     <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C188" s="44"/>
+      <c r="C188" s="43"/>
     </row>
     <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C189" s="44"/>
+      <c r="C189" s="43"/>
     </row>
     <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C190" s="44"/>
+      <c r="C190" s="43"/>
     </row>
     <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C191" s="44"/>
+      <c r="C191" s="43"/>
     </row>
     <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="44"/>
+      <c r="C192" s="43"/>
     </row>
     <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C193" s="44"/>
+      <c r="C193" s="43"/>
     </row>
     <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C194" s="44"/>
+      <c r="C194" s="43"/>
     </row>
     <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="44"/>
+      <c r="C195" s="43"/>
     </row>
     <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="44"/>
+      <c r="C196" s="43"/>
     </row>
     <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C197" s="44"/>
+      <c r="C197" s="43"/>
     </row>
     <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C198" s="44"/>
+      <c r="C198" s="43"/>
     </row>
     <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C199" s="44"/>
+      <c r="C199" s="43"/>
     </row>
     <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="44"/>
+      <c r="C200" s="43"/>
     </row>
     <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C201" s="44"/>
+      <c r="C201" s="43"/>
     </row>
     <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C202" s="44"/>
+      <c r="C202" s="43"/>
     </row>
     <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C203" s="44"/>
+      <c r="C203" s="43"/>
     </row>
     <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C204" s="44"/>
+      <c r="C204" s="43"/>
     </row>
     <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C205" s="44"/>
+      <c r="C205" s="43"/>
     </row>
     <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C206" s="44"/>
+      <c r="C206" s="43"/>
     </row>
     <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C207" s="44"/>
+      <c r="C207" s="43"/>
     </row>
     <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="44"/>
+      <c r="C208" s="43"/>
     </row>
     <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="44"/>
+      <c r="C209" s="43"/>
     </row>
     <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C210" s="44"/>
+      <c r="C210" s="43"/>
     </row>
     <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C211" s="44"/>
+      <c r="C211" s="43"/>
     </row>
     <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C212" s="44"/>
+      <c r="C212" s="43"/>
     </row>
     <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C213" s="44"/>
+      <c r="C213" s="43"/>
     </row>
     <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C214" s="44"/>
+      <c r="C214" s="43"/>
     </row>
     <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C215" s="44"/>
+      <c r="C215" s="43"/>
     </row>
     <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C216" s="44"/>
+      <c r="C216" s="43"/>
     </row>
     <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C217" s="44"/>
+      <c r="C217" s="43"/>
     </row>
     <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C218" s="44"/>
+      <c r="C218" s="43"/>
     </row>
     <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C219" s="44"/>
+      <c r="C219" s="43"/>
     </row>
     <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C220" s="44"/>
+      <c r="C220" s="43"/>
     </row>
     <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C221" s="44"/>
+      <c r="C221" s="43"/>
     </row>
     <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C222" s="44"/>
+      <c r="C222" s="43"/>
     </row>
     <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C223" s="44"/>
+      <c r="C223" s="43"/>
     </row>
     <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C224" s="44"/>
+      <c r="C224" s="43"/>
     </row>
     <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C225" s="44"/>
+      <c r="C225" s="43"/>
     </row>
     <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C226" s="44"/>
+      <c r="C226" s="43"/>
     </row>
     <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C227" s="44"/>
+      <c r="C227" s="43"/>
     </row>
     <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C228" s="44"/>
+      <c r="C228" s="43"/>
     </row>
     <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C229" s="44"/>
+      <c r="C229" s="43"/>
     </row>
     <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C230" s="44"/>
+      <c r="C230" s="43"/>
     </row>
     <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C231" s="44"/>
+      <c r="C231" s="43"/>
     </row>
     <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C232" s="44"/>
+      <c r="C232" s="43"/>
     </row>
     <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C233" s="44"/>
+      <c r="C233" s="43"/>
     </row>
     <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C234" s="44"/>
+      <c r="C234" s="43"/>
     </row>
     <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C235" s="44"/>
+      <c r="C235" s="43"/>
     </row>
     <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C236" s="44"/>
+      <c r="C236" s="43"/>
     </row>
     <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C237" s="44"/>
+      <c r="C237" s="43"/>
     </row>
     <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C238" s="44"/>
+      <c r="C238" s="43"/>
     </row>
     <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C239" s="44"/>
+      <c r="C239" s="43"/>
     </row>
     <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C240" s="44"/>
+      <c r="C240" s="43"/>
     </row>
     <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C241" s="44"/>
+      <c r="C241" s="43"/>
     </row>
     <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C242" s="44"/>
+      <c r="C242" s="43"/>
     </row>
     <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C243" s="44"/>
+      <c r="C243" s="43"/>
     </row>
     <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C244" s="44"/>
+      <c r="C244" s="43"/>
     </row>
     <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C245" s="44"/>
+      <c r="C245" s="43"/>
     </row>
     <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C246" s="44"/>
+      <c r="C246" s="43"/>
     </row>
     <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C247" s="44"/>
+      <c r="C247" s="43"/>
     </row>
     <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C248" s="44"/>
+      <c r="C248" s="43"/>
     </row>
     <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C249" s="44"/>
+      <c r="C249" s="43"/>
     </row>
     <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C250" s="44"/>
+      <c r="C250" s="43"/>
     </row>
     <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C251" s="44"/>
+      <c r="C251" s="43"/>
     </row>
     <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C252" s="44"/>
+      <c r="C252" s="43"/>
     </row>
     <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C253" s="44"/>
+      <c r="C253" s="43"/>
     </row>
     <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C254" s="44"/>
+      <c r="C254" s="43"/>
     </row>
     <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C255" s="44"/>
+      <c r="C255" s="43"/>
     </row>
     <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C256" s="44"/>
+      <c r="C256" s="43"/>
     </row>
     <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C257" s="44"/>
+      <c r="C257" s="43"/>
     </row>
     <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C258" s="44"/>
+      <c r="C258" s="43"/>
     </row>
     <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C259" s="44"/>
+      <c r="C259" s="43"/>
     </row>
     <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C260" s="44"/>
+      <c r="C260" s="43"/>
     </row>
     <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C261" s="44"/>
+      <c r="C261" s="43"/>
     </row>
     <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C262" s="44"/>
+      <c r="C262" s="43"/>
     </row>
     <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C263" s="44"/>
+      <c r="C263" s="43"/>
     </row>
     <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C264" s="44"/>
+      <c r="C264" s="43"/>
     </row>
     <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C265" s="44"/>
+      <c r="C265" s="43"/>
     </row>
     <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C266" s="44"/>
+      <c r="C266" s="43"/>
     </row>
     <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C267" s="44"/>
+      <c r="C267" s="43"/>
     </row>
     <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C268" s="44"/>
+      <c r="C268" s="43"/>
     </row>
     <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C269" s="44"/>
+      <c r="C269" s="43"/>
     </row>
     <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C270" s="44"/>
+      <c r="C270" s="43"/>
     </row>
     <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C271" s="44"/>
+      <c r="C271" s="43"/>
     </row>
     <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C272" s="44"/>
+      <c r="C272" s="43"/>
     </row>
     <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C273" s="44"/>
+      <c r="C273" s="43"/>
     </row>
     <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C274" s="44"/>
+      <c r="C274" s="43"/>
     </row>
     <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C275" s="44"/>
+      <c r="C275" s="43"/>
     </row>
     <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C276" s="44"/>
+      <c r="C276" s="43"/>
     </row>
     <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C277" s="44"/>
+      <c r="C277" s="43"/>
     </row>
     <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C278" s="44"/>
+      <c r="C278" s="43"/>
     </row>
     <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C279" s="44"/>
+      <c r="C279" s="43"/>
     </row>
     <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C280" s="44"/>
+      <c r="C280" s="43"/>
     </row>
     <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C281" s="44"/>
+      <c r="C281" s="43"/>
     </row>
     <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C282" s="44"/>
+      <c r="C282" s="43"/>
     </row>
     <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C283" s="44"/>
+      <c r="C283" s="43"/>
     </row>
     <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C284" s="44"/>
+      <c r="C284" s="43"/>
     </row>
     <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C285" s="44"/>
+      <c r="C285" s="43"/>
     </row>
     <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C286" s="44"/>
+      <c r="C286" s="43"/>
     </row>
     <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C287" s="44"/>
+      <c r="C287" s="43"/>
     </row>
     <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C288" s="44"/>
+      <c r="C288" s="43"/>
     </row>
     <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C289" s="44"/>
+      <c r="C289" s="43"/>
     </row>
     <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C290" s="44"/>
+      <c r="C290" s="43"/>
     </row>
     <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C291" s="44"/>
+      <c r="C291" s="43"/>
     </row>
     <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C292" s="44"/>
+      <c r="C292" s="43"/>
     </row>
     <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C293" s="44"/>
+      <c r="C293" s="43"/>
     </row>
     <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C294" s="44"/>
+      <c r="C294" s="43"/>
     </row>
     <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C295" s="44"/>
+      <c r="C295" s="43"/>
     </row>
     <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C296" s="44"/>
+      <c r="C296" s="43"/>
     </row>
     <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C297" s="44"/>
+      <c r="C297" s="43"/>
     </row>
     <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C298" s="44"/>
+      <c r="C298" s="43"/>
     </row>
     <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C299" s="44"/>
+      <c r="C299" s="43"/>
     </row>
     <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C300" s="44"/>
+      <c r="C300" s="43"/>
     </row>
     <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C301" s="44"/>
+      <c r="C301" s="43"/>
     </row>
     <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C302" s="44"/>
+      <c r="C302" s="43"/>
     </row>
     <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C303" s="44"/>
+      <c r="C303" s="43"/>
     </row>
     <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C304" s="44"/>
+      <c r="C304" s="43"/>
     </row>
     <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C305" s="44"/>
+      <c r="C305" s="43"/>
     </row>
     <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C306" s="44"/>
+      <c r="C306" s="43"/>
     </row>
     <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C307" s="44"/>
+      <c r="C307" s="43"/>
     </row>
     <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C308" s="44"/>
+      <c r="C308" s="43"/>
     </row>
     <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C309" s="44"/>
+      <c r="C309" s="43"/>
     </row>
     <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C310" s="44"/>
+      <c r="C310" s="43"/>
     </row>
     <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C311" s="44"/>
+      <c r="C311" s="43"/>
     </row>
     <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C312" s="44"/>
+      <c r="C312" s="43"/>
     </row>
     <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C313" s="44"/>
+      <c r="C313" s="43"/>
     </row>
     <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C314" s="44"/>
+      <c r="C314" s="43"/>
     </row>
     <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C315" s="44"/>
+      <c r="C315" s="43"/>
     </row>
     <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C316" s="44"/>
+      <c r="C316" s="43"/>
     </row>
     <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C317" s="44"/>
+      <c r="C317" s="43"/>
     </row>
     <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C318" s="44"/>
+      <c r="C318" s="43"/>
     </row>
     <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C319" s="44"/>
+      <c r="C319" s="43"/>
     </row>
     <row r="320" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C320" s="44"/>
+      <c r="C320" s="43"/>
     </row>
     <row r="321" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C321" s="44"/>
+      <c r="C321" s="43"/>
     </row>
     <row r="322" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C322" s="44"/>
+      <c r="C322" s="43"/>
     </row>
     <row r="323" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C323" s="44"/>
+      <c r="C323" s="43"/>
     </row>
     <row r="324" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C324" s="44"/>
+      <c r="C324" s="43"/>
     </row>
     <row r="325" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C325" s="44"/>
+      <c r="C325" s="43"/>
     </row>
     <row r="326" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C326" s="44"/>
+      <c r="C326" s="43"/>
     </row>
     <row r="327" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C327" s="44"/>
+      <c r="C327" s="43"/>
     </row>
     <row r="328" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C328" s="44"/>
+      <c r="C328" s="43"/>
     </row>
     <row r="329" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C329" s="44"/>
+      <c r="C329" s="43"/>
     </row>
     <row r="330" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C330" s="44"/>
+      <c r="C330" s="43"/>
     </row>
     <row r="331" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C331" s="44"/>
+      <c r="C331" s="43"/>
     </row>
     <row r="332" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C332" s="44"/>
+      <c r="C332" s="43"/>
     </row>
     <row r="333" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C333" s="44"/>
+      <c r="C333" s="43"/>
     </row>
     <row r="334" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C334" s="44"/>
+      <c r="C334" s="43"/>
     </row>
     <row r="335" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C335" s="44"/>
+      <c r="C335" s="43"/>
     </row>
     <row r="336" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C336" s="44"/>
+      <c r="C336" s="43"/>
     </row>
     <row r="337" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C337" s="44"/>
+      <c r="C337" s="43"/>
     </row>
     <row r="338" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C338" s="44"/>
+      <c r="C338" s="43"/>
     </row>
     <row r="339" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C339" s="44"/>
+      <c r="C339" s="43"/>
     </row>
     <row r="340" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C340" s="44"/>
+      <c r="C340" s="43"/>
     </row>
     <row r="341" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C341" s="44"/>
+      <c r="C341" s="43"/>
     </row>
     <row r="342" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C342" s="44"/>
+      <c r="C342" s="43"/>
     </row>
     <row r="343" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C343" s="44"/>
+      <c r="C343" s="43"/>
     </row>
     <row r="344" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C344" s="44"/>
+      <c r="C344" s="43"/>
     </row>
     <row r="345" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C345" s="44"/>
+      <c r="C345" s="43"/>
     </row>
     <row r="346" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C346" s="44"/>
+      <c r="C346" s="43"/>
     </row>
     <row r="347" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C347" s="44"/>
+      <c r="C347" s="43"/>
     </row>
     <row r="348" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C348" s="44"/>
+      <c r="C348" s="43"/>
     </row>
     <row r="349" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C349" s="44"/>
+      <c r="C349" s="43"/>
     </row>
     <row r="350" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C350" s="44"/>
+      <c r="C350" s="43"/>
     </row>
     <row r="351" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C351" s="44"/>
+      <c r="C351" s="43"/>
     </row>
     <row r="352" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C352" s="44"/>
+      <c r="C352" s="43"/>
     </row>
     <row r="353" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C353" s="44"/>
+      <c r="C353" s="43"/>
     </row>
     <row r="354" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C354" s="44"/>
+      <c r="C354" s="43"/>
     </row>
     <row r="355" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C355" s="44"/>
+      <c r="C355" s="43"/>
     </row>
     <row r="356" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C356" s="44"/>
+      <c r="C356" s="43"/>
     </row>
     <row r="357" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C357" s="44"/>
+      <c r="C357" s="43"/>
     </row>
     <row r="358" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C358" s="44"/>
+      <c r="C358" s="43"/>
     </row>
     <row r="359" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C359" s="44"/>
+      <c r="C359" s="43"/>
     </row>
     <row r="360" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C360" s="44"/>
+      <c r="C360" s="43"/>
     </row>
     <row r="361" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C361" s="44"/>
+      <c r="C361" s="43"/>
     </row>
     <row r="362" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C362" s="44"/>
+      <c r="C362" s="43"/>
     </row>
     <row r="363" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C363" s="44"/>
+      <c r="C363" s="43"/>
     </row>
     <row r="364" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C364" s="44"/>
+      <c r="C364" s="43"/>
     </row>
     <row r="365" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C365" s="44"/>
+      <c r="C365" s="43"/>
     </row>
     <row r="366" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C366" s="44"/>
+      <c r="C366" s="43"/>
     </row>
     <row r="367" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C367" s="44"/>
+      <c r="C367" s="43"/>
     </row>
     <row r="368" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C368" s="44"/>
+      <c r="C368" s="43"/>
     </row>
     <row r="369" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C369" s="44"/>
+      <c r="C369" s="43"/>
     </row>
     <row r="370" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C370" s="44"/>
+      <c r="C370" s="43"/>
     </row>
     <row r="371" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C371" s="44"/>
+      <c r="C371" s="43"/>
     </row>
     <row r="372" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C372" s="44"/>
+      <c r="C372" s="43"/>
     </row>
     <row r="373" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C373" s="44"/>
+      <c r="C373" s="43"/>
     </row>
     <row r="374" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C374" s="44"/>
+      <c r="C374" s="43"/>
     </row>
     <row r="375" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C375" s="44"/>
+      <c r="C375" s="43"/>
     </row>
     <row r="376" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C376" s="44"/>
+      <c r="C376" s="43"/>
     </row>
     <row r="377" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C377" s="44"/>
+      <c r="C377" s="43"/>
     </row>
     <row r="378" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C378" s="44"/>
+      <c r="C378" s="43"/>
     </row>
     <row r="379" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C379" s="44"/>
+      <c r="C379" s="43"/>
     </row>
     <row r="380" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C380" s="44"/>
+      <c r="C380" s="43"/>
     </row>
     <row r="381" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C381" s="44"/>
+      <c r="C381" s="43"/>
     </row>
     <row r="382" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C382" s="44"/>
+      <c r="C382" s="43"/>
     </row>
     <row r="383" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C383" s="44"/>
+      <c r="C383" s="43"/>
     </row>
     <row r="384" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C384" s="44"/>
+      <c r="C384" s="43"/>
     </row>
     <row r="385" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C385" s="44"/>
+      <c r="C385" s="43"/>
     </row>
     <row r="386" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C386" s="44"/>
+      <c r="C386" s="43"/>
     </row>
     <row r="387" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C387" s="44"/>
+      <c r="C387" s="43"/>
     </row>
     <row r="388" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C388" s="44"/>
+      <c r="C388" s="43"/>
     </row>
     <row r="389" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C389" s="44"/>
+      <c r="C389" s="43"/>
     </row>
     <row r="390" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C390" s="44"/>
+      <c r="C390" s="43"/>
     </row>
     <row r="391" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C391" s="44"/>
+      <c r="C391" s="43"/>
     </row>
     <row r="392" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C392" s="44"/>
+      <c r="C392" s="43"/>
     </row>
     <row r="393" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C393" s="44"/>
+      <c r="C393" s="43"/>
     </row>
     <row r="394" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C394" s="44"/>
+      <c r="C394" s="43"/>
     </row>
     <row r="395" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C395" s="44"/>
+      <c r="C395" s="43"/>
     </row>
     <row r="396" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C396" s="44"/>
+      <c r="C396" s="43"/>
     </row>
     <row r="397" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C397" s="44"/>
+      <c r="C397" s="43"/>
     </row>
     <row r="398" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C398" s="44"/>
+      <c r="C398" s="43"/>
     </row>
     <row r="399" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C399" s="44"/>
+      <c r="C399" s="43"/>
     </row>
     <row r="400" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C400" s="44"/>
+      <c r="C400" s="43"/>
     </row>
     <row r="401" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C401" s="44"/>
+      <c r="C401" s="43"/>
     </row>
     <row r="402" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C402" s="44"/>
+      <c r="C402" s="43"/>
     </row>
     <row r="403" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C403" s="44"/>
+      <c r="C403" s="43"/>
     </row>
     <row r="404" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C404" s="44"/>
+      <c r="C404" s="43"/>
     </row>
     <row r="405" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C405" s="44"/>
+      <c r="C405" s="43"/>
     </row>
     <row r="406" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C406" s="44"/>
+      <c r="C406" s="43"/>
     </row>
     <row r="407" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C407" s="44"/>
+      <c r="C407" s="43"/>
     </row>
     <row r="408" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C408" s="44"/>
+      <c r="C408" s="43"/>
     </row>
     <row r="409" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C409" s="44"/>
+      <c r="C409" s="43"/>
     </row>
     <row r="410" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C410" s="44"/>
+      <c r="C410" s="43"/>
     </row>
     <row r="411" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C411" s="44"/>
+      <c r="C411" s="43"/>
     </row>
     <row r="412" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C412" s="44"/>
+      <c r="C412" s="43"/>
     </row>
     <row r="413" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C413" s="44"/>
+      <c r="C413" s="43"/>
     </row>
     <row r="414" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C414" s="44"/>
+      <c r="C414" s="43"/>
     </row>
     <row r="415" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C415" s="44"/>
+      <c r="C415" s="43"/>
     </row>
     <row r="416" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C416" s="44"/>
+      <c r="C416" s="43"/>
     </row>
     <row r="417" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C417" s="44"/>
+      <c r="C417" s="43"/>
     </row>
     <row r="418" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C418" s="44"/>
+      <c r="C418" s="43"/>
     </row>
     <row r="419" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C419" s="44"/>
+      <c r="C419" s="43"/>
     </row>
     <row r="420" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C420" s="44"/>
+      <c r="C420" s="43"/>
     </row>
     <row r="421" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C421" s="44"/>
+      <c r="C421" s="43"/>
     </row>
     <row r="422" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C422" s="44"/>
+      <c r="C422" s="43"/>
     </row>
     <row r="423" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C423" s="44"/>
+      <c r="C423" s="43"/>
     </row>
     <row r="424" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C424" s="44"/>
+      <c r="C424" s="43"/>
     </row>
     <row r="425" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C425" s="44"/>
+      <c r="C425" s="43"/>
     </row>
     <row r="426" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C426" s="44"/>
+      <c r="C426" s="43"/>
     </row>
     <row r="427" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C427" s="44"/>
+      <c r="C427" s="43"/>
     </row>
     <row r="428" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C428" s="44"/>
+      <c r="C428" s="43"/>
     </row>
     <row r="429" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C429" s="44"/>
+      <c r="C429" s="43"/>
     </row>
     <row r="430" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C430" s="44"/>
+      <c r="C430" s="43"/>
     </row>
     <row r="431" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C431" s="44"/>
+      <c r="C431" s="43"/>
     </row>
     <row r="432" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C432" s="44"/>
+      <c r="C432" s="43"/>
     </row>
     <row r="433" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C433" s="44"/>
+      <c r="C433" s="43"/>
     </row>
     <row r="434" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C434" s="44"/>
+      <c r="C434" s="43"/>
     </row>
     <row r="435" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C435" s="44"/>
+      <c r="C435" s="43"/>
     </row>
     <row r="436" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C436" s="44"/>
+      <c r="C436" s="43"/>
     </row>
     <row r="437" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C437" s="44"/>
+      <c r="C437" s="43"/>
     </row>
     <row r="438" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C438" s="44"/>
+      <c r="C438" s="43"/>
     </row>
     <row r="439" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C439" s="44"/>
+      <c r="C439" s="43"/>
     </row>
     <row r="440" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C440" s="44"/>
+      <c r="C440" s="43"/>
     </row>
     <row r="441" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C441" s="44"/>
+      <c r="C441" s="43"/>
     </row>
     <row r="442" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C442" s="44"/>
+      <c r="C442" s="43"/>
     </row>
     <row r="443" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C443" s="44"/>
+      <c r="C443" s="43"/>
     </row>
     <row r="444" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C444" s="44"/>
+      <c r="C444" s="43"/>
     </row>
     <row r="445" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C445" s="44"/>
+      <c r="C445" s="43"/>
     </row>
     <row r="446" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C446" s="44"/>
+      <c r="C446" s="43"/>
     </row>
     <row r="447" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C447" s="44"/>
+      <c r="C447" s="43"/>
     </row>
     <row r="448" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C448" s="44"/>
+      <c r="C448" s="43"/>
     </row>
     <row r="449" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C449" s="44"/>
+      <c r="C449" s="43"/>
     </row>
     <row r="450" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C450" s="44"/>
+      <c r="C450" s="43"/>
     </row>
     <row r="451" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C451" s="44"/>
+      <c r="C451" s="43"/>
     </row>
     <row r="452" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C452" s="44"/>
+      <c r="C452" s="43"/>
     </row>
     <row r="453" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C453" s="44"/>
+      <c r="C453" s="43"/>
     </row>
     <row r="454" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C454" s="44"/>
+      <c r="C454" s="43"/>
     </row>
     <row r="455" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C455" s="44"/>
+      <c r="C455" s="43"/>
     </row>
     <row r="456" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C456" s="44"/>
+      <c r="C456" s="43"/>
     </row>
     <row r="457" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C457" s="44"/>
+      <c r="C457" s="43"/>
     </row>
     <row r="458" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C458" s="44"/>
+      <c r="C458" s="43"/>
     </row>
     <row r="459" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C459" s="44"/>
+      <c r="C459" s="43"/>
     </row>
     <row r="460" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C460" s="44"/>
+      <c r="C460" s="43"/>
     </row>
     <row r="461" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C461" s="44"/>
+      <c r="C461" s="43"/>
     </row>
     <row r="462" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C462" s="44"/>
+      <c r="C462" s="43"/>
     </row>
     <row r="463" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C463" s="44"/>
+      <c r="C463" s="43"/>
     </row>
     <row r="464" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C464" s="44"/>
+      <c r="C464" s="43"/>
     </row>
     <row r="465" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C465" s="44"/>
+      <c r="C465" s="43"/>
     </row>
     <row r="466" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C466" s="44"/>
+      <c r="C466" s="43"/>
     </row>
     <row r="467" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C467" s="44"/>
+      <c r="C467" s="43"/>
     </row>
     <row r="468" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C468" s="44"/>
+      <c r="C468" s="43"/>
     </row>
     <row r="469" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C469" s="44"/>
+      <c r="C469" s="43"/>
     </row>
     <row r="470" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C470" s="44"/>
+      <c r="C470" s="43"/>
     </row>
     <row r="471" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C471" s="44"/>
+      <c r="C471" s="43"/>
     </row>
     <row r="472" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C472" s="44"/>
+      <c r="C472" s="43"/>
     </row>
     <row r="473" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C473" s="44"/>
+      <c r="C473" s="43"/>
     </row>
     <row r="474" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C474" s="44"/>
+      <c r="C474" s="43"/>
     </row>
     <row r="475" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C475" s="44"/>
+      <c r="C475" s="43"/>
     </row>
     <row r="476" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C476" s="44"/>
+      <c r="C476" s="43"/>
     </row>
     <row r="477" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C477" s="44"/>
+      <c r="C477" s="43"/>
     </row>
     <row r="478" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C478" s="44"/>
+      <c r="C478" s="43"/>
     </row>
     <row r="479" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C479" s="44"/>
+      <c r="C479" s="43"/>
     </row>
     <row r="480" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C480" s="44"/>
+      <c r="C480" s="43"/>
     </row>
     <row r="481" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C481" s="44"/>
+      <c r="C481" s="43"/>
     </row>
     <row r="482" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C482" s="44"/>
+      <c r="C482" s="43"/>
     </row>
     <row r="483" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C483" s="44"/>
+      <c r="C483" s="43"/>
     </row>
     <row r="484" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C484" s="44"/>
+      <c r="C484" s="43"/>
     </row>
     <row r="485" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C485" s="44"/>
+      <c r="C485" s="43"/>
     </row>
     <row r="486" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C486" s="44"/>
+      <c r="C486" s="43"/>
     </row>
     <row r="487" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C487" s="44"/>
+      <c r="C487" s="43"/>
     </row>
     <row r="488" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C488" s="44"/>
+      <c r="C488" s="43"/>
     </row>
     <row r="489" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C489" s="44"/>
+      <c r="C489" s="43"/>
     </row>
     <row r="490" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C490" s="44"/>
+      <c r="C490" s="43"/>
     </row>
     <row r="491" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C491" s="44"/>
+      <c r="C491" s="43"/>
     </row>
     <row r="492" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C492" s="44"/>
+      <c r="C492" s="43"/>
     </row>
     <row r="493" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C493" s="44"/>
+      <c r="C493" s="43"/>
     </row>
     <row r="494" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C494" s="44"/>
+      <c r="C494" s="43"/>
     </row>
     <row r="495" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C495" s="44"/>
+      <c r="C495" s="43"/>
     </row>
     <row r="496" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C496" s="44"/>
+      <c r="C496" s="43"/>
     </row>
     <row r="497" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C497" s="44"/>
+      <c r="C497" s="43"/>
     </row>
     <row r="498" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C498" s="44"/>
+      <c r="C498" s="43"/>
     </row>
     <row r="499" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C499" s="44"/>
+      <c r="C499" s="43"/>
     </row>
     <row r="500" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C500" s="44"/>
+      <c r="C500" s="43"/>
     </row>
     <row r="501" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C501" s="44"/>
+      <c r="C501" s="43"/>
     </row>
     <row r="502" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C502" s="44"/>
+      <c r="C502" s="43"/>
     </row>
     <row r="503" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C503" s="44"/>
+      <c r="C503" s="43"/>
     </row>
     <row r="504" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C504" s="44"/>
+      <c r="C504" s="43"/>
     </row>
     <row r="505" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C505" s="44"/>
+      <c r="C505" s="43"/>
     </row>
     <row r="506" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C506" s="44"/>
+      <c r="C506" s="43"/>
     </row>
     <row r="507" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C507" s="44"/>
+      <c r="C507" s="43"/>
     </row>
     <row r="508" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C508" s="44"/>
+      <c r="C508" s="43"/>
     </row>
     <row r="509" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C509" s="44"/>
+      <c r="C509" s="43"/>
     </row>
     <row r="510" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C510" s="44"/>
+      <c r="C510" s="43"/>
     </row>
     <row r="511" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C511" s="44"/>
+      <c r="C511" s="43"/>
     </row>
     <row r="512" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C512" s="44"/>
+      <c r="C512" s="43"/>
     </row>
     <row r="513" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C513" s="44"/>
+      <c r="C513" s="43"/>
     </row>
     <row r="514" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C514" s="44"/>
+      <c r="C514" s="43"/>
     </row>
     <row r="515" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C515" s="44"/>
+      <c r="C515" s="43"/>
     </row>
     <row r="516" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C516" s="44"/>
+      <c r="C516" s="43"/>
     </row>
     <row r="517" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C517" s="44"/>
+      <c r="C517" s="43"/>
     </row>
     <row r="518" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C518" s="44"/>
+      <c r="C518" s="43"/>
     </row>
     <row r="519" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C519" s="44"/>
+      <c r="C519" s="43"/>
     </row>
     <row r="520" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C520" s="44"/>
+      <c r="C520" s="43"/>
     </row>
     <row r="521" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C521" s="44"/>
+      <c r="C521" s="43"/>
     </row>
     <row r="522" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C522" s="44"/>
+      <c r="C522" s="43"/>
     </row>
     <row r="523" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C523" s="44"/>
+      <c r="C523" s="43"/>
     </row>
     <row r="524" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C524" s="44"/>
+      <c r="C524" s="43"/>
     </row>
     <row r="525" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C525" s="44"/>
+      <c r="C525" s="43"/>
     </row>
     <row r="526" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C526" s="44"/>
+      <c r="C526" s="43"/>
     </row>
     <row r="527" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C527" s="44"/>
+      <c r="C527" s="43"/>
     </row>
     <row r="528" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C528" s="44"/>
+      <c r="C528" s="43"/>
     </row>
     <row r="529" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C529" s="44"/>
+      <c r="C529" s="43"/>
     </row>
     <row r="530" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C530" s="44"/>
+      <c r="C530" s="43"/>
     </row>
     <row r="531" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C531" s="44"/>
+      <c r="C531" s="43"/>
     </row>
     <row r="532" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C532" s="44"/>
+      <c r="C532" s="43"/>
     </row>
     <row r="533" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C533" s="44"/>
+      <c r="C533" s="43"/>
     </row>
     <row r="534" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C534" s="44"/>
+      <c r="C534" s="43"/>
     </row>
     <row r="535" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C535" s="44"/>
+      <c r="C535" s="43"/>
     </row>
     <row r="536" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C536" s="44"/>
+      <c r="C536" s="43"/>
     </row>
     <row r="537" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C537" s="44"/>
+      <c r="C537" s="43"/>
     </row>
     <row r="538" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C538" s="44"/>
+      <c r="C538" s="43"/>
     </row>
     <row r="539" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C539" s="44"/>
+      <c r="C539" s="43"/>
     </row>
     <row r="540" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C540" s="44"/>
+      <c r="C540" s="43"/>
     </row>
     <row r="541" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C541" s="44"/>
+      <c r="C541" s="43"/>
     </row>
     <row r="542" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C542" s="44"/>
+      <c r="C542" s="43"/>
     </row>
     <row r="543" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C543" s="44"/>
+      <c r="C543" s="43"/>
     </row>
     <row r="544" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C544" s="44"/>
+      <c r="C544" s="43"/>
     </row>
     <row r="545" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C545" s="44"/>
+      <c r="C545" s="43"/>
     </row>
     <row r="546" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C546" s="44"/>
+      <c r="C546" s="43"/>
     </row>
     <row r="547" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C547" s="44"/>
+      <c r="C547" s="43"/>
     </row>
     <row r="548" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C548" s="44"/>
+      <c r="C548" s="43"/>
     </row>
     <row r="549" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C549" s="44"/>
+      <c r="C549" s="43"/>
     </row>
     <row r="550" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C550" s="44"/>
+      <c r="C550" s="43"/>
     </row>
     <row r="551" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C551" s="44"/>
+      <c r="C551" s="43"/>
     </row>
     <row r="552" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C552" s="44"/>
+      <c r="C552" s="43"/>
     </row>
     <row r="553" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C553" s="44"/>
+      <c r="C553" s="43"/>
     </row>
     <row r="554" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C554" s="44"/>
+      <c r="C554" s="43"/>
     </row>
     <row r="555" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C555" s="44"/>
+      <c r="C555" s="43"/>
     </row>
     <row r="556" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C556" s="44"/>
+      <c r="C556" s="43"/>
     </row>
     <row r="557" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C557" s="44"/>
+      <c r="C557" s="43"/>
     </row>
     <row r="558" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C558" s="44"/>
+      <c r="C558" s="43"/>
     </row>
     <row r="559" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C559" s="44"/>
+      <c r="C559" s="43"/>
     </row>
     <row r="560" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C560" s="44"/>
+      <c r="C560" s="43"/>
     </row>
     <row r="561" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C561" s="44"/>
+      <c r="C561" s="43"/>
     </row>
     <row r="562" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C562" s="44"/>
+      <c r="C562" s="43"/>
     </row>
     <row r="563" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C563" s="44"/>
+      <c r="C563" s="43"/>
     </row>
     <row r="564" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C564" s="44"/>
+      <c r="C564" s="43"/>
     </row>
     <row r="565" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C565" s="44"/>
+      <c r="C565" s="43"/>
     </row>
     <row r="566" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C566" s="44"/>
+      <c r="C566" s="43"/>
     </row>
     <row r="567" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C567" s="44"/>
+      <c r="C567" s="43"/>
     </row>
     <row r="568" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C568" s="44"/>
+      <c r="C568" s="43"/>
     </row>
     <row r="569" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C569" s="44"/>
+      <c r="C569" s="43"/>
     </row>
     <row r="570" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C570" s="44"/>
+      <c r="C570" s="43"/>
     </row>
     <row r="571" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C571" s="44"/>
+      <c r="C571" s="43"/>
     </row>
     <row r="572" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C572" s="44"/>
+      <c r="C572" s="43"/>
     </row>
     <row r="573" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C573" s="44"/>
+      <c r="C573" s="43"/>
     </row>
     <row r="574" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C574" s="44"/>
+      <c r="C574" s="43"/>
     </row>
     <row r="575" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C575" s="44"/>
+      <c r="C575" s="43"/>
     </row>
     <row r="576" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C576" s="44"/>
+      <c r="C576" s="43"/>
     </row>
     <row r="577" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C577" s="44"/>
+      <c r="C577" s="43"/>
     </row>
     <row r="578" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C578" s="44"/>
+      <c r="C578" s="43"/>
     </row>
     <row r="579" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C579" s="44"/>
+      <c r="C579" s="43"/>
     </row>
     <row r="580" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C580" s="44"/>
+      <c r="C580" s="43"/>
     </row>
     <row r="581" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C581" s="44"/>
+      <c r="C581" s="43"/>
     </row>
     <row r="582" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C582" s="44"/>
+      <c r="C582" s="43"/>
     </row>
     <row r="583" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C583" s="44"/>
+      <c r="C583" s="43"/>
     </row>
     <row r="584" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C584" s="44"/>
+      <c r="C584" s="43"/>
     </row>
     <row r="585" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C585" s="44"/>
+      <c r="C585" s="43"/>
     </row>
     <row r="586" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C586" s="44"/>
+      <c r="C586" s="43"/>
     </row>
     <row r="587" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C587" s="44"/>
+      <c r="C587" s="43"/>
     </row>
     <row r="588" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C588" s="44"/>
+      <c r="C588" s="43"/>
     </row>
     <row r="589" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C589" s="44"/>
+      <c r="C589" s="43"/>
     </row>
     <row r="590" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C590" s="44"/>
+      <c r="C590" s="43"/>
     </row>
     <row r="591" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C591" s="44"/>
+      <c r="C591" s="43"/>
     </row>
     <row r="592" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C592" s="44"/>
+      <c r="C592" s="43"/>
     </row>
     <row r="593" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C593" s="44"/>
+      <c r="C593" s="43"/>
     </row>
     <row r="594" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C594" s="44"/>
+      <c r="C594" s="43"/>
     </row>
     <row r="595" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C595" s="44"/>
+      <c r="C595" s="43"/>
     </row>
     <row r="596" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C596" s="44"/>
+      <c r="C596" s="43"/>
     </row>
     <row r="597" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C597" s="44"/>
+      <c r="C597" s="43"/>
     </row>
     <row r="598" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C598" s="44"/>
+      <c r="C598" s="43"/>
     </row>
     <row r="599" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C599" s="44"/>
+      <c r="C599" s="43"/>
     </row>
     <row r="600" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C600" s="44"/>
+      <c r="C600" s="43"/>
     </row>
     <row r="601" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C601" s="44"/>
+      <c r="C601" s="43"/>
     </row>
     <row r="602" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C602" s="44"/>
+      <c r="C602" s="43"/>
     </row>
     <row r="603" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C603" s="44"/>
+      <c r="C603" s="43"/>
     </row>
     <row r="604" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C604" s="44"/>
+      <c r="C604" s="43"/>
     </row>
     <row r="605" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C605" s="44"/>
+      <c r="C605" s="43"/>
     </row>
     <row r="606" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C606" s="44"/>
+      <c r="C606" s="43"/>
     </row>
     <row r="607" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C607" s="44"/>
+      <c r="C607" s="43"/>
     </row>
     <row r="608" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C608" s="44"/>
+      <c r="C608" s="43"/>
     </row>
     <row r="609" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C609" s="44"/>
+      <c r="C609" s="43"/>
     </row>
     <row r="610" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C610" s="44"/>
+      <c r="C610" s="43"/>
     </row>
     <row r="611" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C611" s="44"/>
+      <c r="C611" s="43"/>
     </row>
     <row r="612" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C612" s="44"/>
+      <c r="C612" s="43"/>
     </row>
     <row r="613" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C613" s="44"/>
+      <c r="C613" s="43"/>
     </row>
     <row r="614" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C614" s="44"/>
+      <c r="C614" s="43"/>
     </row>
     <row r="615" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C615" s="44"/>
+      <c r="C615" s="43"/>
     </row>
     <row r="616" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C616" s="44"/>
+      <c r="C616" s="43"/>
     </row>
     <row r="617" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C617" s="44"/>
+      <c r="C617" s="43"/>
     </row>
     <row r="618" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C618" s="44"/>
+      <c r="C618" s="43"/>
     </row>
     <row r="619" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C619" s="44"/>
+      <c r="C619" s="43"/>
     </row>
     <row r="620" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C620" s="44"/>
+      <c r="C620" s="43"/>
     </row>
     <row r="621" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C621" s="44"/>
+      <c r="C621" s="43"/>
     </row>
     <row r="622" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C622" s="44"/>
+      <c r="C622" s="43"/>
     </row>
     <row r="623" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C623" s="44"/>
+      <c r="C623" s="43"/>
     </row>
     <row r="624" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C624" s="44"/>
+      <c r="C624" s="43"/>
     </row>
     <row r="625" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C625" s="44"/>
+      <c r="C625" s="43"/>
     </row>
     <row r="626" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C626" s="44"/>
+      <c r="C626" s="43"/>
     </row>
     <row r="627" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C627" s="44"/>
+      <c r="C627" s="43"/>
     </row>
     <row r="628" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C628" s="44"/>
+      <c r="C628" s="43"/>
     </row>
     <row r="629" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C629" s="44"/>
+      <c r="C629" s="43"/>
     </row>
     <row r="630" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C630" s="44"/>
+      <c r="C630" s="43"/>
     </row>
     <row r="631" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C631" s="44"/>
+      <c r="C631" s="43"/>
     </row>
     <row r="632" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C632" s="44"/>
+      <c r="C632" s="43"/>
     </row>
     <row r="633" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C633" s="44"/>
+      <c r="C633" s="43"/>
     </row>
     <row r="634" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C634" s="44"/>
+      <c r="C634" s="43"/>
     </row>
     <row r="635" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C635" s="44"/>
+      <c r="C635" s="43"/>
     </row>
     <row r="636" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C636" s="44"/>
+      <c r="C636" s="43"/>
     </row>
     <row r="637" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C637" s="44"/>
+      <c r="C637" s="43"/>
     </row>
     <row r="638" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C638" s="44"/>
+      <c r="C638" s="43"/>
     </row>
     <row r="639" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C639" s="44"/>
+      <c r="C639" s="43"/>
     </row>
     <row r="640" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C640" s="44"/>
+      <c r="C640" s="43"/>
     </row>
     <row r="641" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C641" s="44"/>
+      <c r="C641" s="43"/>
     </row>
     <row r="642" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C642" s="44"/>
+      <c r="C642" s="43"/>
     </row>
     <row r="643" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C643" s="44"/>
+      <c r="C643" s="43"/>
     </row>
     <row r="644" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C644" s="44"/>
+      <c r="C644" s="43"/>
     </row>
     <row r="645" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C645" s="44"/>
+      <c r="C645" s="43"/>
     </row>
     <row r="646" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C646" s="44"/>
+      <c r="C646" s="43"/>
     </row>
     <row r="647" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C647" s="44"/>
+      <c r="C647" s="43"/>
     </row>
     <row r="648" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C648" s="44"/>
+      <c r="C648" s="43"/>
     </row>
     <row r="649" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C649" s="44"/>
+      <c r="C649" s="43"/>
     </row>
     <row r="650" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C650" s="44"/>
+      <c r="C650" s="43"/>
     </row>
     <row r="651" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C651" s="44"/>
+      <c r="C651" s="43"/>
     </row>
     <row r="652" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C652" s="44"/>
+      <c r="C652" s="43"/>
     </row>
     <row r="653" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C653" s="44"/>
+      <c r="C653" s="43"/>
     </row>
     <row r="654" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C654" s="44"/>
+      <c r="C654" s="43"/>
     </row>
     <row r="655" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C655" s="44"/>
+      <c r="C655" s="43"/>
     </row>
     <row r="656" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C656" s="44"/>
+      <c r="C656" s="43"/>
     </row>
     <row r="657" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C657" s="44"/>
+      <c r="C657" s="43"/>
     </row>
     <row r="658" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C658" s="44"/>
+      <c r="C658" s="43"/>
     </row>
     <row r="659" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C659" s="44"/>
+      <c r="C659" s="43"/>
     </row>
     <row r="660" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C660" s="44"/>
+      <c r="C660" s="43"/>
     </row>
     <row r="661" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C661" s="44"/>
+      <c r="C661" s="43"/>
     </row>
     <row r="662" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C662" s="44"/>
+      <c r="C662" s="43"/>
     </row>
     <row r="663" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C663" s="44"/>
+      <c r="C663" s="43"/>
     </row>
     <row r="664" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C664" s="44"/>
+      <c r="C664" s="43"/>
     </row>
     <row r="665" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C665" s="44"/>
+      <c r="C665" s="43"/>
     </row>
     <row r="666" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C666" s="44"/>
+      <c r="C666" s="43"/>
     </row>
     <row r="667" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C667" s="44"/>
+      <c r="C667" s="43"/>
     </row>
     <row r="668" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C668" s="44"/>
+      <c r="C668" s="43"/>
     </row>
     <row r="669" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C669" s="44"/>
+      <c r="C669" s="43"/>
     </row>
     <row r="670" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C670" s="44"/>
+      <c r="C670" s="43"/>
     </row>
     <row r="671" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C671" s="44"/>
+      <c r="C671" s="43"/>
     </row>
     <row r="672" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C672" s="44"/>
+      <c r="C672" s="43"/>
     </row>
     <row r="673" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C673" s="44"/>
+      <c r="C673" s="43"/>
     </row>
     <row r="674" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C674" s="44"/>
+      <c r="C674" s="43"/>
     </row>
     <row r="675" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C675" s="44"/>
+      <c r="C675" s="43"/>
     </row>
     <row r="676" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C676" s="44"/>
+      <c r="C676" s="43"/>
     </row>
     <row r="677" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C677" s="44"/>
+      <c r="C677" s="43"/>
     </row>
     <row r="678" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C678" s="44"/>
+      <c r="C678" s="43"/>
     </row>
     <row r="679" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C679" s="44"/>
+      <c r="C679" s="43"/>
     </row>
     <row r="680" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C680" s="44"/>
+      <c r="C680" s="43"/>
     </row>
     <row r="681" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C681" s="44"/>
+      <c r="C681" s="43"/>
     </row>
     <row r="682" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C682" s="44"/>
+      <c r="C682" s="43"/>
     </row>
     <row r="683" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C683" s="44"/>
+      <c r="C683" s="43"/>
     </row>
     <row r="684" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C684" s="44"/>
+      <c r="C684" s="43"/>
     </row>
     <row r="685" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C685" s="44"/>
+      <c r="C685" s="43"/>
     </row>
     <row r="686" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C686" s="44"/>
+      <c r="C686" s="43"/>
     </row>
     <row r="687" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C687" s="44"/>
+      <c r="C687" s="43"/>
     </row>
     <row r="688" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C688" s="44"/>
+      <c r="C688" s="43"/>
     </row>
     <row r="689" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C689" s="44"/>
+      <c r="C689" s="43"/>
     </row>
     <row r="690" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C690" s="44"/>
+      <c r="C690" s="43"/>
     </row>
     <row r="691" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C691" s="44"/>
+      <c r="C691" s="43"/>
     </row>
     <row r="692" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C692" s="44"/>
+      <c r="C692" s="43"/>
     </row>
     <row r="693" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C693" s="44"/>
+      <c r="C693" s="43"/>
     </row>
     <row r="694" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C694" s="44"/>
+      <c r="C694" s="43"/>
     </row>
     <row r="695" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C695" s="44"/>
+      <c r="C695" s="43"/>
     </row>
     <row r="696" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C696" s="44"/>
+      <c r="C696" s="43"/>
     </row>
     <row r="697" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C697" s="44"/>
+      <c r="C697" s="43"/>
     </row>
     <row r="698" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C698" s="44"/>
+      <c r="C698" s="43"/>
     </row>
     <row r="699" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C699" s="44"/>
+      <c r="C699" s="43"/>
     </row>
     <row r="700" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C700" s="44"/>
+      <c r="C700" s="43"/>
     </row>
     <row r="701" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C701" s="44"/>
+      <c r="C701" s="43"/>
     </row>
     <row r="702" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C702" s="44"/>
+      <c r="C702" s="43"/>
     </row>
     <row r="703" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C703" s="44"/>
+      <c r="C703" s="43"/>
     </row>
     <row r="704" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C704" s="44"/>
+      <c r="C704" s="43"/>
     </row>
     <row r="705" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C705" s="44"/>
+      <c r="C705" s="43"/>
     </row>
     <row r="706" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C706" s="44"/>
+      <c r="C706" s="43"/>
     </row>
     <row r="707" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C707" s="44"/>
+      <c r="C707" s="43"/>
     </row>
     <row r="708" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C708" s="44"/>
+      <c r="C708" s="43"/>
     </row>
     <row r="709" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C709" s="44"/>
+      <c r="C709" s="43"/>
     </row>
     <row r="710" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C710" s="44"/>
+      <c r="C710" s="43"/>
     </row>
     <row r="711" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C711" s="44"/>
+      <c r="C711" s="43"/>
     </row>
     <row r="712" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C712" s="44"/>
+      <c r="C712" s="43"/>
     </row>
     <row r="713" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C713" s="44"/>
+      <c r="C713" s="43"/>
     </row>
     <row r="714" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C714" s="44"/>
+      <c r="C714" s="43"/>
     </row>
     <row r="715" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C715" s="44"/>
+      <c r="C715" s="43"/>
     </row>
     <row r="716" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C716" s="44"/>
+      <c r="C716" s="43"/>
     </row>
     <row r="717" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C717" s="44"/>
+      <c r="C717" s="43"/>
     </row>
     <row r="718" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C718" s="44"/>
+      <c r="C718" s="43"/>
     </row>
     <row r="719" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C719" s="44"/>
+      <c r="C719" s="43"/>
     </row>
     <row r="720" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C720" s="44"/>
+      <c r="C720" s="43"/>
     </row>
     <row r="721" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C721" s="44"/>
+      <c r="C721" s="43"/>
     </row>
     <row r="722" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C722" s="44"/>
+      <c r="C722" s="43"/>
     </row>
     <row r="723" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C723" s="44"/>
+      <c r="C723" s="43"/>
     </row>
     <row r="724" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C724" s="44"/>
+      <c r="C724" s="43"/>
     </row>
     <row r="725" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C725" s="44"/>
+      <c r="C725" s="43"/>
     </row>
     <row r="726" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C726" s="44"/>
+      <c r="C726" s="43"/>
     </row>
     <row r="727" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C727" s="44"/>
+      <c r="C727" s="43"/>
     </row>
     <row r="728" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C728" s="44"/>
+      <c r="C728" s="43"/>
     </row>
     <row r="729" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C729" s="44"/>
+      <c r="C729" s="43"/>
     </row>
     <row r="730" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C730" s="44"/>
+      <c r="C730" s="43"/>
     </row>
     <row r="731" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C731" s="44"/>
+      <c r="C731" s="43"/>
     </row>
     <row r="732" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C732" s="44"/>
+      <c r="C732" s="43"/>
     </row>
     <row r="733" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C733" s="44"/>
+      <c r="C733" s="43"/>
     </row>
     <row r="734" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C734" s="44"/>
+      <c r="C734" s="43"/>
     </row>
     <row r="735" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C735" s="44"/>
+      <c r="C735" s="43"/>
     </row>
     <row r="736" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C736" s="44"/>
+      <c r="C736" s="43"/>
     </row>
     <row r="737" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C737" s="44"/>
+      <c r="C737" s="43"/>
     </row>
     <row r="738" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C738" s="44"/>
+      <c r="C738" s="43"/>
     </row>
     <row r="739" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C739" s="44"/>
+      <c r="C739" s="43"/>
     </row>
     <row r="740" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C740" s="44"/>
+      <c r="C740" s="43"/>
     </row>
     <row r="741" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C741" s="44"/>
+      <c r="C741" s="43"/>
     </row>
     <row r="742" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C742" s="44"/>
+      <c r="C742" s="43"/>
     </row>
     <row r="743" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C743" s="44"/>
+      <c r="C743" s="43"/>
     </row>
     <row r="744" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C744" s="44"/>
+      <c r="C744" s="43"/>
     </row>
     <row r="745" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C745" s="44"/>
+      <c r="C745" s="43"/>
     </row>
     <row r="746" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C746" s="44"/>
+      <c r="C746" s="43"/>
     </row>
     <row r="747" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C747" s="44"/>
+      <c r="C747" s="43"/>
     </row>
     <row r="748" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C748" s="44"/>
+      <c r="C748" s="43"/>
     </row>
     <row r="749" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C749" s="44"/>
+      <c r="C749" s="43"/>
     </row>
     <row r="750" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C750" s="44"/>
+      <c r="C750" s="43"/>
     </row>
     <row r="751" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C751" s="44"/>
+      <c r="C751" s="43"/>
     </row>
     <row r="752" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C752" s="44"/>
+      <c r="C752" s="43"/>
     </row>
     <row r="753" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C753" s="44"/>
+      <c r="C753" s="43"/>
     </row>
     <row r="754" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C754" s="44"/>
+      <c r="C754" s="43"/>
     </row>
     <row r="755" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C755" s="44"/>
+      <c r="C755" s="43"/>
     </row>
     <row r="756" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C756" s="44"/>
+      <c r="C756" s="43"/>
     </row>
     <row r="757" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C757" s="44"/>
+      <c r="C757" s="43"/>
     </row>
     <row r="758" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C758" s="44"/>
+      <c r="C758" s="43"/>
     </row>
     <row r="759" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C759" s="44"/>
+      <c r="C759" s="43"/>
     </row>
     <row r="760" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C760" s="44"/>
+      <c r="C760" s="43"/>
     </row>
     <row r="761" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C761" s="44"/>
+      <c r="C761" s="43"/>
     </row>
     <row r="762" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C762" s="44"/>
+      <c r="C762" s="43"/>
     </row>
     <row r="763" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C763" s="44"/>
+      <c r="C763" s="43"/>
     </row>
     <row r="764" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C764" s="44"/>
+      <c r="C764" s="43"/>
     </row>
     <row r="765" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C765" s="44"/>
+      <c r="C765" s="43"/>
     </row>
     <row r="766" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C766" s="44"/>
+      <c r="C766" s="43"/>
     </row>
     <row r="767" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C767" s="44"/>
+      <c r="C767" s="43"/>
     </row>
     <row r="768" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C768" s="44"/>
+      <c r="C768" s="43"/>
     </row>
     <row r="769" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C769" s="44"/>
+      <c r="C769" s="43"/>
     </row>
     <row r="770" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C770" s="44"/>
+      <c r="C770" s="43"/>
     </row>
     <row r="771" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C771" s="44"/>
+      <c r="C771" s="43"/>
     </row>
     <row r="772" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C772" s="44"/>
+      <c r="C772" s="43"/>
     </row>
     <row r="773" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C773" s="44"/>
+      <c r="C773" s="43"/>
     </row>
     <row r="774" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C774" s="44"/>
+      <c r="C774" s="43"/>
     </row>
     <row r="775" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C775" s="44"/>
+      <c r="C775" s="43"/>
     </row>
     <row r="776" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C776" s="44"/>
+      <c r="C776" s="43"/>
     </row>
     <row r="777" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C777" s="44"/>
+      <c r="C777" s="43"/>
     </row>
     <row r="778" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C778" s="44"/>
+      <c r="C778" s="43"/>
     </row>
     <row r="779" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C779" s="44"/>
+      <c r="C779" s="43"/>
     </row>
     <row r="780" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C780" s="44"/>
+      <c r="C780" s="43"/>
     </row>
     <row r="781" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C781" s="44"/>
+      <c r="C781" s="43"/>
     </row>
     <row r="782" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C782" s="44"/>
+      <c r="C782" s="43"/>
     </row>
     <row r="783" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C783" s="44"/>
+      <c r="C783" s="43"/>
     </row>
     <row r="784" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C784" s="44"/>
+      <c r="C784" s="43"/>
     </row>
     <row r="785" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C785" s="44"/>
+      <c r="C785" s="43"/>
     </row>
     <row r="786" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C786" s="44"/>
+      <c r="C786" s="43"/>
     </row>
     <row r="787" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C787" s="44"/>
+      <c r="C787" s="43"/>
     </row>
     <row r="788" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C788" s="44"/>
+      <c r="C788" s="43"/>
     </row>
     <row r="789" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C789" s="44"/>
+      <c r="C789" s="43"/>
     </row>
     <row r="790" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C790" s="44"/>
+      <c r="C790" s="43"/>
     </row>
     <row r="791" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C791" s="44"/>
+      <c r="C791" s="43"/>
     </row>
     <row r="792" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C792" s="44"/>
+      <c r="C792" s="43"/>
     </row>
     <row r="793" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C793" s="44"/>
+      <c r="C793" s="43"/>
     </row>
     <row r="794" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C794" s="44"/>
+      <c r="C794" s="43"/>
     </row>
     <row r="795" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C795" s="44"/>
+      <c r="C795" s="43"/>
     </row>
     <row r="796" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C796" s="44"/>
+      <c r="C796" s="43"/>
     </row>
     <row r="797" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C797" s="44"/>
+      <c r="C797" s="43"/>
     </row>
     <row r="798" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C798" s="44"/>
+      <c r="C798" s="43"/>
     </row>
     <row r="799" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C799" s="44"/>
+      <c r="C799" s="43"/>
     </row>
     <row r="800" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C800" s="44"/>
+      <c r="C800" s="43"/>
     </row>
     <row r="801" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C801" s="44"/>
+      <c r="C801" s="43"/>
     </row>
     <row r="802" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C802" s="44"/>
+      <c r="C802" s="43"/>
     </row>
     <row r="803" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C803" s="44"/>
+      <c r="C803" s="43"/>
     </row>
     <row r="804" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C804" s="44"/>
+      <c r="C804" s="43"/>
     </row>
     <row r="805" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C805" s="44"/>
+      <c r="C805" s="43"/>
     </row>
     <row r="806" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C806" s="44"/>
+      <c r="C806" s="43"/>
     </row>
     <row r="807" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C807" s="44"/>
+      <c r="C807" s="43"/>
     </row>
     <row r="808" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C808" s="44"/>
+      <c r="C808" s="43"/>
     </row>
     <row r="809" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C809" s="44"/>
+      <c r="C809" s="43"/>
     </row>
     <row r="810" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C810" s="44"/>
+      <c r="C810" s="43"/>
     </row>
     <row r="811" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C811" s="44"/>
+      <c r="C811" s="43"/>
     </row>
     <row r="812" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C812" s="44"/>
+      <c r="C812" s="43"/>
     </row>
     <row r="813" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C813" s="44"/>
+      <c r="C813" s="43"/>
     </row>
     <row r="814" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C814" s="44"/>
+      <c r="C814" s="43"/>
     </row>
     <row r="815" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C815" s="44"/>
+      <c r="C815" s="43"/>
     </row>
     <row r="816" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C816" s="44"/>
+      <c r="C816" s="43"/>
     </row>
     <row r="817" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C817" s="44"/>
+      <c r="C817" s="43"/>
     </row>
     <row r="818" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C818" s="44"/>
+      <c r="C818" s="43"/>
     </row>
     <row r="819" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C819" s="44"/>
+      <c r="C819" s="43"/>
     </row>
     <row r="820" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C820" s="44"/>
+      <c r="C820" s="43"/>
     </row>
     <row r="821" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C821" s="44"/>
+      <c r="C821" s="43"/>
     </row>
     <row r="822" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C822" s="44"/>
+      <c r="C822" s="43"/>
     </row>
     <row r="823" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C823" s="44"/>
+      <c r="C823" s="43"/>
     </row>
     <row r="824" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C824" s="44"/>
+      <c r="C824" s="43"/>
     </row>
     <row r="825" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C825" s="44"/>
+      <c r="C825" s="43"/>
     </row>
     <row r="826" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C826" s="44"/>
+      <c r="C826" s="43"/>
     </row>
     <row r="827" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C827" s="44"/>
+      <c r="C827" s="43"/>
     </row>
     <row r="828" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C828" s="44"/>
+      <c r="C828" s="43"/>
     </row>
     <row r="829" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C829" s="44"/>
+      <c r="C829" s="43"/>
     </row>
     <row r="830" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C830" s="44"/>
+      <c r="C830" s="43"/>
     </row>
     <row r="831" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C831" s="44"/>
+      <c r="C831" s="43"/>
     </row>
     <row r="832" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C832" s="44"/>
+      <c r="C832" s="43"/>
     </row>
     <row r="833" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C833" s="44"/>
+      <c r="C833" s="43"/>
     </row>
     <row r="834" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C834" s="44"/>
+      <c r="C834" s="43"/>
     </row>
     <row r="835" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C835" s="44"/>
+      <c r="C835" s="43"/>
     </row>
     <row r="836" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C836" s="44"/>
+      <c r="C836" s="43"/>
     </row>
     <row r="837" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C837" s="44"/>
+      <c r="C837" s="43"/>
     </row>
     <row r="838" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C838" s="44"/>
+      <c r="C838" s="43"/>
     </row>
     <row r="839" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C839" s="44"/>
+      <c r="C839" s="43"/>
     </row>
     <row r="840" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C840" s="44"/>
+      <c r="C840" s="43"/>
     </row>
     <row r="841" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C841" s="44"/>
+      <c r="C841" s="43"/>
     </row>
     <row r="842" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C842" s="44"/>
+      <c r="C842" s="43"/>
     </row>
     <row r="843" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C843" s="44"/>
+      <c r="C843" s="43"/>
     </row>
     <row r="844" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C844" s="44"/>
+      <c r="C844" s="43"/>
     </row>
     <row r="845" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C845" s="44"/>
+      <c r="C845" s="43"/>
     </row>
     <row r="846" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C846" s="44"/>
+      <c r="C846" s="43"/>
     </row>
     <row r="847" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C847" s="44"/>
+      <c r="C847" s="43"/>
     </row>
     <row r="848" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C848" s="44"/>
+      <c r="C848" s="43"/>
     </row>
     <row r="849" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C849" s="44"/>
+      <c r="C849" s="43"/>
     </row>
     <row r="850" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C850" s="44"/>
+      <c r="C850" s="43"/>
     </row>
     <row r="851" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C851" s="44"/>
+      <c r="C851" s="43"/>
     </row>
     <row r="852" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C852" s="44"/>
+      <c r="C852" s="43"/>
     </row>
     <row r="853" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C853" s="44"/>
+      <c r="C853" s="43"/>
     </row>
     <row r="854" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C854" s="44"/>
+      <c r="C854" s="43"/>
     </row>
     <row r="855" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C855" s="44"/>
+      <c r="C855" s="43"/>
     </row>
     <row r="856" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C856" s="44"/>
+      <c r="C856" s="43"/>
     </row>
     <row r="857" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C857" s="44"/>
+      <c r="C857" s="43"/>
     </row>
     <row r="858" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C858" s="44"/>
+      <c r="C858" s="43"/>
     </row>
     <row r="859" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C859" s="44"/>
+      <c r="C859" s="43"/>
     </row>
     <row r="860" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C860" s="44"/>
+      <c r="C860" s="43"/>
     </row>
     <row r="861" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C861" s="44"/>
+      <c r="C861" s="43"/>
     </row>
     <row r="862" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C862" s="44"/>
+      <c r="C862" s="43"/>
     </row>
     <row r="863" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C863" s="44"/>
+      <c r="C863" s="43"/>
     </row>
     <row r="864" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C864" s="44"/>
+      <c r="C864" s="43"/>
     </row>
     <row r="865" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C865" s="44"/>
+      <c r="C865" s="43"/>
     </row>
     <row r="866" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C866" s="44"/>
+      <c r="C866" s="43"/>
     </row>
     <row r="867" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C867" s="44"/>
+      <c r="C867" s="43"/>
     </row>
     <row r="868" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C868" s="44"/>
+      <c r="C868" s="43"/>
     </row>
     <row r="869" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C869" s="44"/>
+      <c r="C869" s="43"/>
     </row>
     <row r="870" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C870" s="44"/>
+      <c r="C870" s="43"/>
     </row>
     <row r="871" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C871" s="44"/>
+      <c r="C871" s="43"/>
     </row>
     <row r="872" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C872" s="44"/>
+      <c r="C872" s="43"/>
     </row>
     <row r="873" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C873" s="44"/>
+      <c r="C873" s="43"/>
     </row>
     <row r="874" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C874" s="44"/>
+      <c r="C874" s="43"/>
     </row>
     <row r="875" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C875" s="44"/>
+      <c r="C875" s="43"/>
     </row>
     <row r="876" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C876" s="44"/>
+      <c r="C876" s="43"/>
     </row>
     <row r="877" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C877" s="44"/>
+      <c r="C877" s="43"/>
     </row>
     <row r="878" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C878" s="44"/>
+      <c r="C878" s="43"/>
     </row>
     <row r="879" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C879" s="44"/>
+      <c r="C879" s="43"/>
     </row>
     <row r="880" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C880" s="44"/>
+      <c r="C880" s="43"/>
     </row>
     <row r="881" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C881" s="44"/>
+      <c r="C881" s="43"/>
     </row>
     <row r="882" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C882" s="44"/>
+      <c r="C882" s="43"/>
     </row>
     <row r="883" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C883" s="44"/>
+      <c r="C883" s="43"/>
     </row>
     <row r="884" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C884" s="44"/>
+      <c r="C884" s="43"/>
     </row>
     <row r="885" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C885" s="44"/>
+      <c r="C885" s="43"/>
     </row>
     <row r="886" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C886" s="44"/>
+      <c r="C886" s="43"/>
     </row>
     <row r="887" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C887" s="44"/>
+      <c r="C887" s="43"/>
     </row>
     <row r="888" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C888" s="44"/>
+      <c r="C888" s="43"/>
     </row>
     <row r="889" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C889" s="44"/>
+      <c r="C889" s="43"/>
     </row>
     <row r="890" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C890" s="44"/>
+      <c r="C890" s="43"/>
     </row>
     <row r="891" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C891" s="44"/>
+      <c r="C891" s="43"/>
     </row>
     <row r="892" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C892" s="44"/>
+      <c r="C892" s="43"/>
     </row>
     <row r="893" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C893" s="44"/>
+      <c r="C893" s="43"/>
     </row>
     <row r="894" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C894" s="44"/>
+      <c r="C894" s="43"/>
     </row>
     <row r="895" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C895" s="44"/>
+      <c r="C895" s="43"/>
     </row>
     <row r="896" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C896" s="44"/>
+      <c r="C896" s="43"/>
     </row>
     <row r="897" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C897" s="44"/>
+      <c r="C897" s="43"/>
     </row>
     <row r="898" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C898" s="44"/>
+      <c r="C898" s="43"/>
     </row>
     <row r="899" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C899" s="44"/>
+      <c r="C899" s="43"/>
     </row>
     <row r="900" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C900" s="44"/>
+      <c r="C900" s="43"/>
     </row>
     <row r="901" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C901" s="44"/>
+      <c r="C901" s="43"/>
     </row>
     <row r="902" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C902" s="44"/>
+      <c r="C902" s="43"/>
     </row>
     <row r="903" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C903" s="44"/>
+      <c r="C903" s="43"/>
     </row>
     <row r="904" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C904" s="44"/>
+      <c r="C904" s="43"/>
     </row>
     <row r="905" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C905" s="44"/>
+      <c r="C905" s="43"/>
     </row>
     <row r="906" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C906" s="44"/>
+      <c r="C906" s="43"/>
     </row>
     <row r="907" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C907" s="44"/>
+      <c r="C907" s="43"/>
     </row>
     <row r="908" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C908" s="44"/>
+      <c r="C908" s="43"/>
     </row>
     <row r="909" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C909" s="44"/>
+      <c r="C909" s="43"/>
     </row>
     <row r="910" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C910" s="44"/>
+      <c r="C910" s="43"/>
     </row>
     <row r="911" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C911" s="44"/>
+      <c r="C911" s="43"/>
     </row>
     <row r="912" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C912" s="44"/>
+      <c r="C912" s="43"/>
     </row>
     <row r="913" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C913" s="44"/>
+      <c r="C913" s="43"/>
     </row>
     <row r="914" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C914" s="44"/>
+      <c r="C914" s="43"/>
     </row>
     <row r="915" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C915" s="44"/>
+      <c r="C915" s="43"/>
     </row>
     <row r="916" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C916" s="44"/>
+      <c r="C916" s="43"/>
     </row>
     <row r="917" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C917" s="44"/>
+      <c r="C917" s="43"/>
     </row>
     <row r="918" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C918" s="44"/>
+      <c r="C918" s="43"/>
     </row>
     <row r="919" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C919" s="44"/>
+      <c r="C919" s="43"/>
     </row>
     <row r="920" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C920" s="44"/>
+      <c r="C920" s="43"/>
     </row>
     <row r="921" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C921" s="44"/>
+      <c r="C921" s="43"/>
     </row>
     <row r="922" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C922" s="44"/>
+      <c r="C922" s="43"/>
     </row>
     <row r="923" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C923" s="44"/>
+      <c r="C923" s="43"/>
     </row>
     <row r="924" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C924" s="44"/>
+      <c r="C924" s="43"/>
     </row>
     <row r="925" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C925" s="44"/>
+      <c r="C925" s="43"/>
     </row>
     <row r="926" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C926" s="44"/>
+      <c r="C926" s="43"/>
     </row>
     <row r="927" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C927" s="44"/>
+      <c r="C927" s="43"/>
     </row>
     <row r="928" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C928" s="44"/>
+      <c r="C928" s="43"/>
     </row>
     <row r="929" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C929" s="44"/>
+      <c r="C929" s="43"/>
     </row>
     <row r="930" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C930" s="44"/>
+      <c r="C930" s="43"/>
     </row>
     <row r="931" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C931" s="44"/>
+      <c r="C931" s="43"/>
     </row>
     <row r="932" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C932" s="44"/>
+      <c r="C932" s="43"/>
     </row>
     <row r="933" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C933" s="44"/>
+      <c r="C933" s="43"/>
     </row>
     <row r="934" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C934" s="44"/>
+      <c r="C934" s="43"/>
     </row>
     <row r="935" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C935" s="44"/>
+      <c r="C935" s="43"/>
     </row>
     <row r="936" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C936" s="44"/>
+      <c r="C936" s="43"/>
     </row>
     <row r="937" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C937" s="44"/>
+      <c r="C937" s="43"/>
     </row>
     <row r="938" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C938" s="44"/>
+      <c r="C938" s="43"/>
     </row>
     <row r="939" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C939" s="44"/>
+      <c r="C939" s="43"/>
     </row>
     <row r="940" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C940" s="44"/>
+      <c r="C940" s="43"/>
     </row>
     <row r="941" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C941" s="44"/>
+      <c r="C941" s="43"/>
     </row>
     <row r="942" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C942" s="44"/>
+      <c r="C942" s="43"/>
     </row>
     <row r="943" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C943" s="44"/>
+      <c r="C943" s="43"/>
     </row>
     <row r="944" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C944" s="44"/>
+      <c r="C944" s="43"/>
     </row>
     <row r="945" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C945" s="44"/>
+      <c r="C945" s="43"/>
     </row>
     <row r="946" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C946" s="44"/>
+      <c r="C946" s="43"/>
     </row>
     <row r="947" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C947" s="44"/>
+      <c r="C947" s="43"/>
     </row>
     <row r="948" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C948" s="44"/>
+      <c r="C948" s="43"/>
     </row>
     <row r="949" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C949" s="44"/>
+      <c r="C949" s="43"/>
     </row>
     <row r="950" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C950" s="44"/>
+      <c r="C950" s="43"/>
     </row>
     <row r="951" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C951" s="44"/>
+      <c r="C951" s="43"/>
     </row>
     <row r="952" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C952" s="44"/>
+      <c r="C952" s="43"/>
     </row>
     <row r="953" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C953" s="44"/>
+      <c r="C953" s="43"/>
     </row>
     <row r="954" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C954" s="44"/>
+      <c r="C954" s="43"/>
     </row>
     <row r="955" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C955" s="44"/>
+      <c r="C955" s="43"/>
     </row>
     <row r="956" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C956" s="44"/>
+      <c r="C956" s="43"/>
     </row>
     <row r="957" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C957" s="44"/>
+      <c r="C957" s="43"/>
     </row>
     <row r="958" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C958" s="44"/>
+      <c r="C958" s="43"/>
     </row>
     <row r="959" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C959" s="44"/>
+      <c r="C959" s="43"/>
     </row>
     <row r="960" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C960" s="44"/>
+      <c r="C960" s="43"/>
     </row>
     <row r="961" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C961" s="44"/>
+      <c r="C961" s="43"/>
     </row>
     <row r="962" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C962" s="44"/>
+      <c r="C962" s="43"/>
     </row>
     <row r="963" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C963" s="44"/>
+      <c r="C963" s="43"/>
     </row>
     <row r="964" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C964" s="44"/>
+      <c r="C964" s="43"/>
     </row>
     <row r="965" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C965" s="44"/>
+      <c r="C965" s="43"/>
     </row>
     <row r="966" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C966" s="44"/>
+      <c r="C966" s="43"/>
     </row>
     <row r="967" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C967" s="44"/>
+      <c r="C967" s="43"/>
     </row>
     <row r="968" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C968" s="44"/>
+      <c r="C968" s="43"/>
     </row>
     <row r="969" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C969" s="44"/>
+      <c r="C969" s="43"/>
     </row>
     <row r="970" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C970" s="44"/>
+      <c r="C970" s="43"/>
     </row>
     <row r="971" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C971" s="44"/>
+      <c r="C971" s="43"/>
     </row>
     <row r="972" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C972" s="44"/>
+      <c r="C972" s="43"/>
     </row>
     <row r="973" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C973" s="44"/>
+      <c r="C973" s="43"/>
     </row>
     <row r="974" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C974" s="44"/>
+      <c r="C974" s="43"/>
     </row>
     <row r="975" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C975" s="44"/>
+      <c r="C975" s="43"/>
     </row>
     <row r="976" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C976" s="44"/>
+      <c r="C976" s="43"/>
     </row>
     <row r="977" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C977" s="44"/>
+      <c r="C977" s="43"/>
     </row>
     <row r="978" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C978" s="44"/>
+      <c r="C978" s="43"/>
     </row>
     <row r="979" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C979" s="44"/>
+      <c r="C979" s="43"/>
     </row>
     <row r="980" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C980" s="44"/>
+      <c r="C980" s="43"/>
     </row>
     <row r="981" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C981" s="44"/>
+      <c r="C981" s="43"/>
     </row>
     <row r="982" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C982" s="44"/>
+      <c r="C982" s="43"/>
     </row>
     <row r="983" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C983" s="44"/>
+      <c r="C983" s="43"/>
     </row>
     <row r="984" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C984" s="44"/>
+      <c r="C984" s="43"/>
     </row>
     <row r="985" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C985" s="44"/>
+      <c r="C985" s="43"/>
     </row>
     <row r="986" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C986" s="44"/>
+      <c r="C986" s="43"/>
     </row>
     <row r="987" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C987" s="44"/>
+      <c r="C987" s="43"/>
     </row>
     <row r="988" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C988" s="44"/>
+      <c r="C988" s="43"/>
     </row>
     <row r="989" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C989" s="44"/>
+      <c r="C989" s="43"/>
     </row>
     <row r="990" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C990" s="44"/>
+      <c r="C990" s="43"/>
     </row>
     <row r="991" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C991" s="44"/>
+      <c r="C991" s="43"/>
     </row>
     <row r="992" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C992" s="44"/>
+      <c r="C992" s="43"/>
     </row>
     <row r="993" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C993" s="44"/>
+      <c r="C993" s="43"/>
     </row>
     <row r="994" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C994" s="44"/>
+      <c r="C994" s="43"/>
     </row>
     <row r="995" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C995" s="44"/>
+      <c r="C995" s="43"/>
     </row>
     <row r="996" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C996" s="44"/>
+      <c r="C996" s="43"/>
     </row>
     <row r="997" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C997" s="44"/>
+      <c r="C997" s="43"/>
     </row>
     <row r="998" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C998" s="44"/>
+      <c r="C998" s="43"/>
     </row>
     <row r="999" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C999" s="44"/>
+      <c r="C999" s="43"/>
     </row>
     <row r="1000" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1000" s="44"/>
+      <c r="C1000" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -30624,7 +30638,7 @@
       <c r="C4" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>12.99</v>
       </c>
       <c r="E4" s="11"/>
@@ -30660,7 +30674,7 @@
       <c r="C5" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>6.9</v>
       </c>
       <c r="E5" s="11"/>
@@ -30696,7 +30710,7 @@
       <c r="C6" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>3.9</v>
       </c>
       <c r="E6" s="11"/>
@@ -30732,7 +30746,7 @@
       <c r="C7" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>8.99</v>
       </c>
       <c r="E7" s="11"/>
@@ -30768,7 +30782,7 @@
       <c r="C8" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>8.9</v>
       </c>
       <c r="E8" s="11"/>
@@ -30801,7 +30815,7 @@
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>198</v>
       </c>
       <c r="D9" s="2">
@@ -30815,7 +30829,7 @@
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>199</v>
       </c>
       <c r="D10" s="2">
@@ -30840,10 +30854,10 @@
       <c r="A12" s="3">
         <v>45444</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>340</v>
       </c>
       <c r="D12" s="2">
@@ -30882,10 +30896,10 @@
       <c r="A15" s="3">
         <v>45444</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="55" t="s">
         <v>334</v>
       </c>
       <c r="D15" s="2">
@@ -30921,13 +30935,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51">
+      <c r="A18" s="50">
         <v>45447</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="55" t="s">
         <v>185</v>
       </c>
       <c r="D18" s="2">
@@ -30935,7 +30949,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51">
+      <c r="A19" s="50">
         <v>45451</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -30949,13 +30963,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51">
+      <c r="A20" s="50">
         <v>45449</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="55" t="s">
         <v>331</v>
       </c>
       <c r="D20" s="2">
@@ -30963,13 +30977,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51">
+      <c r="A21" s="50">
         <v>45449</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="55" t="s">
         <v>332</v>
       </c>
       <c r="D21" s="2">
@@ -30977,13 +30991,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51">
+      <c r="A22" s="50">
         <v>45449</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="55" t="s">
         <v>333</v>
       </c>
       <c r="D22" s="2">
@@ -30991,13 +31005,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51">
+      <c r="A23" s="50">
         <v>45451</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>339</v>
       </c>
       <c r="D23" s="2">
@@ -31005,13 +31019,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51">
+      <c r="A24" s="50">
         <v>45451</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>341</v>
       </c>
       <c r="D24" s="2">
@@ -31019,13 +31033,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51">
+      <c r="A25" s="50">
         <v>45458</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="55" t="s">
         <v>325</v>
       </c>
       <c r="D25" s="2">
@@ -31033,13 +31047,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51">
+      <c r="A26" s="50">
         <v>45458</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="55" t="s">
         <v>326</v>
       </c>
       <c r="D26" s="2">
@@ -31053,7 +31067,7 @@
       <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="56" t="s">
         <v>327</v>
       </c>
       <c r="D27" s="2">
@@ -31061,13 +31075,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51">
+      <c r="A28" s="50">
         <v>45458</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="55" t="s">
         <v>328</v>
       </c>
       <c r="D28" s="2">
@@ -31075,13 +31089,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51">
+      <c r="A29" s="50">
         <v>45458</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="55" t="s">
         <v>329</v>
       </c>
       <c r="D29" s="2">
@@ -31089,13 +31103,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51">
+      <c r="A30" s="50">
         <v>45458</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="55" t="s">
         <v>330</v>
       </c>
       <c r="D30" s="2">
@@ -31103,13 +31117,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <v>45458</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="55" t="s">
         <v>335</v>
       </c>
       <c r="D31" s="2">
@@ -31117,13 +31131,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="51">
+      <c r="A32" s="50">
         <v>45458</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="55" t="s">
         <v>337</v>
       </c>
       <c r="D32" s="2">
@@ -31131,13 +31145,13 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="51">
+      <c r="A33" s="50">
         <v>45458</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="55" t="s">
         <v>338</v>
       </c>
       <c r="D33" s="2">
@@ -31145,13 +31159,13 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="51">
+      <c r="A34" s="50">
         <v>45465</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="55" t="s">
         <v>342</v>
       </c>
       <c r="D34" s="2">
@@ -31168,7 +31182,7 @@
       <c r="C35" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="44">
         <v>6</v>
       </c>
       <c r="E35" s="11"/>
@@ -31195,7 +31209,7 @@
       <c r="Z35" s="11"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51">
+      <c r="A36" s="50">
         <v>45465</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -31209,7 +31223,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="51">
+      <c r="A37" s="50">
         <v>45465</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -31223,7 +31237,7 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="51">
+      <c r="A38" s="50">
         <v>45465</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -31237,13 +31251,13 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="51">
+      <c r="A39" s="50">
         <v>45465</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="55" t="s">
         <v>354</v>
       </c>
       <c r="D39" s="2">
@@ -31251,13 +31265,13 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51">
+      <c r="A40" s="50">
         <v>45472</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="55" t="s">
         <v>355</v>
       </c>
       <c r="D40" s="2">
@@ -31274,7 +31288,7 @@
       <c r="C41" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="44">
         <v>8.9</v>
       </c>
       <c r="E41" s="11"/>
@@ -31301,7 +31315,7 @@
       <c r="Z41" s="11"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51">
+      <c r="A42" s="50">
         <v>45472</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -31315,7 +31329,7 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51">
+      <c r="A43" s="50">
         <v>45472</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -31329,13 +31343,13 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="51">
+      <c r="A44" s="50">
         <v>45472</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="55" t="s">
         <v>359</v>
       </c>
       <c r="D44" s="2">
@@ -31343,13 +31357,13 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="51">
+      <c r="A45" s="50">
         <v>45472</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="55" t="s">
         <v>360</v>
       </c>
       <c r="D45" s="2">
@@ -31357,13 +31371,13 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="51">
+      <c r="A46" s="50">
         <v>45472</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="55" t="s">
         <v>361</v>
       </c>
       <c r="D46" s="2">
@@ -31371,13 +31385,13 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="51">
+      <c r="A47" s="50">
         <v>45472</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="55" t="s">
         <v>362</v>
       </c>
       <c r="D47" s="2">
@@ -31385,13 +31399,13 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="51">
+      <c r="A48" s="50">
         <v>45472</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="55" t="s">
         <v>363</v>
       </c>
       <c r="D48" s="2">
@@ -31399,13 +31413,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="51">
+      <c r="A49" s="50">
         <v>45472</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="55" t="s">
         <v>364</v>
       </c>
       <c r="D49" s="2">
@@ -31413,13 +31427,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="51">
+      <c r="A50" s="50">
         <v>45479</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="55" t="s">
         <v>412</v>
       </c>
       <c r="D50" s="2">
@@ -31427,13 +31441,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51">
+      <c r="A51" s="50">
         <v>45479</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="55" t="s">
         <v>413</v>
       </c>
       <c r="D51" s="2">
@@ -31441,13 +31455,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="51">
+      <c r="A52" s="50">
         <v>45479</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="55" t="s">
         <v>414</v>
       </c>
       <c r="D52" s="2">
@@ -31455,13 +31469,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="51">
+      <c r="A53" s="50">
         <v>45475</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="54" t="s">
         <v>415</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="55" t="s">
         <v>416</v>
       </c>
       <c r="D53" s="2">
@@ -31469,13 +31483,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="51">
+      <c r="A54" s="50">
         <v>45479</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="100" t="s">
+      <c r="C54" s="99" t="s">
         <v>417</v>
       </c>
       <c r="D54" s="2"/>
@@ -34413,7 +34427,7 @@
       <c r="C5" s="4">
         <v>14</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>34943</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -34430,7 +34444,7 @@
       <c r="C6" s="4">
         <v>38</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>35916</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -34447,7 +34461,7 @@
       <c r="C7" s="4">
         <v>42</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>36069</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -34464,7 +34478,7 @@
       <c r="D8" s="4">
         <v>22</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>36951</v>
       </c>
     </row>
@@ -34718,7 +34732,7 @@
       <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>219</v>
       </c>
       <c r="C36" s="4">
@@ -35975,8 +35989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35990,99 +36004,99 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51">
+      <c r="A2" s="50">
         <v>45456</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>295</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:26" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52">
+    <row r="3" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51">
         <v>45456</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="53">
         <v>2.85</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
+    <row r="4" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="51">
         <v>45470</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="53">
         <v>2.85</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60">
+    <row r="5" spans="1:26" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
         <v>45458</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="61">
         <v>2.85</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+    <row r="6" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="51">
         <v>45456</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52">
+    <row r="7" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51">
         <v>45470</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52">
+    <row r="8" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51">
         <v>45463</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="53">
         <v>5.7</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60">
+    <row r="9" spans="1:26" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
         <v>45458</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="61">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63">
+    <row r="10" spans="1:26" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="62">
         <v>45463</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="64">
         <v>5</v>
       </c>
     </row>
@@ -36090,74 +36104,74 @@
       <c r="A11" s="3">
         <v>45456</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>235</v>
       </c>
       <c r="C11" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63">
+    <row r="12" spans="1:26" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="62">
         <v>45463</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66">
+    <row r="13" spans="1:26" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="65">
         <v>45463</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="67">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>45474</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <v>14</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102">
+      <c r="A15" s="101">
         <v>45488</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>239</v>
       </c>
       <c r="C15" s="2">
@@ -36165,261 +36179,261 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>45488</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="46">
         <v>94</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>45580</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="46">
         <v>70</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>45488</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="46">
         <v>90</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-    </row>
-    <row r="19" spans="1:26" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52">
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+    </row>
+    <row r="19" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="51">
         <v>45456</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63">
+    <row r="20" spans="1:26" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62">
         <v>45470</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="64">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:26" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="102">
         <v>45458</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="104">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+      <c r="A22" s="23">
         <v>45458</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="46">
         <v>35</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
+      <c r="A23" s="23">
         <v>45580</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="46">
         <v>94</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
+      <c r="A24" s="23">
         <v>45580</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="46">
         <v>64</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-    </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+    </row>
+    <row r="25" spans="1:26" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="102">
         <v>45458</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="103" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="104">
         <v>18.05</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:26" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="102">
         <v>45458</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="103" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="104">
         <v>15</v>
       </c>
     </row>
@@ -36460,91 +36474,91 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
+      <c r="A31" s="23">
         <v>45488</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="46">
         <v>36</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-    </row>
-    <row r="32" spans="1:26" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="72">
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+    </row>
+    <row r="32" spans="1:26" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="71">
         <v>45448</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="C32" s="74">
+      <c r="C32" s="73">
         <v>12.9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="72">
+    <row r="33" spans="1:3" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="71">
         <v>45455</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="73">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="72">
+    <row r="34" spans="1:3" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="71">
         <v>45462</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="73">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="72">
+    <row r="35" spans="1:3" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="71">
         <v>45469</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="73">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" spans="1:3" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="71">
         <v>45476</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="73">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -36595,14 +36609,14 @@
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:3" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="102">
         <v>45484</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="104">
         <v>3</v>
       </c>
     </row>
@@ -36628,14 +36642,14 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="45" spans="1:3" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="102">
         <v>45486</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="103" t="s">
         <v>266</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="104">
         <v>5</v>
       </c>
     </row>
@@ -36786,7 +36800,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="51">
+      <c r="A60" s="50">
         <v>45533</v>
       </c>
       <c r="B60" t="s">
@@ -36797,7 +36811,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="51">
+      <c r="A61" s="50">
         <v>45533</v>
       </c>
       <c r="B61" t="s">
@@ -36808,7 +36822,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="51">
+      <c r="A62" s="50">
         <v>45519</v>
       </c>
       <c r="B62" t="s">
@@ -36819,7 +36833,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="51">
+      <c r="A63" s="50">
         <v>45519</v>
       </c>
       <c r="B63" t="s">
@@ -36830,7 +36844,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="51">
+      <c r="A64" s="50">
         <v>45641</v>
       </c>
       <c r="B64" t="s">
@@ -36841,7 +36855,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="51">
+      <c r="A65" s="50">
         <v>45512</v>
       </c>
       <c r="B65" t="s">
@@ -36852,7 +36866,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="51">
+      <c r="A66" s="50">
         <v>45519</v>
       </c>
       <c r="B66" t="s">
@@ -36863,7 +36877,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="51">
+      <c r="A67" s="50">
         <v>45533</v>
       </c>
       <c r="B67" t="s">
@@ -36874,7 +36888,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51">
+      <c r="A68" s="50">
         <v>45519</v>
       </c>
       <c r="B68" t="s">
@@ -36885,7 +36899,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51">
+      <c r="A69" s="50">
         <v>45519</v>
       </c>
       <c r="B69" t="s">
@@ -36896,7 +36910,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="A70" s="50">
         <v>45533</v>
       </c>
       <c r="B70" t="s">
@@ -36907,7 +36921,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51">
+      <c r="A71" s="50">
         <v>45519</v>
       </c>
       <c r="B71" t="s">
@@ -36918,7 +36932,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51">
+      <c r="A72" s="50">
         <v>45533</v>
       </c>
       <c r="B72" t="s">
@@ -36929,7 +36943,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="51">
+      <c r="A73" s="50">
         <v>45512</v>
       </c>
       <c r="B73" t="s">
@@ -36940,7 +36954,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="51">
+      <c r="A74" s="50">
         <v>45533</v>
       </c>
       <c r="B74" t="s">
@@ -36951,7 +36965,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="51">
+      <c r="A75" s="50">
         <v>45533</v>
       </c>
       <c r="B75" t="s">
@@ -36962,7 +36976,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="51">
+      <c r="A76" s="50">
         <v>45533</v>
       </c>
       <c r="B76" t="s">
@@ -36973,7 +36987,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="51">
+      <c r="A77" s="50">
         <v>45519</v>
       </c>
       <c r="B77" t="s">
@@ -36984,7 +36998,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="51">
+      <c r="A78" s="50">
         <v>45519</v>
       </c>
       <c r="B78" t="s">

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90201910-3506-49D6-BCAA-4FC292D3C563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D3EB0F-6DA2-45E3-BF41-3EDA2E2B2953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1840" windowWidth="36340" windowHeight="18960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1100" windowWidth="36340" windowHeight="18960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="444">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1226,9 +1226,6 @@
     <t>EXCEPTIONAL X-MEN #1 ELIZABETH TORQUE VAR</t>
   </si>
   <si>
-    <t>17/</t>
-  </si>
-  <si>
     <t>ULTIMATES #3</t>
   </si>
   <si>
@@ -1323,6 +1320,63 @@
   </si>
   <si>
     <t>Tex Willer Extra 12</t>
+  </si>
+  <si>
+    <t>Batman &amp; Robin 4</t>
+  </si>
+  <si>
+    <t>4 Topolino Speciali 1976</t>
+  </si>
+  <si>
+    <t>dory2020</t>
+  </si>
+  <si>
+    <t>Gen 13 #30</t>
+  </si>
+  <si>
+    <t>fumettoedintorni</t>
+  </si>
+  <si>
+    <t>Gen 13 #28</t>
+  </si>
+  <si>
+    <t>Gen 13 #32</t>
+  </si>
+  <si>
+    <t>Gen 13 #29</t>
+  </si>
+  <si>
+    <t>Fantastici Quattro #100</t>
+  </si>
+  <si>
+    <t>oldworld2014</t>
+  </si>
+  <si>
+    <t>visione69</t>
+  </si>
+  <si>
+    <t>Fantastici Quattro #106</t>
+  </si>
+  <si>
+    <t>Fantastici Quattro #111</t>
+  </si>
+  <si>
+    <t>Fantastici Quattro #97</t>
+  </si>
+  <si>
+    <t>Fantastici Quattro #88</t>
+  </si>
+  <si>
+    <t>Superman contro Flash Cenisio</t>
+  </si>
+  <si>
+    <t>fumetti30</t>
+  </si>
+  <si>
+    <t>gaz81</t>
+  </si>
+  <si>
+    <t>Hellboy vol.1</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1387,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,15 +1602,25 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="aptos narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1629,6 +1693,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1649,7 +1719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1841,9 +1911,8 @@
     <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1853,9 +1922,20 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="36" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="36" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="37" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="37" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="38" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2222,7 +2302,7 @@
       <c r="A9" s="6">
         <v>45413</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="103" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8">
@@ -2455,7 +2535,7 @@
       <c r="A19" s="13">
         <v>45413</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="105" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="14">
@@ -2510,7 +2590,7 @@
       <c r="A21" s="6">
         <v>45413</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="104" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="8">
@@ -2797,7 +2877,7 @@
     </row>
     <row r="41" spans="2:5" ht="14.25" customHeight="1">
       <c r="B41" s="75" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C41" s="1">
         <v>45536</v>
@@ -2811,7 +2891,7 @@
     </row>
     <row r="42" spans="2:5" ht="14.25" customHeight="1">
       <c r="B42" s="75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C42" s="1">
         <v>45474</v>
@@ -7783,10 +7863,10 @@
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" t="s">
         <v>398</v>
-      </c>
-      <c r="B16" t="s">
-        <v>399</v>
       </c>
       <c r="C16" s="50">
         <v>45482</v>
@@ -7797,10 +7877,10 @@
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" t="s">
         <v>400</v>
-      </c>
-      <c r="B17" t="s">
-        <v>401</v>
       </c>
       <c r="C17" s="50">
         <v>45482</v>
@@ -7811,10 +7891,10 @@
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C18" s="50">
         <v>45482</v>
@@ -7825,10 +7905,10 @@
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C19" s="50">
         <v>45482</v>
@@ -7839,10 +7919,10 @@
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" s="50">
         <v>45482</v>
@@ -7853,10 +7933,10 @@
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C21" s="50">
         <v>45482</v>
@@ -7867,10 +7947,10 @@
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C22" s="50">
         <v>45482</v>
@@ -7881,10 +7961,10 @@
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C23" s="50">
         <v>45482</v>
@@ -7895,10 +7975,10 @@
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C24" s="50">
         <v>45482</v>
@@ -7909,10 +7989,10 @@
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C25" s="50">
         <v>45482</v>
@@ -11641,7 +11721,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D30" s="76">
         <v>45413</v>
@@ -11658,10 +11738,10 @@
         <v>45482</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="97" t="s">
         <v>410</v>
-      </c>
-      <c r="C31" s="97" t="s">
-        <v>411</v>
       </c>
       <c r="D31" s="76">
         <v>45474</v>
@@ -12652,7 +12732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView zoomScale="277" zoomScaleNormal="277" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="277" zoomScaleNormal="277" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -13488,52 +13570,208 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="50">
+        <v>45485</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="50">
+        <v>45477</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="50">
+        <v>45477</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="50">
+        <v>45477</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="50">
+        <v>45477</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="119">
+        <v>45475</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="A57" s="119">
+        <v>45474</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="119">
+        <v>45474</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="119">
+        <v>45474</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="119">
+        <v>45474</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="A61" s="119">
+        <v>45462</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61" s="2">
+        <v>24.99</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="A62" s="119">
+        <v>45461</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="14.25" customHeight="1">
       <c r="C63" s="2"/>
@@ -17297,8 +17535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A54" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -17532,13 +17770,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="79">
         <v>45444</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="106" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="24">
@@ -19223,14 +19461,14 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A76" t="s">
-        <v>393</v>
+      <c r="A76" s="50">
+        <v>45474</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D76" s="50">
         <v>45536</v>
@@ -30631,8 +30869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A48" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -31458,7 +31696,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -31472,7 +31710,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D51" s="2">
         <v>12.99</v>
@@ -31486,7 +31724,7 @@
         <v>177</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D52" s="2">
         <v>4.9000000000000004</v>
@@ -31500,7 +31738,7 @@
         <v>177</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D53" s="2">
         <v>4.9000000000000004</v>
@@ -31511,10 +31749,10 @@
         <v>45475</v>
       </c>
       <c r="B54" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="C54" s="55" t="s">
         <v>415</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="D54" s="2">
         <v>4.9000000000000004</v>
@@ -31527,8 +31765,8 @@
       <c r="B55" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="107" t="s">
-        <v>417</v>
+      <c r="C55" s="55" t="s">
+        <v>416</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -31540,7 +31778,7 @@
         <v>24</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D56" s="2">
         <v>8.99</v>
@@ -31554,7 +31792,7 @@
         <v>24</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D57" s="2">
         <v>8.99</v>
@@ -31568,7 +31806,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D58" s="2">
         <v>12.99</v>
@@ -31582,7 +31820,7 @@
         <v>177</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D59" s="2">
         <v>3.9</v>
@@ -31610,7 +31848,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D61" s="2">
         <v>5</v>
@@ -31624,7 +31862,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
@@ -31638,14 +31876,25 @@
         <v>177</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D63" s="2">
         <v>3.9</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D64" s="2"/>
+      <c r="A64" s="50">
+        <v>45486</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" spans="4:4" ht="14.25" customHeight="1">
       <c r="D65" s="2"/>
@@ -36115,8 +36364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView topLeftCell="A68" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -36129,14 +36378,14 @@
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="50">
+    <row r="2" spans="1:26" s="118" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A2" s="117">
         <v>45456</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="118" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="116"/>
     </row>
     <row r="3" spans="1:26" s="52" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="51">
@@ -36160,14 +36409,14 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="60" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="59">
+    <row r="5" spans="1:26" s="115" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="114">
         <v>45458</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="116">
         <v>2.85</v>
       </c>
     </row>
@@ -36293,14 +36542,14 @@
       <c r="Y14" s="45"/>
       <c r="Z14" s="45"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="100">
+    <row r="15" spans="1:26" s="115" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="114">
         <v>45488</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="116">
         <v>32</v>
       </c>
     </row>
@@ -36428,14 +36677,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="102" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="101">
+    <row r="21" spans="1:26" s="101" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="100">
         <v>45458</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="103">
+      <c r="C21" s="102">
         <v>3</v>
       </c>
     </row>
@@ -36541,39 +36790,39 @@
       <c r="Y24" s="45"/>
       <c r="Z24" s="45"/>
     </row>
-    <row r="25" spans="1:26" s="102" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A25" s="101">
+    <row r="25" spans="1:26" s="101" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A25" s="100">
         <v>45458</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="103">
+      <c r="C25" s="102">
         <v>18.05</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="102" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A26" s="101">
+    <row r="26" spans="1:26" s="101" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="100">
         <v>45458</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="103">
+      <c r="C26" s="102">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="3">
+    <row r="28" spans="1:26" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A28" s="107">
         <v>45484</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="109">
         <v>5</v>
       </c>
     </row>
@@ -36688,14 +36937,14 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="3">
+    <row r="37" spans="1:3" s="110" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A37" s="107">
         <v>45473</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="109">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -36735,14 +36984,14 @@
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" s="102" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="101">
+    <row r="42" spans="1:3" s="112" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="111">
         <v>45484</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="103">
+      <c r="C42" s="113">
         <v>3</v>
       </c>
     </row>
@@ -36768,14 +37017,14 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="102" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A45" s="101">
+    <row r="45" spans="1:3" s="112" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A45" s="111">
         <v>45486</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="112" t="s">
         <v>266</v>
       </c>
-      <c r="C45" s="103">
+      <c r="C45" s="113">
         <v>5</v>
       </c>
     </row>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/repofumetti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32484D3-A249-F642-A093-C2A1A04A34BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E00D59-2EEF-8C4B-81CE-D6D7CDF52C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="498">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1469,6 +1469,78 @@
   </si>
   <si>
     <t>UNCANNY X-MEN #3 LUCIANO VECCHIO JUBILEE VAR</t>
+  </si>
+  <si>
+    <t>Batman 102</t>
+  </si>
+  <si>
+    <t>Batman 103</t>
+  </si>
+  <si>
+    <t>Wonder woman 7</t>
+  </si>
+  <si>
+    <t>Dc Pocket Collection Superigirl</t>
+  </si>
+  <si>
+    <t>LUCIFER VOL. 11: VESPR</t>
+  </si>
+  <si>
+    <t>Batman &amp; Robin 6</t>
+  </si>
+  <si>
+    <t>BLOOD HUNT 1 (DI 3)  RED BAND</t>
+  </si>
+  <si>
+    <t>G.O.D.S. 5</t>
+  </si>
+  <si>
+    <t>ULTIMATES 2</t>
+  </si>
+  <si>
+    <t>ULTIMATE SPIDER-MAN 7</t>
+  </si>
+  <si>
+    <t>ULTIMATE BLACK PANTHER 6</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN 5</t>
+  </si>
+  <si>
+    <t>FALL OF THE HOUSE OF X 5 (DI 5)</t>
+  </si>
+  <si>
+    <t>X-MEN FOREVER 5 (DI 5)</t>
+  </si>
+  <si>
+    <t>X-MEN 36</t>
+  </si>
+  <si>
+    <t>X-MEN: SPECIALE MATRIMONIO</t>
+  </si>
+  <si>
+    <t>AVENGERS 13</t>
+  </si>
+  <si>
+    <t>AMAZING SPIDER-MAN 50</t>
+  </si>
+  <si>
+    <t>AMAZING SPIDER-MAN 51</t>
+  </si>
+  <si>
+    <t>MARVEL INTEGRALE GLI INCREDIBILI X-MEN 69</t>
+  </si>
+  <si>
+    <t>MARVEL INTEGRALE SPIDER-MAN DI J.M. DeMATTEIS 44</t>
+  </si>
+  <si>
+    <t>Planet Manga</t>
+  </si>
+  <si>
+    <t>JINBOCHO SISTERS 3</t>
+  </si>
+  <si>
+    <t>YAWARA! ULTIMATE DELUXE EDITION 11</t>
   </si>
 </sst>
 </file>
@@ -7808,10 +7880,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8833,102 +8905,270 @@
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="50">
+        <v>45547</v>
+      </c>
+      <c r="B80" t="s">
+        <v>474</v>
+      </c>
+      <c r="C80" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="50">
+        <v>45547</v>
+      </c>
+      <c r="B81" t="s">
+        <v>481</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="50">
+        <v>45547</v>
+      </c>
+      <c r="B82" t="s">
+        <v>490</v>
+      </c>
+      <c r="C82" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="50">
+        <v>45547</v>
+      </c>
+      <c r="B83" t="s">
+        <v>491</v>
+      </c>
+      <c r="C83" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B84" t="s">
+        <v>476</v>
+      </c>
+      <c r="C84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B85" t="s">
+        <v>477</v>
+      </c>
+      <c r="C85" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B86" t="s">
+        <v>478</v>
+      </c>
+      <c r="C86" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B87" t="s">
+        <v>482</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B88" t="s">
+        <v>484</v>
+      </c>
+      <c r="C88" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B89" t="s">
+        <v>485</v>
+      </c>
+      <c r="C89" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B90" t="s">
+        <v>487</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B91" t="s">
+        <v>489</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="50">
+        <v>45554</v>
+      </c>
+      <c r="B92" t="s">
+        <v>486</v>
+      </c>
+      <c r="C92" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="50">
+        <v>45554</v>
+      </c>
+      <c r="B93" t="s">
+        <v>488</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="50">
+        <v>45554</v>
+      </c>
+      <c r="B94" t="s">
+        <v>493</v>
+      </c>
+      <c r="C94" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="50">
+        <v>45554</v>
+      </c>
+      <c r="B95" t="s">
+        <v>494</v>
+      </c>
+      <c r="C95" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="50">
+        <v>45561</v>
+      </c>
+      <c r="B96" t="s">
+        <v>475</v>
+      </c>
+      <c r="C96" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="50">
+        <v>45561</v>
+      </c>
+      <c r="B97" t="s">
+        <v>479</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="50">
+        <v>45561</v>
+      </c>
+      <c r="B98" t="s">
+        <v>483</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="50">
+        <v>45561</v>
+      </c>
+      <c r="B99" t="s">
+        <v>492</v>
+      </c>
+      <c r="C99" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="50">
+        <v>45575</v>
+      </c>
+      <c r="B100" t="s">
+        <v>480</v>
+      </c>
+      <c r="C100" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11591,6 +11831,48 @@
     </row>
     <row r="999" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C999" s="2"/>
+    </row>
+    <row r="1000" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1000" s="2"/>
+    </row>
+    <row r="1001" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1001" s="2"/>
+    </row>
+    <row r="1002" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1002" s="2"/>
+    </row>
+    <row r="1003" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1003" s="2"/>
+    </row>
+    <row r="1004" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1004" s="2"/>
+    </row>
+    <row r="1005" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1005" s="2"/>
+    </row>
+    <row r="1006" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1006" s="2"/>
+    </row>
+    <row r="1007" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1007" s="2"/>
+    </row>
+    <row r="1008" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1008" s="2"/>
+    </row>
+    <row r="1009" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1009" s="2"/>
+    </row>
+    <row r="1010" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1010" s="2"/>
+    </row>
+    <row r="1011" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1011" s="2"/>
+    </row>
+    <row r="1012" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1012" s="2"/>
+    </row>
+    <row r="1013" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1013" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -14848,7 +15130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497400E-8E6D-BA4A-876A-911B08160594}">
   <dimension ref="A2:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -15107,8 +15389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A13" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15922,22 +16204,54 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" t="s">
+        <v>496</v>
+      </c>
+      <c r="E33" s="10">
+        <v>7</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="50">
+        <v>45550</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C34" t="s">
+        <v>497</v>
+      </c>
+      <c r="E34" s="10">
+        <v>15</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/repofumetti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E00D59-2EEF-8C4B-81CE-D6D7CDF52C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42F6AC-D764-A24D-AC45-1ED0F469B2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Anteprima" sheetId="9" r:id="rId10"/>
     <sheet name="recuperoni" sheetId="10" r:id="rId11"/>
     <sheet name="intermedi" sheetId="12" r:id="rId12"/>
+    <sheet name="Catalogo Manga" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="525">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1541,6 +1542,202 @@
   </si>
   <si>
     <t>YAWARA! ULTIMATE DELUXE EDITION 11</t>
+  </si>
+  <si>
+    <t>Amane Gymnasium 1</t>
+  </si>
+  <si>
+    <t>Amane Gymnasium 2</t>
+  </si>
+  <si>
+    <t>Palepoli</t>
+  </si>
+  <si>
+    <t>Usamaru Furuya</t>
+  </si>
+  <si>
+    <t>Maison Ikkoku #1</t>
+  </si>
+  <si>
+    <t>Toy #1</t>
+  </si>
+  <si>
+    <t>Neun #1 a #5</t>
+  </si>
+  <si>
+    <t>Akane Banashi #1, #2, #3</t>
+  </si>
+  <si>
+    <t>Yokohama Shopping #1,#2,#3</t>
+  </si>
+  <si>
+    <t>La Monella Chie #1</t>
+  </si>
+  <si>
+    <t>Tracce di sangue da #1 a #3</t>
+  </si>
+  <si>
+    <t>Girl from the Other Side da #1 a #5</t>
+  </si>
+  <si>
+    <t>Claymore da #1 a #7</t>
+  </si>
+  <si>
+    <t>Bentornato Alice da #1 a #7</t>
+  </si>
+  <si>
+    <t>Skip &amp; Loafer #1 a #3</t>
+  </si>
+  <si>
+    <t>Takahashi Bicilette da #1 a #2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Asadora da #1 a #7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>#8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Insomniacs after school da #1 a #9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>#10, #11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Jinbocho Sisters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> #1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nuvole a Nord Ovest da #1 a #6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>#7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yan da #1 a #5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> #6</t>
+    </r>
+  </si>
+  <si>
+    <t>Yawara #1,#2, #3, #4, #5 #6,#7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vino di Zucca da #1 a #6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>#7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="aptos narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="aptos narrow (Body)"/>
+      </rPr>
+      <t>#8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aria the Matserpiece #1,#2, #3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="aptos narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> #4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Billy Bat da #1 a #5 da </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">#6. a #15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="aptos narrow (Body)"/>
+      </rPr>
+      <t>da 16 a 20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hirayasumi  da 1 a #5, #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="aptos narrow (Body)"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>The Sacrificers Volume #1: I Sacrificanti</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1748,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,8 +2001,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="aptos narrow (Body)"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1884,6 +2086,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1905,7 +2113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2124,6 +2332,9 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7882,7 +8093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
+    <sheetView zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -11882,10 +12093,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12050,48 +12261,44 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" s="50"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" s="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="122" t="s">
         <v>397</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="122" t="s">
         <v>398</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C17" s="123">
         <v>45482</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="124">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>399</v>
-      </c>
-      <c r="B17" t="s">
-        <v>400</v>
-      </c>
-      <c r="C17" s="50">
-        <v>45482</v>
-      </c>
-      <c r="D17" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>397</v>
-      </c>
-      <c r="B18" s="95" t="s">
-        <v>401</v>
+        <v>399</v>
+      </c>
+      <c r="B18" t="s">
+        <v>400</v>
       </c>
       <c r="C18" s="50">
         <v>45482</v>
       </c>
       <c r="D18" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12099,13 +12306,13 @@
         <v>397</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C19" s="50">
         <v>45482</v>
       </c>
       <c r="D19" s="2">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12113,13 +12320,13 @@
         <v>397</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C20" s="50">
         <v>45482</v>
       </c>
       <c r="D20" s="2">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12127,13 +12334,13 @@
         <v>397</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C21" s="50">
         <v>45482</v>
       </c>
       <c r="D21" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12141,13 +12348,13 @@
         <v>397</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C22" s="50">
         <v>45482</v>
       </c>
       <c r="D22" s="2">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12155,13 +12362,13 @@
         <v>397</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C23" s="50">
         <v>45482</v>
       </c>
       <c r="D23" s="2">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12169,31 +12376,42 @@
         <v>397</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C24" s="50">
         <v>45482</v>
       </c>
       <c r="D24" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>397</v>
       </c>
-      <c r="B25" s="96" t="s">
-        <v>408</v>
+      <c r="B25" s="95" t="s">
+        <v>407</v>
       </c>
       <c r="C25" s="50">
         <v>45482</v>
       </c>
       <c r="D25" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26" s="50">
+        <v>45482</v>
+      </c>
+      <c r="D26" s="2">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="2"/>
@@ -15116,6 +15334,9 @@
     </row>
     <row r="1000" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1000" s="2"/>
+    </row>
+    <row r="1001" spans="4:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1001" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15381,6 +15602,163 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://www.hovistocose.it/comics/MARVEL+PRH/ULTIMATES+4+WES+CRAIG+CONNECT+VAR/JUL240734" xr:uid="{5AAF4034-F1FC-164B-A50B-824679780BB2}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B24B1A-5E19-4E45-BE1F-3FD44F3C23E6}">
+  <dimension ref="A2:B55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>500</v>
+      </c>
+      <c r="B34" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="75" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -39232,7 +39610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="264" zoomScaleNormal="264" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643181B7-36F5-4A85-BEE9-9D6ADB61A63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60D311-78F2-40E0-A29C-7B7B79A4795B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1100" windowWidth="36340" windowHeight="18960" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1100" windowWidth="36340" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="534">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1742,6 +1742,30 @@
   <si>
     <t>X-Men #1 Momoko Variant</t>
   </si>
+  <si>
+    <t>Super Eroi Classic #382 Thor #42</t>
+  </si>
+  <si>
+    <t>Classic Zagor</t>
+  </si>
+  <si>
+    <t>i Grandi Classici 103</t>
+  </si>
+  <si>
+    <t>Speciale Tex Willer</t>
+  </si>
+  <si>
+    <t>Julia 310 Bis</t>
+  </si>
+  <si>
+    <t>Zagor 759 bis</t>
+  </si>
+  <si>
+    <t>Dylan Dog 454</t>
+  </si>
+  <si>
+    <t>Milo Manara Collection #29</t>
+  </si>
 </sst>
 </file>
 
@@ -1750,7 +1774,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="m/d"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ _€"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -2363,7 +2387,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -12186,8 +12210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A15" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -35752,8 +35776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -36779,52 +36803,140 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="4:4" ht="14.25" customHeight="1">
+    <row r="65" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A65" s="50">
+        <v>45493</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>526</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A66" s="50">
+        <v>45493</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A67" s="50">
+        <v>45493</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="D67" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A68" s="50">
+        <v>45493</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A69" s="50">
+        <v>45493</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="55" t="s">
+        <v>530</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A70" s="50">
+        <v>45493</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="55" t="s">
+        <v>531</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A71" s="50">
+        <v>45493</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>532</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A72" s="50">
+        <v>45493</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="D72" s="2">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.25" customHeight="1">
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="4:4" ht="14.25" customHeight="1">
+    <row r="74" spans="1:4" ht="14.25" customHeight="1">
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="4:4" ht="14.25" customHeight="1">
+    <row r="75" spans="1:4" ht="14.25" customHeight="1">
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="4:4" ht="14.25" customHeight="1">
+    <row r="76" spans="1:4" ht="14.25" customHeight="1">
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="4:4" ht="14.25" customHeight="1">
+    <row r="77" spans="1:4" ht="14.25" customHeight="1">
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="4:4" ht="14.25" customHeight="1">
+    <row r="78" spans="1:4" ht="14.25" customHeight="1">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="4:4" ht="14.25" customHeight="1">
+    <row r="79" spans="1:4" ht="14.25" customHeight="1">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="4:4" ht="14.25" customHeight="1">
+    <row r="80" spans="1:4" ht="14.25" customHeight="1">
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="4:4" ht="14.25" customHeight="1">

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/repofumetti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C56A0C0-D400-6445-85F9-E61183906AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA5FF68-1E84-FC41-8769-7E3DA0AF4264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,9 @@
     <sheet name="Vari" sheetId="6" r:id="rId7"/>
     <sheet name="edicola" sheetId="7" r:id="rId8"/>
     <sheet name="recuperi" sheetId="8" r:id="rId9"/>
-    <sheet name="Anteprima" sheetId="9" r:id="rId10"/>
-    <sheet name="recuperoni" sheetId="10" r:id="rId11"/>
-    <sheet name="intermedi" sheetId="12" r:id="rId12"/>
+    <sheet name="urgenze" sheetId="15" r:id="rId10"/>
+    <sheet name="Anteprima" sheetId="9" r:id="rId11"/>
+    <sheet name="recuperoni" sheetId="10" r:id="rId12"/>
     <sheet name="Catalogo Manga" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="520">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1371,96 +1371,6 @@
   </si>
   <si>
     <t>Hellboy vol.1</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>MINOR ARCANA #1 CVR A LEMIRE</t>
-  </si>
-  <si>
-    <t>AMAZING SPIDER-MAN #57 RYAN MEINERDING MARVEL STUDIOS VAR</t>
-  </si>
-  <si>
-    <t>AMAZING SPIDER-MAN #58 CAMUNCOLI MARVEL COMICS PRESENTS VAR</t>
-  </si>
-  <si>
-    <t>AMAZING SPIDER-MAN #58 WRAPAROUND MARVEL STUDIOS VAR</t>
-  </si>
-  <si>
-    <t>STORM #1 CHECCHETTO DOOM CONQUERS MARVEL UNIVERSE VAR</t>
-  </si>
-  <si>
-    <t>ULTIMATE X-MEN #7 PEACH MOMOKO VAR</t>
-  </si>
-  <si>
-    <t>X-MEN #4 J SCOTT CAMPBELL EMMA FROST VAR</t>
-  </si>
-  <si>
-    <t>X-MEN #4 ELENA CASAGRANDE STORMBREAKERS VAR</t>
-  </si>
-  <si>
-    <t>WOLVERINE REVENGE RED BAND #2 (OF 5) [POLYBAGGED]</t>
-  </si>
-  <si>
-    <t>ULTIMATE X-MEN #7</t>
-  </si>
-  <si>
-    <t>ULTIMATE X-MEN #7 WES CRAIG CONNECT VAR</t>
-  </si>
-  <si>
-    <t>ULTIMATE SPIDER-MAN #9 WES CRAIG CONNECT VAR</t>
-  </si>
-  <si>
-    <t>ULTIMATE BLACK PANTHER #8 WES CRAIG CONNECT VAR</t>
-  </si>
-  <si>
-    <t>ULTIMATES #4 WES CRAIG CONNECT VAR</t>
-  </si>
-  <si>
-    <t>AMAZING SPIDER-MAN #57 CLAUDIO SCIARRONE DISNEY WHAT IF VAR</t>
-  </si>
-  <si>
-    <t>AMAZING SPIDER-MAN #57 CHRIS CAMPANA VAR</t>
-  </si>
-  <si>
-    <t>AMAZING SPIDER-MAN #58 LEO ROMERO GODZILLA VAR</t>
-  </si>
-  <si>
-    <t>DAZZLER #1 (OF 4) KAARE ANDREWS FOIL VAR (Net)</t>
-  </si>
-  <si>
-    <t>DAZZLER #1 (OF 4)</t>
-  </si>
-  <si>
-    <t>DEADPOOL TEAM-UP #2 (OF 5) ROB LIEFELD VAR</t>
-  </si>
-  <si>
-    <t>UNCANNY X-MEN #3 MAHMUD ASRAR MARVEL COMICS PRESENTS VAR</t>
-  </si>
-  <si>
-    <t>DAZZLER #1 (OF 4) ELIZABETH TORQUE GODZILLA VAR</t>
-  </si>
-  <si>
-    <t>DAZZLER #1 (OF 4) ASHLEY WITTER VAR</t>
-  </si>
-  <si>
-    <t>DAZZLER #1 (OF 4) MARGUERITE SAUVAGE WINDOWSHADES VAR</t>
-  </si>
-  <si>
-    <t>UNCANNY X-MEN #2</t>
-  </si>
-  <si>
-    <t>UNCANNY X-MEN #2 DAVID BALDEON GODZILLA VAR</t>
-  </si>
-  <si>
-    <t>UNCANNY X-MEN #3</t>
-  </si>
-  <si>
-    <t>UNCANNY X-MEN #2 LUCIANO VECCHIO GAMBIT VAR</t>
-  </si>
-  <si>
-    <t>UNCANNY X-MEN #3 LUCIANO VECCHIO JUBILEE VAR</t>
   </si>
   <si>
     <t>Batman 102</t>
@@ -1775,6 +1685,45 @@
   <si>
     <t xml:space="preserve">ABSOLUTE BATMAN #1 (V arian Jim Lee) </t>
   </si>
+  <si>
+    <t>Fantastici 4 #56</t>
+  </si>
+  <si>
+    <t>Fantastici 4 #59</t>
+  </si>
+  <si>
+    <t>Fantastici 4 #108</t>
+  </si>
+  <si>
+    <t>Fantastici 4 #110</t>
+  </si>
+  <si>
+    <t>Fantastici 4 #112</t>
+  </si>
+  <si>
+    <t>Fantastici 4 #114</t>
+  </si>
+  <si>
+    <t>Fantastici 4 #120</t>
+  </si>
+  <si>
+    <t>Fantastici 4 #125</t>
+  </si>
+  <si>
+    <t>Fantastici 4 #126</t>
+  </si>
+  <si>
+    <t>Devil &amp; Hulk #27</t>
+  </si>
+  <si>
+    <t>Devil &amp; Hulk #29</t>
+  </si>
+  <si>
+    <t>Devil &amp; Hulk #30</t>
+  </si>
+  <si>
+    <t>Devil &amp; Hulk #31</t>
+  </si>
 </sst>
 </file>
 
@@ -1785,7 +1734,7 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2025,27 +1974,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="aptos narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="5"/>
       <name val="aptos narrow (Body)"/>
@@ -2053,6 +1981,12 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="aptos narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="aptos narrow"/>
       <scheme val="minor"/>
     </font>
@@ -2159,11 +2093,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2379,9 +2312,6 @@
     <xf numFmtId="16" fontId="39" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2406,11 +2336,12 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2682,20 +2613,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="78">
         <v>45444</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="132">
+      <c r="C5" s="129">
         <v>45474</v>
       </c>
-      <c r="D5" s="139">
+      <c r="D5" s="136">
         <v>4.24</v>
       </c>
-      <c r="E5" s="139">
+      <c r="E5" s="136">
         <v>1</v>
       </c>
     </row>
@@ -3080,7 +3011,7 @@
       <c r="A22" s="6">
         <v>45413</v>
       </c>
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="122" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="8">
@@ -3362,106 +3293,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="126">
+    <row r="42" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="123">
         <v>45474</v>
       </c>
-      <c r="B42" s="131" t="s">
-        <v>523</v>
-      </c>
-      <c r="C42" s="132">
+      <c r="B42" s="128" t="s">
+        <v>493</v>
+      </c>
+      <c r="C42" s="129">
         <v>45474</v>
       </c>
-      <c r="D42" s="129">
+      <c r="D42" s="126">
         <v>4.24</v>
       </c>
-      <c r="E42" s="129">
+      <c r="E42" s="126">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="78">
         <v>45474</v>
       </c>
-      <c r="B43" s="136" t="s">
-        <v>524</v>
-      </c>
-      <c r="C43" s="137">
+      <c r="B43" s="133" t="s">
+        <v>494</v>
+      </c>
+      <c r="C43" s="134">
         <v>45474</v>
       </c>
-      <c r="D43" s="138">
+      <c r="D43" s="135">
         <v>5.09</v>
       </c>
-      <c r="E43" s="129">
+      <c r="E43" s="126">
         <v>1</v>
       </c>
-      <c r="F43" s="129"/>
-    </row>
-    <row r="44" spans="1:6" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="126">
+      <c r="F43" s="126"/>
+    </row>
+    <row r="44" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="123">
         <v>45474</v>
       </c>
-      <c r="B44" s="128" t="s">
+      <c r="B44" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="132">
+      <c r="C44" s="129">
         <v>45474</v>
       </c>
-      <c r="D44" s="129">
+      <c r="D44" s="126">
         <v>5.09</v>
       </c>
-      <c r="E44" s="129">
+      <c r="E44" s="126">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="126">
+    <row r="45" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="123">
         <v>45474</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="132">
+      <c r="C45" s="129">
         <v>45474</v>
       </c>
-      <c r="D45" s="129">
+      <c r="D45" s="126">
         <v>5.09</v>
       </c>
-      <c r="E45" s="129">
+      <c r="E45" s="126">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="126">
+    <row r="46" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="123">
         <v>45474</v>
       </c>
-      <c r="B46" s="130" t="s">
+      <c r="B46" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="132">
+      <c r="C46" s="129">
         <v>45474</v>
       </c>
-      <c r="D46" s="129">
+      <c r="D46" s="126">
         <v>5.09</v>
       </c>
-      <c r="E46" s="129">
+      <c r="E46" s="126">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="126">
+    <row r="47" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="123">
         <v>45474</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="132">
+      <c r="C47" s="129">
         <v>45474</v>
       </c>
-      <c r="D47" s="129">
+      <c r="D47" s="126">
         <v>5.09</v>
       </c>
-      <c r="E47" s="129">
+      <c r="E47" s="126">
         <v>1</v>
       </c>
     </row>
@@ -8222,10 +8153,132 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D068C9BA-EE35-9042-AF75-A5FE2859C21C}">
+  <dimension ref="A3:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="137" t="s">
+        <v>508</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="139" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" s="139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="139" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="139" t="s">
+        <v>514</v>
+      </c>
+      <c r="B10" s="139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="139" t="s">
+        <v>515</v>
+      </c>
+      <c r="B11" s="139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="140" t="s">
+        <v>516</v>
+      </c>
+      <c r="B12" s="140" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="140" t="s">
+        <v>517</v>
+      </c>
+      <c r="B13" s="140" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="139" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" s="139" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="139" t="s">
+        <v>519</v>
+      </c>
+      <c r="B15" s="139" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
       <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
@@ -9252,7 +9305,7 @@
         <v>45547</v>
       </c>
       <c r="B80" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="C80" s="2">
         <v>6</v>
@@ -9263,7 +9316,7 @@
         <v>45547</v>
       </c>
       <c r="B81" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="C81" s="2">
         <v>3</v>
@@ -9274,7 +9327,7 @@
         <v>45547</v>
       </c>
       <c r="B82" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="C82" s="2">
         <v>6</v>
@@ -9285,7 +9338,7 @@
         <v>45547</v>
       </c>
       <c r="B83" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="C83" s="2">
         <v>6</v>
@@ -9296,7 +9349,7 @@
         <v>45550</v>
       </c>
       <c r="B84" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="C84" s="2">
         <v>3</v>
@@ -9307,7 +9360,7 @@
         <v>45550</v>
       </c>
       <c r="B85" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="C85" s="2">
         <v>9.9</v>
@@ -9318,7 +9371,7 @@
         <v>45550</v>
       </c>
       <c r="B86" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="C86" s="2">
         <v>20</v>
@@ -9329,7 +9382,7 @@
         <v>45550</v>
       </c>
       <c r="B87" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C87" s="2">
         <v>3</v>
@@ -9340,7 +9393,7 @@
         <v>45550</v>
       </c>
       <c r="B88" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="C88" s="2">
         <v>3</v>
@@ -9351,7 +9404,7 @@
         <v>45550</v>
       </c>
       <c r="B89" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="C89" s="2">
         <v>3</v>
@@ -9362,7 +9415,7 @@
         <v>45550</v>
       </c>
       <c r="B90" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="C90" s="2">
         <v>5</v>
@@ -9373,7 +9426,7 @@
         <v>45550</v>
       </c>
       <c r="B91" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="C91" s="2">
         <v>6</v>
@@ -9384,7 +9437,7 @@
         <v>45554</v>
       </c>
       <c r="B92" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="C92" s="2">
         <v>6</v>
@@ -9395,7 +9448,7 @@
         <v>45554</v>
       </c>
       <c r="B93" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="C93" s="2">
         <v>5</v>
@@ -9406,7 +9459,7 @@
         <v>45554</v>
       </c>
       <c r="B94" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="C94" s="2">
         <v>4.9000000000000004</v>
@@ -9417,7 +9470,7 @@
         <v>45554</v>
       </c>
       <c r="B95" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="C95" s="2">
         <v>4.9000000000000004</v>
@@ -9428,7 +9481,7 @@
         <v>45561</v>
       </c>
       <c r="B96" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="C96" s="2">
         <v>6</v>
@@ -9439,7 +9492,7 @@
         <v>45561</v>
       </c>
       <c r="B97" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="C97" s="2">
         <v>3</v>
@@ -9450,7 +9503,7 @@
         <v>45561</v>
       </c>
       <c r="B98" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="C98" s="2">
         <v>3</v>
@@ -9461,7 +9514,7 @@
         <v>45561</v>
       </c>
       <c r="B99" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="C99" s="2">
         <v>5</v>
@@ -9472,7 +9525,7 @@
         <v>45575</v>
       </c>
       <c r="B100" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="C100" s="2">
         <v>8</v>
@@ -9489,7 +9542,7 @@
         <v>45588</v>
       </c>
       <c r="B103" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C103" s="2">
         <v>4.99</v>
@@ -9500,18 +9553,18 @@
         <v>45602</v>
       </c>
       <c r="B104" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="C104" s="2">
         <v>4.99</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="141">
+      <c r="A105" s="138">
         <v>45574</v>
       </c>
       <c r="B105" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="C105" s="2">
         <v>4.99</v>
@@ -12247,11 +12300,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -12421,7 +12474,7 @@
         <v>301</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="2"/>
@@ -12429,17 +12482,17 @@
     <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" s="122" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="122" t="s">
+    <row r="17" spans="1:4" s="119" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="119" t="s">
         <v>394</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="119" t="s">
         <v>395</v>
       </c>
-      <c r="C17" s="123">
+      <c r="C17" s="120">
         <v>45482</v>
       </c>
-      <c r="D17" s="124">
+      <c r="D17" s="121">
         <v>65</v>
       </c>
     </row>
@@ -15500,265 +15553,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F497400E-8E6D-BA4A-876A-911B08160594}">
-  <dimension ref="A2:C32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="73" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
-        <v>45508</v>
-      </c>
-      <c r="B4" s="121" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="50">
-        <v>45508</v>
-      </c>
-      <c r="B5" s="120" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
-        <v>45508</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="50">
-        <v>45508</v>
-      </c>
-      <c r="B7" s="120" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
-        <v>45508</v>
-      </c>
-      <c r="B8" s="120" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
-        <v>45508</v>
-      </c>
-      <c r="B9" s="120" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
-        <v>45516</v>
-      </c>
-      <c r="B10" s="119" t="s">
-        <v>442</v>
-      </c>
-      <c r="C10" s="50"/>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="50">
-        <v>45515</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="50">
-        <v>45515</v>
-      </c>
-      <c r="B12" s="120" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="50">
-        <v>45515</v>
-      </c>
-      <c r="B13" s="120" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="50">
-        <v>45515</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="50">
-        <v>45515</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="50">
-        <v>45515</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="50">
-        <v>45515</v>
-      </c>
-      <c r="B17" s="120" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="50">
-        <v>45522</v>
-      </c>
-      <c r="B18" s="120" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="50">
-        <v>45522</v>
-      </c>
-      <c r="B19" s="120" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="50">
-        <v>45522</v>
-      </c>
-      <c r="B20" s="120" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="50">
-        <v>45522</v>
-      </c>
-      <c r="B21" s="120" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="50">
-        <v>45522</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="50">
-        <v>45522</v>
-      </c>
-      <c r="B23" s="120" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="50">
-        <v>45522</v>
-      </c>
-      <c r="B24" s="120" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="50">
-        <v>45522</v>
-      </c>
-      <c r="B25" s="120" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="50">
-        <v>45529</v>
-      </c>
-      <c r="B26" s="120" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="50">
-        <v>45529</v>
-      </c>
-      <c r="B27" s="120" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="50">
-        <v>45529</v>
-      </c>
-      <c r="B28" s="120" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="50">
-        <v>45529</v>
-      </c>
-      <c r="B29" s="120" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="50">
-        <v>45529</v>
-      </c>
-      <c r="B30" s="120" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="50">
-        <v>45529</v>
-      </c>
-      <c r="B31" s="120" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="50">
-        <v>45529</v>
-      </c>
-      <c r="B32" s="120" t="s">
-        <v>470</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.hovistocose.it/comics/MARVEL+PRH/ULTIMATES+4+WES+CRAIG+CONNECT+VAR/JUL240734" xr:uid="{5AAF4034-F1FC-164B-A50B-824679780BB2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15778,72 +15572,72 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
@@ -15853,25 +15647,25 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="B34" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -15881,37 +15675,37 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -16743,10 +16537,10 @@
         <v>45550</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="C33" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="E33" s="10">
         <v>7</v>
@@ -16760,10 +16554,10 @@
         <v>45550</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="C34" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="E34" s="10">
         <v>15</v>
@@ -22588,7 +22382,7 @@
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="132" t="s">
         <v>107</v>
       </c>
       <c r="D1" s="24">
@@ -22601,23 +22395,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78">
         <v>45444</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="134">
+      <c r="D2" s="131">
         <v>45505</v>
       </c>
-      <c r="E2" s="129">
+      <c r="E2" s="126">
         <v>5.09</v>
       </c>
-      <c r="F2" s="129">
+      <c r="F2" s="126">
         <v>1</v>
       </c>
     </row>
@@ -22808,8 +22602,8 @@
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="140" t="s">
-        <v>533</v>
+      <c r="C12" s="137" t="s">
+        <v>503</v>
       </c>
       <c r="D12" s="24">
         <v>45474</v>
@@ -22952,7 +22746,7 @@
       <c r="B20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="122" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="18">
@@ -22972,7 +22766,7 @@
       <c r="B21" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="122" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="18">
@@ -23359,7 +23153,7 @@
       <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="125" t="s">
+      <c r="C36" s="122" t="s">
         <v>141</v>
       </c>
       <c r="D36" s="18">
@@ -24412,23 +24206,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="130" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="126">
+    <row r="72" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="123">
         <v>45474</v>
       </c>
-      <c r="B72" s="127" t="s">
+      <c r="B72" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="128" t="s">
-        <v>522</v>
-      </c>
-      <c r="D72" s="126">
+      <c r="C72" s="125" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72" s="123">
         <v>45505</v>
       </c>
-      <c r="E72" s="129">
+      <c r="E72" s="126">
         <v>4.24</v>
       </c>
-      <c r="F72" s="129">
+      <c r="F72" s="126">
         <v>1</v>
       </c>
     </row>
@@ -36852,7 +36646,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="D65" s="2">
         <v>8.99</v>
@@ -36866,7 +36660,7 @@
         <v>175</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="D66" s="2">
         <v>7.9</v>
@@ -36880,7 +36674,7 @@
         <v>24</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="D67" s="2">
         <v>5.5</v>
@@ -36894,7 +36688,7 @@
         <v>24</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="D68" s="2">
         <v>6.9</v>
@@ -36908,7 +36702,7 @@
         <v>24</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="D69" s="2">
         <v>5</v>
@@ -36922,7 +36716,7 @@
         <v>24</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="D70" s="2">
         <v>4.9000000000000004</v>
@@ -36936,7 +36730,7 @@
         <v>24</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="D71" s="2">
         <v>4.9000000000000004</v>
@@ -36950,7 +36744,7 @@
         <v>24</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="D72" s="2">
         <v>12.99</v>
@@ -39771,7 +39565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView zoomScale="264" zoomScaleNormal="264" workbookViewId="0"/>
+    <sheetView topLeftCell="A83" zoomScale="264" zoomScaleNormal="264" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39963,10 +39759,10 @@
         <v>212</v>
       </c>
       <c r="C16" s="4">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071B86C0-AE4F-4F97-AA72-CCC79B9B32D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DCFA01-FD1D-4ECB-81C3-FEE56A0026A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1210" yWindow="1430" windowWidth="36340" windowHeight="18960" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="1220" windowWidth="36340" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="533">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1741,6 +1741,27 @@
   </si>
   <si>
     <t>Amazing Spider-man 847</t>
+  </si>
+  <si>
+    <t>Classic Tex 193</t>
+  </si>
+  <si>
+    <t>Tex Willer 69</t>
+  </si>
+  <si>
+    <t>Tex 765 Bis</t>
+  </si>
+  <si>
+    <t>Gazzetta</t>
+  </si>
+  <si>
+    <t>Maschera Nera #1</t>
+  </si>
+  <si>
+    <t>Nathan Never 390</t>
+  </si>
+  <si>
+    <t>Milo Manara Collection #30</t>
   </si>
 </sst>
 </file>
@@ -8324,7 +8345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -35657,8 +35678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -36895,54 +36916,120 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="4:4" ht="14.25" customHeight="1">
+      <c r="A80" s="50">
+        <v>45499</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="55" t="s">
+        <v>526</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A81" s="50">
+        <v>45499</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A82" s="50">
+        <v>45492</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A83" s="50">
+        <v>45499</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>530</v>
+      </c>
+      <c r="D83" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A84" s="50">
+        <v>45499</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="55" t="s">
+        <v>531</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A85" s="50">
+        <v>45499</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>532</v>
+      </c>
+      <c r="D85" s="2">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="14.25" customHeight="1">
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="4:4" ht="14.25" customHeight="1">
+    <row r="87" spans="1:4" ht="14.25" customHeight="1">
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="4:4" ht="14.25" customHeight="1">
+    <row r="88" spans="1:4" ht="14.25" customHeight="1">
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="4:4" ht="14.25" customHeight="1">
+    <row r="89" spans="1:4" ht="14.25" customHeight="1">
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="4:4" ht="14.25" customHeight="1">
+    <row r="90" spans="1:4" ht="14.25" customHeight="1">
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="4:4" ht="14.25" customHeight="1">
+    <row r="91" spans="1:4" ht="14.25" customHeight="1">
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="4:4" ht="14.25" customHeight="1">
+    <row r="92" spans="1:4" ht="14.25" customHeight="1">
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="4:4" ht="14.25" customHeight="1">
+    <row r="93" spans="1:4" ht="14.25" customHeight="1">
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="4:4" ht="14.25" customHeight="1">
+    <row r="94" spans="1:4" ht="14.25" customHeight="1">
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="4:4" ht="14.25" customHeight="1">
+    <row r="95" spans="1:4" ht="14.25" customHeight="1">
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="4:4" ht="14.25" customHeight="1">
+    <row r="96" spans="1:4" ht="14.25" customHeight="1">
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="4:4" ht="14.25" customHeight="1">

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DCFA01-FD1D-4ECB-81C3-FEE56A0026A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F32CAA-097D-482C-A1B7-337A27BA41CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="1220" windowWidth="36340" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1990" windowWidth="36340" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="541">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1762,6 +1762,30 @@
   </si>
   <si>
     <t>Milo Manara Collection #30</t>
+  </si>
+  <si>
+    <t>Milo Manara Collection #31</t>
+  </si>
+  <si>
+    <t>The Boys #2</t>
+  </si>
+  <si>
+    <t>Super Eroi Classic #384 Ironman #35</t>
+  </si>
+  <si>
+    <t>Tutto Tex #640</t>
+  </si>
+  <si>
+    <t>Zagor 760</t>
+  </si>
+  <si>
+    <t>Tex Willer Extra 13</t>
+  </si>
+  <si>
+    <t>Dylan Dog 455</t>
+  </si>
+  <si>
+    <t>PaperMitologia 3</t>
   </si>
 </sst>
 </file>
@@ -35678,8 +35702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -37000,28 +37024,116 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D86" s="2"/>
+      <c r="A86" s="50">
+        <v>45507</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="D86" s="2">
+        <v>12.99</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D87" s="2"/>
+      <c r="A87" s="50">
+        <v>45507</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="55" t="s">
+        <v>534</v>
+      </c>
+      <c r="D87" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D88" s="2"/>
+      <c r="A88" s="50">
+        <v>45507</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="D88" s="2">
+        <v>8.99</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D89" s="2"/>
+      <c r="A89" s="50">
+        <v>45507</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="D89" s="2">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D90" s="2"/>
+      <c r="A90" s="50">
+        <v>45507</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>537</v>
+      </c>
+      <c r="D90" s="2">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D91" s="2"/>
+      <c r="A91" s="50">
+        <v>45507</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="55" t="s">
+        <v>538</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D92" s="2"/>
+      <c r="A92" s="50">
+        <v>45507</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D93" s="2"/>
+      <c r="A93" s="50">
+        <v>45507</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="14.25" customHeight="1">
       <c r="D94" s="2"/>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F32CAA-097D-482C-A1B7-337A27BA41CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313D547-442D-4C6F-B9E2-8618D5C85CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1990" windowWidth="36340" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6610" yWindow="1720" windowWidth="36340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="570">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1787,6 +1787,93 @@
   <si>
     <t>PaperMitologia 3</t>
   </si>
+  <si>
+    <t>Immortal X-Men #27: X-Men Forever #5 (di 5)</t>
+  </si>
+  <si>
+    <t>Dc Absolute: Promethea #3</t>
+  </si>
+  <si>
+    <t>Wonder Woman #54: Wonder Woman #7</t>
+  </si>
+  <si>
+    <t>Yawara *Ultimate Deluxe Edition* #8</t>
+  </si>
+  <si>
+    <t>Wonder Woman #53: Wonder Woman #6</t>
+  </si>
+  <si>
+    <t>Aria The Masterpiece #5</t>
+  </si>
+  <si>
+    <t>WONDER WOMAN #13 CVR D NICOLA SCOTT</t>
+  </si>
+  <si>
+    <t>UNCANNY X-MEN #3 MAHMUD ASRAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #7 MIKE DEL MUNDO VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #7</t>
+  </si>
+  <si>
+    <t>LOVE EVERLASTING #15</t>
+  </si>
+  <si>
+    <t>AVENGERS ASSEMBLE #1 (OF 5) CORY SMITH</t>
+  </si>
+  <si>
+    <t>X-MEN #4 ELENA CASAGRANDE</t>
+  </si>
+  <si>
+    <t>UNCANNY X-MEN #3</t>
+  </si>
+  <si>
+    <t>WOLVERINE REVENGE #2</t>
+  </si>
+  <si>
+    <t>STORM #1 CHECCHETTO DOOM</t>
+  </si>
+  <si>
+    <t>WOLVERINE REVENGE #2 (OF 5) ROSE BESCH VAR</t>
+  </si>
+  <si>
+    <t>ABSOLUTE POWER #3 (OF 4) CVR C CARLA COHEN</t>
+  </si>
+  <si>
+    <t>BATMAN THE LONG HALLOWEEN THE LAST HALLOWEEN #1 (OF 10) CVR C JIM LEE VAR</t>
+  </si>
+  <si>
+    <t>AMAZING SPIDER-MAN #57 CLAUDIO SCIARRONE DISNEY</t>
+  </si>
+  <si>
+    <t>WHAT IF DONALD DUCK BECAME THOR #1 PEACH MOMOKO VAR</t>
+  </si>
+  <si>
+    <t>BATMAN THE LONG HALLOWEEN THE LAST HALLOWEEN #0</t>
+  </si>
+  <si>
+    <t>WHAT IF DONALD DUCK BECAME THOR #1</t>
+  </si>
+  <si>
+    <t>MOON IS FOLLOWING US #1 (OF 10) CVR B JOHNSON</t>
+  </si>
+  <si>
+    <t>UNCANNY X-MEN #2 LUCIANO VECCHIO GAMBIT VAR</t>
+  </si>
+  <si>
+    <t>ZATANNA BRING DOWN THE HOUSE #4 (OF 5) CVR D NICOLA SCOTT</t>
+  </si>
+  <si>
+    <t>SUPERMAN #18 CVR D SWEENEY BOO CARD STOCK VAR</t>
+  </si>
+  <si>
+    <t>ULTIMATE X-MEN #7 WES CRAIG CONNECT VAR</t>
+  </si>
+  <si>
+    <t>AVENGERS ASSEMBLE #1 (OF 5) WRAPAROUND MARVEL STUDIOS VAR</t>
+  </si>
 </sst>
 </file>
 
@@ -1797,11 +1884,18 @@
     <numFmt numFmtId="165" formatCode="m/d"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="aptos narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="aptos narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2066,8 +2160,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="aptos narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Abadi"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2158,6 +2264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2178,259 +2290,272 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="28" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="28" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="32" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="37" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="37" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="38" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="38" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="39" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="39" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="40" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="43" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="43" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="44" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="44" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="44" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="44" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="45" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="45" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2646,10 +2771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -3487,167 +3612,443 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1">
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C68" s="1"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="3:5" ht="14.25" customHeight="1">
+    <row r="48" spans="1:6" s="157" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="153">
+        <v>45505</v>
+      </c>
+      <c r="B48" s="154" t="s">
+        <v>547</v>
+      </c>
+      <c r="C48" s="155">
+        <v>45505</v>
+      </c>
+      <c r="D48" s="156">
+        <v>5.09</v>
+      </c>
+      <c r="E48" s="156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A49" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A50" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A51" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A52" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A53" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A54" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A55" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A56" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A57" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A58" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A59" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D59" s="158">
+        <v>5.09</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A60" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A61" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A62" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D62" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A63" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A64" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A65" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A66" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A67" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D67" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A68" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A69" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A70" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.25" customHeight="1">
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="3:5" ht="14.25" customHeight="1">
+    <row r="72" spans="1:5" ht="14.25" customHeight="1">
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="3:5" ht="14.25" customHeight="1">
+    <row r="73" spans="1:5" ht="14.25" customHeight="1">
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="3:5" ht="14.25" customHeight="1">
+    <row r="74" spans="1:5" ht="14.25" customHeight="1">
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="3:5" ht="14.25" customHeight="1">
+    <row r="75" spans="1:5" ht="14.25" customHeight="1">
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="3:5" ht="14.25" customHeight="1">
+    <row r="76" spans="1:5" ht="14.25" customHeight="1">
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="3:5" ht="14.25" customHeight="1">
+    <row r="77" spans="1:5" ht="14.25" customHeight="1">
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="3:5" ht="14.25" customHeight="1">
+    <row r="78" spans="1:5" ht="14.25" customHeight="1">
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="3:5" ht="14.25" customHeight="1">
+    <row r="79" spans="1:5" ht="14.25" customHeight="1">
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="3:5" ht="14.25" customHeight="1">
+    <row r="80" spans="1:5" ht="14.25" customHeight="1">
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -8221,21 +8622,6 @@
       <c r="C994" s="1"/>
       <c r="D994" s="2"/>
       <c r="E994" s="2"/>
-    </row>
-    <row r="995" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C995" s="1"/>
-      <c r="D995" s="2"/>
-      <c r="E995" s="2"/>
-    </row>
-    <row r="996" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C996" s="1"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-    </row>
-    <row r="997" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C997" s="1"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15808,14 +16194,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A24" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="26" width="7.6328125" customWidth="1"/>
   </cols>
@@ -16658,8 +17044,40 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A36" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C36" s="151" t="s">
+        <v>544</v>
+      </c>
+      <c r="E36" s="152">
+        <v>14.25</v>
+      </c>
+      <c r="F36" s="152">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A37" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B37" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="125" t="s">
+        <v>546</v>
+      </c>
+      <c r="E37" s="152">
+        <v>18.91</v>
+      </c>
+      <c r="F37" s="152">
+        <v>1.89</v>
+      </c>
+    </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
@@ -22451,8 +22869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="A50" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -24318,20 +24736,84 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="A73" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D73" s="50">
+        <v>45505</v>
+      </c>
+      <c r="E73" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="A74" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B74" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D74" s="50">
+        <v>45627</v>
+      </c>
+      <c r="E74" s="2">
+        <v>56.35</v>
+      </c>
+      <c r="F74" s="2">
+        <v>5.04</v>
+      </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="A75" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D75" s="50">
+        <v>45505</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="A76" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="D76" s="50">
+        <v>45505</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
       <c r="E77" s="2"/>
@@ -35702,7 +36184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313D547-442D-4C6F-B9E2-8618D5C85CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A7C92-8D31-4262-9FE3-E552C4FAEBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6610" yWindow="1720" windowWidth="36340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="1490" windowWidth="36340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="575">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -386,9 +386,6 @@
     <t>X-Men  #1  Koblish Variant Wraparound</t>
   </si>
   <si>
-    <t>X-Force  #1 Logo Var</t>
-  </si>
-  <si>
     <t xml:space="preserve">X-Force  #1 </t>
   </si>
   <si>
@@ -1466,9 +1463,6 @@
     <t>Neun #1 a #5</t>
   </si>
   <si>
-    <t>Akane Banashi #1, #2, #3</t>
-  </si>
-  <si>
     <t>Yokohama Shopping #1,#2,#3</t>
   </si>
   <si>
@@ -1485,9 +1479,6 @@
   </si>
   <si>
     <t>Bentornato Alice da #1 a #7</t>
-  </si>
-  <si>
-    <t>Skip &amp; Loafer #1 a #3</t>
   </si>
   <si>
     <t>Takahashi Bicilette da #1 a #2</t>
@@ -1873,6 +1864,30 @@
   </si>
   <si>
     <t>AVENGERS ASSEMBLE #1 (OF 5) WRAPAROUND MARVEL STUDIOS VAR</t>
+  </si>
+  <si>
+    <t>Hirayasumi #6</t>
+  </si>
+  <si>
+    <t>Skip &amp; Loafer #1 a #3, #4</t>
+  </si>
+  <si>
+    <t>Akane Banashi #1, #2, #3, #4, #5</t>
+  </si>
+  <si>
+    <t>Yawara *Ultimate Deluxe Edition* #9</t>
+  </si>
+  <si>
+    <t>Skip &amp; Loafer #5</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>JINBOCHO SISTERS 2</t>
+  </si>
+  <si>
+    <t>X-Force #1 Logo Var</t>
   </si>
 </sst>
 </file>
@@ -2173,7 +2188,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2270,6 +2285,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2290,7 +2311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2523,7 +2544,6 @@
     <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2544,18 +2564,27 @@
     <xf numFmtId="164" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2773,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2839,10 +2868,10 @@
       <c r="C5" s="129">
         <v>45474</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="135">
         <v>4.24</v>
       </c>
-      <c r="E5" s="136">
+      <c r="E5" s="135">
         <v>1</v>
       </c>
     </row>
@@ -3070,7 +3099,7 @@
       <c r="A14" s="6">
         <v>45413</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="160" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="8">
@@ -3087,7 +3116,7 @@
       <c r="A15" s="6">
         <v>45413</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="159" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="8">
@@ -3104,7 +3133,7 @@
       <c r="A16" s="6">
         <v>45413</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="159" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="8">
@@ -3121,7 +3150,7 @@
       <c r="A17" s="6">
         <v>45413</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="159" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8">
@@ -3138,7 +3167,7 @@
       <c r="A18" s="6">
         <v>45413</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="159" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="8">
@@ -3193,7 +3222,7 @@
       <c r="A20" s="6">
         <v>45413</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="122" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="8">
@@ -3244,7 +3273,7 @@
       <c r="A23" s="6">
         <v>45413</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="122" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="8">
@@ -3261,7 +3290,7 @@
       <c r="A24" s="6">
         <v>45413</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="122" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="8">
@@ -3310,7 +3339,7 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1">
       <c r="B27" s="84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C27" s="1">
         <v>45465</v>
@@ -3323,13 +3352,25 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="50">
+        <v>45444</v>
+      </c>
+      <c r="B28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45474</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
       <c r="B29" s="75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C29" s="1">
         <v>45536</v>
@@ -3343,7 +3384,7 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
       <c r="B30" s="75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C30" s="1">
         <v>45505</v>
@@ -3357,7 +3398,7 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
       <c r="B31" s="75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C31" s="1">
         <v>45536</v>
@@ -3371,7 +3412,7 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1">
       <c r="B32" s="75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C32" s="1">
         <v>45566</v>
@@ -3385,7 +3426,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
       <c r="B33" s="75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C33" s="1">
         <v>45536</v>
@@ -3399,7 +3440,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
       <c r="B34" s="75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C34" s="1">
         <v>45536</v>
@@ -3413,7 +3454,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
       <c r="B35" s="83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C35" s="1">
         <v>45536</v>
@@ -3427,7 +3468,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
       <c r="B36" s="75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C36" s="1">
         <v>45536</v>
@@ -3441,7 +3482,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="B37" s="75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C37" s="1">
         <v>45536</v>
@@ -3455,7 +3496,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
       <c r="B38" s="75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C38" s="1">
         <v>45505</v>
@@ -3469,7 +3510,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
       <c r="B39" s="75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C39" s="1">
         <v>45536</v>
@@ -3483,7 +3524,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
       <c r="B40" s="75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="1">
         <v>45536</v>
@@ -3497,7 +3538,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
       <c r="B41" s="75" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C41" s="1">
         <v>45536</v>
@@ -3514,7 +3555,7 @@
         <v>45474</v>
       </c>
       <c r="B42" s="128" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C42" s="129">
         <v>45474</v>
@@ -3530,13 +3571,13 @@
       <c r="A43" s="78">
         <v>45474</v>
       </c>
-      <c r="B43" s="133" t="s">
-        <v>494</v>
-      </c>
-      <c r="C43" s="134">
+      <c r="B43" s="132" t="s">
+        <v>491</v>
+      </c>
+      <c r="C43" s="133">
         <v>45474</v>
       </c>
-      <c r="D43" s="135">
+      <c r="D43" s="134">
         <v>5.09</v>
       </c>
       <c r="E43" s="126">
@@ -3612,20 +3653,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="157" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A48" s="153">
+    <row r="48" spans="1:6" s="152" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A48" s="151">
         <v>45505</v>
       </c>
-      <c r="B48" s="154" t="s">
-        <v>547</v>
-      </c>
-      <c r="C48" s="155">
+      <c r="B48" s="152" t="s">
+        <v>544</v>
+      </c>
+      <c r="C48" s="153">
         <v>45505</v>
       </c>
-      <c r="D48" s="156">
+      <c r="D48" s="154">
         <v>5.09</v>
       </c>
-      <c r="E48" s="156">
+      <c r="E48" s="154">
         <v>1</v>
       </c>
     </row>
@@ -3634,7 +3675,7 @@
         <v>45505</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C49" s="1">
         <v>45505</v>
@@ -3651,7 +3692,7 @@
         <v>45505</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C50" s="1">
         <v>45505</v>
@@ -3668,7 +3709,7 @@
         <v>45505</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C51" s="1">
         <v>45505</v>
@@ -3685,7 +3726,7 @@
         <v>45505</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C52" s="1">
         <v>45505</v>
@@ -3702,7 +3743,7 @@
         <v>45505</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C53" s="1">
         <v>45505</v>
@@ -3719,7 +3760,7 @@
         <v>45505</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C54" s="1">
         <v>45505</v>
@@ -3736,7 +3777,7 @@
         <v>45505</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C55" s="1">
         <v>45505</v>
@@ -3753,7 +3794,7 @@
         <v>45505</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C56" s="1">
         <v>45505</v>
@@ -3770,7 +3811,7 @@
         <v>45505</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C57" s="1">
         <v>45505</v>
@@ -3787,7 +3828,7 @@
         <v>45505</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C58" s="1">
         <v>45505</v>
@@ -3804,12 +3845,12 @@
         <v>45505</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C59" s="1">
         <v>45505</v>
       </c>
-      <c r="D59" s="158">
+      <c r="D59" s="155">
         <v>5.09</v>
       </c>
       <c r="E59" s="2">
@@ -3821,7 +3862,7 @@
         <v>45505</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C60" s="1">
         <v>45505</v>
@@ -3838,7 +3879,7 @@
         <v>45505</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C61" s="1">
         <v>45505</v>
@@ -3855,7 +3896,7 @@
         <v>45505</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C62" s="1">
         <v>45505</v>
@@ -3872,7 +3913,7 @@
         <v>45505</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C63" s="1">
         <v>45505</v>
@@ -3889,7 +3930,7 @@
         <v>45505</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C64" s="1">
         <v>45505</v>
@@ -3906,7 +3947,7 @@
         <v>45505</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C65" s="1">
         <v>45505</v>
@@ -3923,7 +3964,7 @@
         <v>45505</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C66" s="1">
         <v>45505</v>
@@ -3940,7 +3981,7 @@
         <v>45505</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C67" s="1">
         <v>45505</v>
@@ -3957,7 +3998,7 @@
         <v>45505</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C68" s="1">
         <v>45505</v>
@@ -3974,7 +4015,7 @@
         <v>45505</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C69" s="1">
         <v>45505</v>
@@ -3991,7 +4032,7 @@
         <v>45505</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C70" s="1">
         <v>45505</v>
@@ -8644,15 +8685,15 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="137" t="s">
-        <v>508</v>
+      <c r="A4" s="136" t="s">
+        <v>505</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -8660,7 +8701,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8668,7 +8709,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8676,74 +8717,74 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="138" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="138" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" s="138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="138" t="s">
+        <v>511</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="138" t="s">
         <v>512</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B11" s="138" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="139" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="138" t="s">
         <v>513</v>
       </c>
-      <c r="B9" s="139" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="139" t="s">
+      <c r="B12" s="138" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="138" t="s">
         <v>514</v>
       </c>
-      <c r="B10" s="139" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="139" t="s">
+      <c r="B13" s="138" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="138" t="s">
         <v>515</v>
       </c>
-      <c r="B11" s="139" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="139" t="s">
+      <c r="B14" s="138" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="138" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="139" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="139" t="s">
-        <v>517</v>
-      </c>
-      <c r="B13" s="139" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="139" t="s">
-        <v>518</v>
-      </c>
-      <c r="B14" s="139" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="139" t="s">
-        <v>519</v>
-      </c>
-      <c r="B15" s="139" t="s">
-        <v>210</v>
+      <c r="B15" s="138" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8815,7 @@
         <v>45456</v>
       </c>
       <c r="B2" s="117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="115"/>
     </row>
@@ -8783,7 +8824,7 @@
         <v>45456</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="53">
         <v>2.85</v>
@@ -8794,7 +8835,7 @@
         <v>45470</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="53">
         <v>2.85</v>
@@ -8805,7 +8846,7 @@
         <v>45458</v>
       </c>
       <c r="B5" s="114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="115">
         <v>2.85</v>
@@ -8816,7 +8857,7 @@
         <v>45456</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="53">
         <v>5</v>
@@ -8827,7 +8868,7 @@
         <v>45470</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="53">
         <v>3</v>
@@ -8838,7 +8879,7 @@
         <v>45463</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="53">
         <v>5.7</v>
@@ -8849,7 +8890,7 @@
         <v>45458</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="61">
         <v>6</v>
@@ -8860,7 +8901,7 @@
         <v>45463</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="64">
         <v>5</v>
@@ -8871,7 +8912,7 @@
         <v>45456</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="2">
         <v>4.9000000000000004</v>
@@ -8882,7 +8923,7 @@
         <v>45463</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="64">
         <v>4.9000000000000004</v>
@@ -8893,7 +8934,7 @@
         <v>45463</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="67">
         <v>4.9000000000000004</v>
@@ -8904,7 +8945,7 @@
         <v>45474</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" s="46">
         <v>14</v>
@@ -8938,7 +8979,7 @@
         <v>45488</v>
       </c>
       <c r="B15" s="114" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" s="115">
         <v>32</v>
@@ -8949,7 +8990,7 @@
         <v>45488</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="46">
         <v>94</v>
@@ -8983,7 +9024,7 @@
         <v>45580</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="46">
         <v>70</v>
@@ -9017,7 +9058,7 @@
         <v>45488</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="46">
         <v>90</v>
@@ -9051,7 +9092,7 @@
         <v>45456</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="53">
         <v>5</v>
@@ -9062,7 +9103,7 @@
         <v>45470</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="64">
         <v>6</v>
@@ -9073,7 +9114,7 @@
         <v>45458</v>
       </c>
       <c r="B21" s="101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" s="102">
         <v>3</v>
@@ -9084,7 +9125,7 @@
         <v>45458</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="46">
         <v>35</v>
@@ -9118,7 +9159,7 @@
         <v>45580</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" s="46">
         <v>94</v>
@@ -9152,7 +9193,7 @@
         <v>45580</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="46">
         <v>64</v>
@@ -9186,7 +9227,7 @@
         <v>45458</v>
       </c>
       <c r="B25" s="101" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="102">
         <v>18.05</v>
@@ -9197,7 +9238,7 @@
         <v>45458</v>
       </c>
       <c r="B26" s="101" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="102">
         <v>15</v>
@@ -9211,31 +9252,31 @@
         <v>45484</v>
       </c>
       <c r="B28" s="107" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="108">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="149" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A29" s="146">
+    <row r="29" spans="1:26" s="148" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A29" s="145">
         <v>45498</v>
       </c>
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="146" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="140" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="139">
+        <v>45488</v>
+      </c>
+      <c r="B30" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="148">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" s="141" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A30" s="140">
-        <v>45488</v>
-      </c>
-      <c r="B30" s="141" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" s="142">
+      <c r="C30" s="141">
         <v>3</v>
       </c>
     </row>
@@ -9244,7 +9285,7 @@
         <v>45488</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C31" s="46">
         <v>36</v>
@@ -9278,7 +9319,7 @@
         <v>45448</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C32" s="73">
         <v>12.9</v>
@@ -9289,7 +9330,7 @@
         <v>45455</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" s="73">
         <v>6</v>
@@ -9300,7 +9341,7 @@
         <v>45462</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="73">
         <v>4.9000000000000004</v>
@@ -9311,7 +9352,7 @@
         <v>45469</v>
       </c>
       <c r="B35" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C35" s="73">
         <v>4.9000000000000004</v>
@@ -9322,7 +9363,7 @@
         <v>45476</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C36" s="73">
         <v>4.9000000000000004</v>
@@ -9333,7 +9374,7 @@
         <v>45473</v>
       </c>
       <c r="B37" s="107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C37" s="108">
         <v>4.9000000000000004</v>
@@ -9344,7 +9385,7 @@
         <v>45488</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" s="2">
         <v>8</v>
@@ -9355,20 +9396,20 @@
         <v>45488</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C39" s="2">
         <v>5.9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="149" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A40" s="146">
+    <row r="40" spans="1:3" s="148" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A40" s="145">
         <v>45488</v>
       </c>
-      <c r="B40" s="147" t="s">
-        <v>261</v>
-      </c>
-      <c r="C40" s="148">
+      <c r="B40" s="146" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="147">
         <v>5.5</v>
       </c>
     </row>
@@ -9380,20 +9421,20 @@
         <v>45484</v>
       </c>
       <c r="B42" s="111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="112">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="149" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="146">
+    <row r="43" spans="1:3" s="148" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A43" s="145">
         <v>45498</v>
       </c>
-      <c r="B43" s="147" t="s">
-        <v>262</v>
-      </c>
-      <c r="C43" s="148">
+      <c r="B43" s="146" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="147">
         <v>2.85</v>
       </c>
     </row>
@@ -9402,7 +9443,7 @@
         <v>45488</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" s="2">
         <v>2.85</v>
@@ -9413,31 +9454,31 @@
         <v>45486</v>
       </c>
       <c r="B45" s="111" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" s="112">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="149" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A46" s="146">
+    <row r="46" spans="1:3" s="148" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A46" s="145">
         <v>45498</v>
       </c>
-      <c r="B46" s="147" t="s">
+      <c r="B46" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="143" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A47" s="142">
+        <v>45491</v>
+      </c>
+      <c r="B47" s="143" t="s">
         <v>265</v>
       </c>
-      <c r="C46" s="148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="144" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="143">
-        <v>45491</v>
-      </c>
-      <c r="B47" s="144" t="s">
-        <v>266</v>
-      </c>
-      <c r="C47" s="145">
+      <c r="C47" s="144">
         <v>5.7</v>
       </c>
     </row>
@@ -9446,7 +9487,7 @@
         <v>45488</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C48" s="2">
         <v>6</v>
@@ -9457,7 +9498,7 @@
         <v>45491</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C49" s="2">
         <v>5</v>
@@ -9468,7 +9509,7 @@
         <v>45491</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C50" s="2">
         <v>4.9000000000000004</v>
@@ -9479,7 +9520,7 @@
         <v>45491</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C51" s="2">
         <v>4.9000000000000004</v>
@@ -9490,7 +9531,7 @@
         <v>45611</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C52" s="2">
         <v>94</v>
@@ -9501,7 +9542,7 @@
         <v>45550</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C53" s="2">
         <v>32</v>
@@ -9512,7 +9553,7 @@
         <v>45550</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C54" s="2">
         <v>37.299999999999997</v>
@@ -9523,7 +9564,7 @@
         <v>45488</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C55" s="2">
         <v>37.5</v>
@@ -9534,7 +9575,7 @@
         <v>45488</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C56" s="2">
         <v>15</v>
@@ -9545,7 +9586,7 @@
         <v>45488</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" s="2">
         <v>7</v>
@@ -9559,7 +9600,7 @@
         <v>45512</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C59" s="2">
         <v>6</v>
@@ -9570,7 +9611,7 @@
         <v>45533</v>
       </c>
       <c r="B60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C60" s="2">
         <v>6</v>
@@ -9581,7 +9622,7 @@
         <v>45533</v>
       </c>
       <c r="B61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C61" s="2">
         <v>3</v>
@@ -9592,7 +9633,7 @@
         <v>45519</v>
       </c>
       <c r="B62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C62" s="2">
         <v>3</v>
@@ -9603,7 +9644,7 @@
         <v>45519</v>
       </c>
       <c r="B63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C63" s="2">
         <v>11.9</v>
@@ -9614,7 +9655,7 @@
         <v>45641</v>
       </c>
       <c r="B64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C64" s="2">
         <v>53</v>
@@ -9625,7 +9666,7 @@
         <v>45512</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C65" s="2">
         <v>3</v>
@@ -9636,7 +9677,7 @@
         <v>45519</v>
       </c>
       <c r="B66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C66" s="2">
         <v>5</v>
@@ -9647,7 +9688,7 @@
         <v>45533</v>
       </c>
       <c r="B67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" s="2">
         <v>3</v>
@@ -9658,7 +9699,7 @@
         <v>45519</v>
       </c>
       <c r="B68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C68" s="2">
         <v>3</v>
@@ -9669,7 +9710,7 @@
         <v>45519</v>
       </c>
       <c r="B69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C69" s="2">
         <v>3</v>
@@ -9680,7 +9721,7 @@
         <v>45533</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C70" s="2">
         <v>6</v>
@@ -9691,7 +9732,7 @@
         <v>45519</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C71" s="2">
         <v>6</v>
@@ -9702,7 +9743,7 @@
         <v>45533</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C72" s="2">
         <v>5</v>
@@ -9713,7 +9754,7 @@
         <v>45512</v>
       </c>
       <c r="B73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C73" s="2">
         <v>6.9</v>
@@ -9724,7 +9765,7 @@
         <v>45533</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C74" s="2">
         <v>5</v>
@@ -9735,7 +9776,7 @@
         <v>45533</v>
       </c>
       <c r="B75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C75" s="2">
         <v>4.9000000000000004</v>
@@ -9746,7 +9787,7 @@
         <v>45533</v>
       </c>
       <c r="B76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C76" s="2">
         <v>4.9000000000000004</v>
@@ -9757,7 +9798,7 @@
         <v>45519</v>
       </c>
       <c r="B77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C77" s="2">
         <v>15</v>
@@ -9768,7 +9809,7 @@
         <v>45519</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C78" s="2">
         <v>25</v>
@@ -9782,7 +9823,7 @@
         <v>45547</v>
       </c>
       <c r="B80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C80" s="2">
         <v>6</v>
@@ -9793,7 +9834,7 @@
         <v>45547</v>
       </c>
       <c r="B81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C81" s="2">
         <v>3</v>
@@ -9804,7 +9845,7 @@
         <v>45547</v>
       </c>
       <c r="B82" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C82" s="2">
         <v>6</v>
@@ -9815,7 +9856,7 @@
         <v>45547</v>
       </c>
       <c r="B83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C83" s="2">
         <v>6</v>
@@ -9826,7 +9867,7 @@
         <v>45550</v>
       </c>
       <c r="B84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C84" s="2">
         <v>3</v>
@@ -9837,7 +9878,7 @@
         <v>45550</v>
       </c>
       <c r="B85" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C85" s="2">
         <v>9.9</v>
@@ -9848,7 +9889,7 @@
         <v>45550</v>
       </c>
       <c r="B86" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C86" s="2">
         <v>20</v>
@@ -9859,7 +9900,7 @@
         <v>45550</v>
       </c>
       <c r="B87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C87" s="2">
         <v>3</v>
@@ -9870,7 +9911,7 @@
         <v>45550</v>
       </c>
       <c r="B88" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C88" s="2">
         <v>3</v>
@@ -9881,7 +9922,7 @@
         <v>45550</v>
       </c>
       <c r="B89" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C89" s="2">
         <v>3</v>
@@ -9892,7 +9933,7 @@
         <v>45550</v>
       </c>
       <c r="B90" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C90" s="2">
         <v>5</v>
@@ -9903,7 +9944,7 @@
         <v>45550</v>
       </c>
       <c r="B91" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C91" s="2">
         <v>6</v>
@@ -9914,7 +9955,7 @@
         <v>45554</v>
       </c>
       <c r="B92" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C92" s="2">
         <v>6</v>
@@ -9925,7 +9966,7 @@
         <v>45554</v>
       </c>
       <c r="B93" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C93" s="2">
         <v>5</v>
@@ -9936,7 +9977,7 @@
         <v>45554</v>
       </c>
       <c r="B94" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C94" s="2">
         <v>4.9000000000000004</v>
@@ -9947,7 +9988,7 @@
         <v>45554</v>
       </c>
       <c r="B95" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C95" s="2">
         <v>4.9000000000000004</v>
@@ -9958,7 +9999,7 @@
         <v>45561</v>
       </c>
       <c r="B96" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C96" s="2">
         <v>6</v>
@@ -9969,7 +10010,7 @@
         <v>45561</v>
       </c>
       <c r="B97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C97" s="2">
         <v>3</v>
@@ -9980,7 +10021,7 @@
         <v>45561</v>
       </c>
       <c r="B98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C98" s="2">
         <v>3</v>
@@ -9991,7 +10032,7 @@
         <v>45561</v>
       </c>
       <c r="B99" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C99" s="2">
         <v>5</v>
@@ -10002,7 +10043,7 @@
         <v>45575</v>
       </c>
       <c r="B100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C100" s="2">
         <v>8</v>
@@ -10019,7 +10060,7 @@
         <v>45588</v>
       </c>
       <c r="B103" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C103" s="2">
         <v>4.99</v>
@@ -10030,18 +10071,18 @@
         <v>45602</v>
       </c>
       <c r="B104" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C104" s="2">
         <v>4.99</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A105" s="138">
+      <c r="A105" s="137">
         <v>45574</v>
       </c>
       <c r="B105" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C105" s="2">
         <v>4.99</v>
@@ -12808,10 +12849,10 @@
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="C5" s="3">
         <v>45442</v>
@@ -12822,10 +12863,10 @@
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="3">
         <v>45442</v>
@@ -12836,10 +12877,10 @@
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="3">
         <v>45442</v>
@@ -12850,10 +12891,10 @@
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" s="3">
         <v>45442</v>
@@ -12864,10 +12905,10 @@
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>282</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>283</v>
       </c>
       <c r="C9" s="3">
         <v>45442</v>
@@ -12878,10 +12919,10 @@
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="50">
         <v>45519</v>
@@ -12892,10 +12933,10 @@
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" t="s">
         <v>301</v>
-      </c>
-      <c r="B11" t="s">
-        <v>302</v>
       </c>
       <c r="C11" s="50">
         <v>45519</v>
@@ -12906,10 +12947,10 @@
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" s="50">
         <v>45519</v>
@@ -12920,10 +12961,10 @@
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13" s="50">
         <v>45519</v>
@@ -12934,10 +12975,10 @@
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14" s="50">
         <v>45519</v>
@@ -12948,10 +12989,10 @@
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="2"/>
@@ -12961,10 +13002,10 @@
     </row>
     <row r="17" spans="1:4" s="119" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="119" t="s">
         <v>394</v>
-      </c>
-      <c r="B17" s="119" t="s">
-        <v>395</v>
       </c>
       <c r="C17" s="120">
         <v>45482</v>
@@ -12975,10 +13016,10 @@
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" t="s">
         <v>396</v>
-      </c>
-      <c r="B18" t="s">
-        <v>397</v>
       </c>
       <c r="C18" s="50">
         <v>45482</v>
@@ -12989,10 +13030,10 @@
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C19" s="50">
         <v>45482</v>
@@ -13003,10 +13044,10 @@
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C20" s="50">
         <v>45482</v>
@@ -13017,10 +13058,10 @@
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C21" s="50">
         <v>45482</v>
@@ -13031,10 +13072,10 @@
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C22" s="50">
         <v>45482</v>
@@ -13045,10 +13086,10 @@
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C23" s="50">
         <v>45482</v>
@@ -13059,10 +13100,10 @@
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C24" s="50">
         <v>45482</v>
@@ -13073,10 +13114,10 @@
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B25" s="95" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C25" s="50">
         <v>45482</v>
@@ -13087,10 +13128,10 @@
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C26" s="50">
         <v>45482</v>
@@ -16037,8 +16078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B24B1A-5E19-4E45-BE1F-3FD44F3C23E6}">
   <dimension ref="A2:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -16049,140 +16090,140 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B34" t="s">
         <v>467</v>
-      </c>
-      <c r="B34" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>479</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -16194,8 +16235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A16" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -16716,7 +16757,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D17" s="24">
         <v>45474</v>
@@ -16836,7 +16877,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" s="24">
         <v>45231</v>
@@ -16856,7 +16897,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D24" s="24">
         <v>45231</v>
@@ -16876,7 +16917,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D25" s="24">
         <v>45231</v>
@@ -16896,7 +16937,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D26" s="76">
         <v>45474</v>
@@ -16909,14 +16950,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="50">
+      <c r="A27" s="123">
         <v>45474</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="97" t="s">
-        <v>371</v>
+      <c r="C27" s="156" t="s">
+        <v>370</v>
       </c>
       <c r="D27" s="76">
         <v>45474</v>
@@ -16936,7 +16977,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D28" s="76">
         <v>45474</v>
@@ -16956,7 +16997,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D29" s="76">
         <v>45444</v>
@@ -16969,14 +17010,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="50">
+      <c r="A30" s="118">
         <v>45474</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D30" s="76">
         <v>45413</v>
@@ -16993,10 +17034,10 @@
         <v>45482</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C31" s="97" t="s">
         <v>406</v>
-      </c>
-      <c r="C31" s="97" t="s">
-        <v>407</v>
       </c>
       <c r="D31" s="76">
         <v>45474</v>
@@ -17008,16 +17049,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="123">
+        <v>45505</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="D32" s="76">
+        <v>45505</v>
+      </c>
+      <c r="E32" s="10">
+        <v>7.13</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+    </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
       <c r="A33" s="50">
         <v>45550</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C33" t="s">
         <v>462</v>
-      </c>
-      <c r="C33" t="s">
-        <v>463</v>
       </c>
       <c r="E33" s="10">
         <v>7</v>
@@ -17031,10 +17091,10 @@
         <v>45550</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E34" s="10">
         <v>15</v>
@@ -17045,19 +17105,19 @@
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="50">
+      <c r="A36" s="123">
         <v>45505</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C36" s="151" t="s">
-        <v>544</v>
-      </c>
-      <c r="E36" s="152">
+        <v>461</v>
+      </c>
+      <c r="C36" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="E36" s="150">
         <v>14.25</v>
       </c>
-      <c r="F36" s="152">
+      <c r="F36" s="150">
         <v>1.43</v>
       </c>
     </row>
@@ -17065,22 +17125,70 @@
       <c r="A37" s="50">
         <v>45505</v>
       </c>
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="149" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="125" t="s">
-        <v>546</v>
-      </c>
-      <c r="E37" s="152">
+        <v>543</v>
+      </c>
+      <c r="E37" s="150">
         <v>18.91</v>
       </c>
-      <c r="F37" s="152">
+      <c r="F37" s="150">
         <v>1.89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A38" s="151">
+        <v>45505</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C38" s="158" t="s">
+        <v>570</v>
+      </c>
+      <c r="E38" s="150">
+        <v>14.25</v>
+      </c>
+      <c r="F38" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A39" s="50">
+        <v>45536</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E39" t="s">
+        <v>572</v>
+      </c>
+      <c r="F39" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A40" s="50">
+        <v>45536</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C40" t="s">
+        <v>573</v>
+      </c>
+      <c r="E40" s="10">
+        <v>7</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+    </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
@@ -18893,7 +19001,7 @@
         <v>45485</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C51" s="2">
         <v>9.99</v>
@@ -18902,7 +19010,7 @@
         <v>5.51</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1">
@@ -18910,7 +19018,7 @@
         <v>45477</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C52" s="2">
         <v>2</v>
@@ -18919,7 +19027,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.25" customHeight="1">
@@ -18927,7 +19035,7 @@
         <v>45477</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
@@ -18936,7 +19044,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1">
@@ -18944,7 +19052,7 @@
         <v>45477</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C54" s="2">
         <v>3</v>
@@ -18953,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1">
@@ -18961,7 +19069,7 @@
         <v>45477</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C55" s="2">
         <v>2</v>
@@ -18970,7 +19078,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1">
@@ -18978,7 +19086,7 @@
         <v>45475</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C56" s="2">
         <v>1.25</v>
@@ -18987,7 +19095,7 @@
         <v>2.5</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1">
@@ -18995,7 +19103,7 @@
         <v>45474</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C57" s="2">
         <v>1.2</v>
@@ -19004,7 +19112,7 @@
         <v>6</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.25" customHeight="1">
@@ -19012,7 +19120,7 @@
         <v>45474</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C58" s="2">
         <v>1.2</v>
@@ -19021,7 +19129,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1">
@@ -19029,7 +19137,7 @@
         <v>45474</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2">
         <v>1.2</v>
@@ -19038,7 +19146,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.25" customHeight="1">
@@ -19046,7 +19154,7 @@
         <v>45474</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C60" s="2">
         <v>1.2</v>
@@ -19055,7 +19163,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1">
@@ -19063,7 +19171,7 @@
         <v>45462</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2">
         <v>24.99</v>
@@ -19072,7 +19180,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1">
@@ -19080,7 +19188,7 @@
         <v>45461</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2">
         <v>5.9</v>
@@ -19089,7 +19197,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.25" customHeight="1">
@@ -22867,10 +22975,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -22884,43 +22992,43 @@
     <col min="7" max="26" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="3">
+    <row r="1" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A1" s="78">
         <v>45444</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="132" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="24">
+      <c r="C1" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="131">
         <v>45505</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="126">
         <v>5.09</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="126">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="78">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="3">
         <v>45444</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="131">
+      <c r="C2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="24">
         <v>45505</v>
       </c>
-      <c r="E2" s="126">
-        <v>5.09</v>
-      </c>
-      <c r="F2" s="126">
+      <c r="E2" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -22932,13 +23040,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="24">
         <v>45505</v>
       </c>
       <c r="E3" s="2">
-        <v>4.24</v>
+        <v>5.09</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -22952,13 +23060,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="24">
         <v>45505</v>
       </c>
       <c r="E4" s="2">
-        <v>4.24</v>
+        <v>5.09</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -22972,33 +23080,33 @@
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" s="24">
-        <v>45505</v>
+        <v>45597</v>
       </c>
       <c r="E5" s="2">
-        <v>5.09</v>
+        <v>89.3</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="79">
         <v>45444</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="24">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="E6" s="2">
-        <v>5.09</v>
+        <v>2.85</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -23012,36 +23120,36 @@
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" s="24">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="E7" s="2">
-        <v>89.3</v>
+        <v>35.15</v>
       </c>
       <c r="F7" s="2">
-        <v>8.93</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A8" s="79">
+      <c r="A8" s="3">
         <v>45444</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="24">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="E8" s="2">
-        <v>2.85</v>
+        <v>30.4</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
@@ -23051,17 +23159,17 @@
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>118</v>
+      <c r="C9" s="99" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="24">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="E9" s="2">
-        <v>35.15</v>
+        <v>30.4</v>
       </c>
       <c r="F9" s="2">
-        <v>3.52</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
@@ -23071,17 +23179,17 @@
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>119</v>
+      <c r="C10" s="136" t="s">
+        <v>500</v>
       </c>
       <c r="D10" s="24">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="E10" s="2">
-        <v>30.4</v>
+        <v>5.7</v>
       </c>
       <c r="F10" s="2">
-        <v>3.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
@@ -23091,17 +23199,17 @@
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D11" s="24">
         <v>45474</v>
       </c>
       <c r="E11" s="2">
-        <v>30.4</v>
+        <v>5.7</v>
       </c>
       <c r="F11" s="2">
-        <v>3.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
@@ -23111,57 +23219,57 @@
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="137" t="s">
-        <v>503</v>
+      <c r="C12" s="99" t="s">
+        <v>121</v>
       </c>
       <c r="D12" s="24">
         <v>45474</v>
       </c>
       <c r="E12" s="2">
-        <v>5.7</v>
+        <v>11.31</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="25">
         <v>45444</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" s="24">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="E13" s="2">
-        <v>5.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A14" s="3">
-        <v>45444</v>
+      <c r="A14" s="25">
+        <v>45465</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="99" t="s">
-        <v>122</v>
+      <c r="C14" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="D14" s="24">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="E14" s="2">
-        <v>11.31</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F14" s="2">
-        <v>1.1299999999999999</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
@@ -23205,134 +23313,174 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="25">
-        <v>45444</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A18" s="6">
+        <v>45421</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="24">
-        <v>45413</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="25">
-        <v>45465</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="24">
-        <v>45413</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4.9000000000000004</v>
+      <c r="C18" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="18">
+        <v>45474</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="6">
+        <v>45421</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="18">
+        <v>45474</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="70">
         <v>45421</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="122" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="D20" s="18">
         <v>45474</v>
       </c>
       <c r="E20" s="10">
-        <v>3.39</v>
+        <v>0.68</v>
       </c>
       <c r="F20" s="10">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A22" s="80">
+        <v>45414</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="18">
+        <v>45413</v>
+      </c>
+      <c r="E22" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="6">
-        <v>45421</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="122" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="18">
-        <v>45474</v>
-      </c>
-      <c r="E21" s="10">
-        <v>3.39</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="70">
-        <v>45421</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="18">
-        <v>45474</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.68</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0.68</v>
-      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="69">
+        <v>45412</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="18">
+        <v>45444</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2.85</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A24" s="80">
+      <c r="A24" s="37">
         <v>45414</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>129</v>
+      <c r="C24" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="D24" s="18">
         <v>45413</v>
       </c>
       <c r="E24" s="10">
-        <v>1</v>
+        <v>11.3</v>
       </c>
       <c r="F24" s="10">
-        <v>1</v>
+        <v>11.3</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -23363,16 +23511,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D25" s="18">
         <v>45444</v>
       </c>
       <c r="E25" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>366</v>
+        <v>5.7</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -23396,23 +23544,23 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A26" s="37">
+      <c r="A26" s="17">
         <v>45414</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>131</v>
+      <c r="C26" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="D26" s="18">
         <v>45413</v>
       </c>
       <c r="E26" s="10">
-        <v>11.3</v>
+        <v>6.56</v>
       </c>
       <c r="F26" s="10">
-        <v>11.3</v>
+        <v>6.56</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -23437,102 +23585,62 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1">
       <c r="A27" s="69">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D27" s="18">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="E27" s="10">
-        <v>5.7</v>
+        <v>4.24</v>
       </c>
       <c r="F27" s="10">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A28" s="6">
+        <v>45413</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="18">
+        <v>45474</v>
+      </c>
+      <c r="E28" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="F28" s="10">
         <v>1</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-    </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="17">
-        <v>45414</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="36" t="s">
+    </row>
+    <row r="29" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A29" s="6">
+        <v>45413</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="18">
-        <v>45413</v>
-      </c>
-      <c r="E28" s="10">
-        <v>6.56</v>
-      </c>
-      <c r="F28" s="10">
-        <v>6.56</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-    </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="69">
-        <v>45413</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="18">
-        <v>45474</v>
-      </c>
-      <c r="E29" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="F29" s="10">
-        <v>4.24</v>
+      <c r="D29" s="39">
+        <v>45505</v>
+      </c>
+      <c r="E29" s="40">
+        <v>121.13</v>
+      </c>
+      <c r="F29" s="40">
+        <v>12.11</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
@@ -23540,19 +23648,19 @@
         <v>45413</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="18">
-        <v>45474</v>
-      </c>
-      <c r="E30" s="10">
-        <v>3.39</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="39">
+        <v>45505</v>
+      </c>
+      <c r="E30" s="40">
+        <v>121.13</v>
+      </c>
+      <c r="F30" s="40">
+        <v>12.11</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
@@ -23560,39 +23668,39 @@
         <v>45413</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="39">
+        <v>133</v>
+      </c>
+      <c r="C31" s="159" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="18">
         <v>45505</v>
       </c>
-      <c r="E31" s="40">
-        <v>121.13</v>
-      </c>
-      <c r="F31" s="40">
-        <v>12.11</v>
+      <c r="E31" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A32" s="6">
+      <c r="A32" s="69">
         <v>45413</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="39">
-        <v>45505</v>
-      </c>
-      <c r="E32" s="40">
-        <v>121.13</v>
-      </c>
-      <c r="F32" s="40">
-        <v>12.11</v>
+        <v>133</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="18">
+        <v>45474</v>
+      </c>
+      <c r="E32" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="F32" s="10">
+        <v>4.24</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1">
@@ -23600,30 +23708,30 @@
         <v>45413</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D33" s="18">
-        <v>45505</v>
+        <v>45597</v>
       </c>
       <c r="E33" s="10">
-        <v>4.24</v>
+        <v>100.94</v>
       </c>
       <c r="F33" s="10">
-        <v>1</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A34" s="69">
+      <c r="A34" s="6">
         <v>45413</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="C34" s="122" t="s">
+        <v>140</v>
       </c>
       <c r="D34" s="18">
         <v>45474</v>
@@ -23632,67 +23740,107 @@
         <v>4.24</v>
       </c>
       <c r="F34" s="10">
-        <v>4.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A35" s="6">
+      <c r="A35" s="80">
+        <v>45382</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="18">
         <v>45413</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="18">
-        <v>45597</v>
-      </c>
       <c r="E35" s="10">
-        <v>100.94</v>
+        <v>2.85</v>
       </c>
       <c r="F35" s="10">
-        <v>10.09</v>
-      </c>
+        <v>2.85</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A36" s="6">
+      <c r="A36" s="17">
+        <v>45382</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="18">
         <v>45413</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="122" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="18">
-        <v>45474</v>
       </c>
       <c r="E36" s="10">
         <v>4.24</v>
       </c>
       <c r="F36" s="10">
-        <v>1</v>
-      </c>
+        <v>4.24</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A37" s="80">
-        <v>45382</v>
+      <c r="A37" s="6">
+        <v>45383</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>142</v>
+        <v>133</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="D37" s="18">
-        <v>45413</v>
+        <v>45566</v>
       </c>
       <c r="E37" s="10">
-        <v>2.85</v>
+        <v>80.75</v>
       </c>
       <c r="F37" s="10">
-        <v>2.85</v>
+        <v>8.08</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -23716,17 +23864,17 @@
       <c r="Z37" s="11"/>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A38" s="17">
-        <v>45382</v>
+      <c r="A38" s="82">
+        <v>45408</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D38" s="18">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="E38" s="10">
         <v>4.24</v>
@@ -23760,19 +23908,19 @@
         <v>45383</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D39" s="18">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="E39" s="10">
-        <v>80.75</v>
+        <v>121.13</v>
       </c>
       <c r="F39" s="10">
-        <v>8.08</v>
+        <v>12.13</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -23796,17 +23944,17 @@
       <c r="Z39" s="11"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A40" s="82">
-        <v>45408</v>
+      <c r="A40" s="17">
+        <v>45382</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D40" s="18">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="E40" s="10">
         <v>4.24</v>
@@ -23836,23 +23984,23 @@
       <c r="Z40" s="11"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A41" s="6">
-        <v>45383</v>
+      <c r="A41" s="17">
+        <v>45382</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>146</v>
+        <v>24</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="D41" s="18">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="E41" s="10">
-        <v>121.13</v>
+        <v>4.75</v>
       </c>
       <c r="F41" s="10">
-        <v>12.13</v>
+        <v>4.75</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -23880,19 +24028,19 @@
         <v>45382</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>147</v>
+        <v>24</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="D42" s="18">
         <v>45413</v>
       </c>
       <c r="E42" s="10">
-        <v>4.24</v>
+        <v>2.85</v>
       </c>
       <c r="F42" s="10">
-        <v>4.24</v>
+        <v>2.85</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -23917,22 +24065,22 @@
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1">
       <c r="A43" s="17">
-        <v>45382</v>
+        <v>45408</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>148</v>
+      <c r="C43" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D43" s="18">
         <v>45413</v>
       </c>
       <c r="E43" s="10">
-        <v>4.75</v>
+        <v>1</v>
       </c>
       <c r="F43" s="10">
-        <v>4.75</v>
+        <v>1</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -23956,63 +24104,43 @@
       <c r="Z43" s="11"/>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A44" s="17">
-        <v>45382</v>
+      <c r="A44" s="69">
+        <v>45383</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="D44" s="18">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="E44" s="10">
-        <v>2.85</v>
+        <v>100.94</v>
       </c>
       <c r="F44" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
+        <v>100.94</v>
+      </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A45" s="17">
-        <v>45408</v>
+      <c r="A45" s="69">
+        <v>45351</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="18">
-        <v>45413</v>
+        <v>151</v>
+      </c>
+      <c r="D45" s="48">
+        <v>45383</v>
       </c>
       <c r="E45" s="10">
-        <v>1</v>
+        <v>31.35</v>
       </c>
       <c r="F45" s="10">
-        <v>1</v>
+        <v>31.35</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -24036,43 +24164,43 @@
       <c r="Z45" s="11"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A46" s="69">
-        <v>45383</v>
+      <c r="A46" s="17">
+        <v>45413</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D46" s="18">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="E46" s="10">
-        <v>100.94</v>
+        <v>5.94</v>
       </c>
       <c r="F46" s="10">
-        <v>100.94</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A47" s="69">
-        <v>45351</v>
+      <c r="A47" s="80">
+        <v>45395</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="48">
-        <v>45383</v>
+        <v>153</v>
+      </c>
+      <c r="D47" s="18">
+        <v>45413</v>
       </c>
       <c r="E47" s="10">
-        <v>31.35</v>
+        <v>33.25</v>
       </c>
       <c r="F47" s="10">
-        <v>31.35</v>
+        <v>33.25</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -24096,43 +24224,63 @@
       <c r="Z47" s="11"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A48" s="17">
-        <v>45413</v>
+      <c r="A48" s="70">
+        <v>45395</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="18">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="E48" s="10">
-        <v>5.94</v>
+        <v>5.7</v>
       </c>
       <c r="F48" s="10">
-        <v>5.94</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A49" s="80">
+      <c r="A49" s="69">
         <v>45395</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="18">
-        <v>45413</v>
+        <v>155</v>
+      </c>
+      <c r="D49" s="48">
+        <v>45383</v>
       </c>
       <c r="E49" s="10">
-        <v>33.25</v>
+        <v>30.4</v>
       </c>
       <c r="F49" s="10">
-        <v>33.25</v>
+        <v>30.4</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -24156,23 +24304,23 @@
       <c r="Z49" s="11"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A50" s="70">
-        <v>45395</v>
+      <c r="A50" s="17">
+        <v>45408</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="18">
         <v>45383</v>
       </c>
       <c r="E50" s="10">
-        <v>5.7</v>
+        <v>3.39</v>
       </c>
       <c r="F50" s="10">
-        <v>5.7</v>
+        <v>3.39</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -24196,23 +24344,23 @@
       <c r="Z50" s="11"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A51" s="69">
-        <v>45395</v>
+      <c r="A51" s="17">
+        <v>45401</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="48">
+        <v>157</v>
+      </c>
+      <c r="D51" s="18">
         <v>45383</v>
       </c>
       <c r="E51" s="10">
-        <v>30.4</v>
+        <v>26.6</v>
       </c>
       <c r="F51" s="10">
-        <v>30.4</v>
+        <v>26.6</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -24237,96 +24385,56 @@
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1">
       <c r="A52" s="17">
-        <v>45408</v>
+        <v>45383</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="18">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="E52" s="10">
-        <v>3.39</v>
+        <v>4.24</v>
       </c>
       <c r="F52" s="10">
-        <v>3.39</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
+        <v>4.24</v>
+      </c>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1">
       <c r="A53" s="17">
-        <v>45401</v>
+        <v>45398</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="18">
         <v>45383</v>
       </c>
       <c r="E53" s="10">
-        <v>26.6</v>
+        <v>3.39</v>
       </c>
       <c r="F53" s="10">
-        <v>26.6</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
+        <v>3.39</v>
+      </c>
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1">
       <c r="A54" s="17">
-        <v>45383</v>
+        <v>45398</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>159</v>
+        <v>133</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="D54" s="18">
-        <v>45352</v>
+        <v>45505</v>
       </c>
       <c r="E54" s="10">
         <v>4.24</v>
@@ -24337,222 +24445,222 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1">
       <c r="A55" s="17">
-        <v>45398</v>
+        <v>45389</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="18">
         <v>45383</v>
       </c>
       <c r="E55" s="10">
-        <v>3.39</v>
+        <v>4.24</v>
       </c>
       <c r="F55" s="10">
-        <v>3.39</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A56" s="17">
-        <v>45398</v>
+      <c r="A56" s="94">
+        <v>45301</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="18">
-        <v>45505</v>
+        <v>133</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="21">
+        <v>45292</v>
       </c>
       <c r="E56" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="F56" s="10">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A57" s="57">
+        <v>45435</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="24">
+        <v>45413</v>
+      </c>
+      <c r="E57" s="10">
+        <v>3</v>
+      </c>
+      <c r="F57" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A58" s="57">
+        <v>45465</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" s="24">
+        <v>45444</v>
+      </c>
+      <c r="E58" s="10">
+        <v>6</v>
+      </c>
+      <c r="F58" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A59" s="81">
+        <v>45382</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="D59" s="18">
+        <v>45323</v>
+      </c>
+      <c r="E59" s="10">
         <v>4.24</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F59" s="10">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A57" s="17">
-        <v>45389</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="18">
-        <v>45383</v>
-      </c>
-      <c r="E57" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="F57" s="10">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A58" s="94">
-        <v>45301</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="21">
-        <v>45292</v>
-      </c>
-      <c r="E58" s="10">
-        <v>26.6</v>
-      </c>
-      <c r="F58" s="10">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A59" s="57">
-        <v>45435</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="24">
-        <v>45413</v>
-      </c>
-      <c r="E59" s="10">
-        <v>3</v>
-      </c>
-      <c r="F59" s="10">
-        <v>3</v>
-      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A60" s="57">
-        <v>45465</v>
+      <c r="A60" s="80">
+        <v>45469</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="D60" s="24">
+      <c r="C60" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D60" s="18">
+        <v>45413</v>
+      </c>
+      <c r="E60" s="10">
+        <v>2.85</v>
+      </c>
+      <c r="F60" s="10">
+        <v>2.85</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+    </row>
+    <row r="61" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A61" s="77">
+        <v>45465</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="D61" s="76">
         <v>45444</v>
       </c>
-      <c r="E60" s="10">
-        <v>6</v>
-      </c>
-      <c r="F60" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A61" s="81">
-        <v>45382</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="D61" s="18">
-        <v>45323</v>
-      </c>
-      <c r="E61" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="F61" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
+      <c r="E61" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A62" s="80">
-        <v>45469</v>
+      <c r="A62" s="50">
+        <v>45474</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="D62" s="18">
-        <v>45413</v>
-      </c>
-      <c r="E62" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="F62" s="10">
-        <v>2.85</v>
-      </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="C62" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D62" s="76">
+        <v>45536</v>
+      </c>
+      <c r="E62" s="2">
+        <v>8.48</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A63" s="77">
-        <v>45465</v>
+      <c r="A63" s="50">
+        <v>45474</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D63" s="76">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="E63" s="2">
         <v>2.85</v>
       </c>
       <c r="F63" s="2">
-        <v>2.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1">
@@ -24560,19 +24668,19 @@
         <v>45474</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="75" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D64" s="76">
         <v>45536</v>
       </c>
       <c r="E64" s="2">
-        <v>8.48</v>
+        <v>4.24</v>
       </c>
       <c r="F64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -24582,11 +24690,11 @@
       <c r="B65" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="75" t="s">
-        <v>375</v>
+      <c r="C65" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="D65" s="76">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="E65" s="2">
         <v>2.85</v>
@@ -24600,12 +24708,12 @@
         <v>45474</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>381</v>
-      </c>
-      <c r="D66" s="76">
+        <v>382</v>
+      </c>
+      <c r="D66" s="50">
         <v>45536</v>
       </c>
       <c r="E66" s="2">
@@ -24620,19 +24728,19 @@
         <v>45474</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D67" s="76">
-        <v>45474</v>
+        <v>133</v>
+      </c>
+      <c r="C67" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D67" s="50">
+        <v>45536</v>
       </c>
       <c r="E67" s="2">
-        <v>2.85</v>
+        <v>8.48</v>
       </c>
       <c r="F67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -24640,19 +24748,19 @@
         <v>45474</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C68" s="75" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D68" s="50">
         <v>45536</v>
       </c>
       <c r="E68" s="2">
-        <v>4.24</v>
+        <v>10.18</v>
       </c>
       <c r="F68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -24660,96 +24768,96 @@
         <v>45474</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="75" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D69" s="50">
         <v>45536</v>
       </c>
       <c r="E69" s="2">
-        <v>8.48</v>
+        <v>4.24</v>
       </c>
       <c r="F69" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A70" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A70" s="123">
         <v>45474</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="75" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" s="50">
-        <v>45536</v>
-      </c>
-      <c r="E70" s="2">
-        <v>10.18</v>
-      </c>
-      <c r="F70" s="2">
-        <v>2</v>
+      <c r="B70" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="125" t="s">
+        <v>489</v>
+      </c>
+      <c r="D70" s="123">
+        <v>45505</v>
+      </c>
+      <c r="E70" s="126">
+        <v>4.24</v>
+      </c>
+      <c r="F70" s="126">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
       <c r="A71" s="50">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="75" t="s">
-        <v>391</v>
+        <v>24</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="D71" s="50">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="E71" s="2">
-        <v>4.24</v>
+        <v>4.75</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="127" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A72" s="123">
-        <v>45474</v>
-      </c>
-      <c r="B72" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="125" t="s">
-        <v>492</v>
-      </c>
-      <c r="D72" s="123">
+    <row r="72" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A72" s="50">
         <v>45505</v>
       </c>
-      <c r="E72" s="126">
-        <v>4.24</v>
-      </c>
-      <c r="F72" s="126">
-        <v>1</v>
+      <c r="B72" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D72" s="50">
+        <v>45627</v>
+      </c>
+      <c r="E72" s="2">
+        <v>56.35</v>
+      </c>
+      <c r="F72" s="2">
+        <v>5.04</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
       <c r="A73" s="50">
         <v>45505</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D73" s="50">
         <v>45505</v>
       </c>
       <c r="E73" s="2">
-        <v>4.75</v>
+        <v>2.85</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
@@ -24766,54 +24874,22 @@
         <v>542</v>
       </c>
       <c r="D74" s="50">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="E74" s="2">
-        <v>56.35</v>
+        <v>2.85</v>
       </c>
       <c r="F74" s="2">
-        <v>5.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A75" s="50">
-        <v>45505</v>
-      </c>
-      <c r="B75" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="D75" s="50">
-        <v>45505</v>
-      </c>
-      <c r="E75" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="F75" s="2">
-        <v>1</v>
-      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A76" s="50">
-        <v>45505</v>
-      </c>
-      <c r="B76" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="D76" s="50">
-        <v>45505</v>
-      </c>
-      <c r="E76" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="F76" s="2">
-        <v>1</v>
-      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
       <c r="E77" s="2"/>
@@ -28486,14 +28562,6 @@
     <row r="994" spans="5:6" ht="14.25" customHeight="1">
       <c r="E994" s="2"/>
       <c r="F994" s="2"/>
-    </row>
-    <row r="995" spans="5:6" ht="14.25" customHeight="1">
-      <c r="E995" s="2"/>
-      <c r="F995" s="2"/>
-    </row>
-    <row r="996" spans="5:6" ht="14.25" customHeight="1">
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28558,7 +28626,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -28576,7 +28644,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -28594,10 +28662,10 @@
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" t="s">
         <v>284</v>
-      </c>
-      <c r="B13" t="s">
-        <v>285</v>
       </c>
       <c r="C13" s="2">
         <v>4.99</v>
@@ -28612,10 +28680,10 @@
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2">
         <v>3.99</v>
@@ -28630,10 +28698,10 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C15" s="2">
         <v>4.16</v>
@@ -28648,10 +28716,10 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" t="s">
         <v>288</v>
-      </c>
-      <c r="B16" t="s">
-        <v>289</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -28666,10 +28734,10 @@
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -28684,10 +28752,10 @@
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -28702,10 +28770,10 @@
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -32680,7 +32748,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="18">
         <v>45413</v>
@@ -32720,7 +32788,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="18">
         <v>45413</v>
@@ -32760,7 +32828,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="18">
         <v>45413</v>
@@ -32800,7 +32868,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="18">
         <v>45413</v>
@@ -32820,7 +32888,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="42">
         <v>45383</v>
@@ -32860,7 +32928,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="18">
         <v>45383</v>
@@ -32880,7 +32948,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="18">
         <v>45413</v>
@@ -32900,7 +32968,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" s="18">
         <v>45413</v>
@@ -32937,10 +33005,10 @@
         <v>45419</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>175</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>176</v>
       </c>
       <c r="D12" s="3">
         <v>45419</v>
@@ -32957,10 +33025,10 @@
         <v>45420</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="3">
         <v>45420</v>
@@ -32977,10 +33045,10 @@
         <v>45421</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="3">
         <v>45421</v>
@@ -32997,10 +33065,10 @@
         <v>45429</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="3">
         <v>45429</v>
@@ -33017,10 +33085,10 @@
         <v>45429</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="3">
         <v>45429</v>
@@ -33037,10 +33105,10 @@
         <v>45430</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="3">
         <v>45430</v>
@@ -33057,10 +33125,10 @@
         <v>45442</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="3">
         <v>45442</v>
@@ -33077,10 +33145,10 @@
         <v>45447</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" s="3">
         <v>45442</v>
@@ -33097,10 +33165,10 @@
         <v>45444</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="3">
         <v>45442</v>
@@ -33117,10 +33185,10 @@
         <v>45422</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>185</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>186</v>
       </c>
       <c r="D21" s="3">
         <v>45429</v>
@@ -33137,10 +33205,10 @@
         <v>45444</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>187</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>188</v>
       </c>
       <c r="D22" s="24">
         <v>45444</v>
@@ -33157,10 +33225,10 @@
         <v>45444</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="24">
         <v>45444</v>
@@ -33177,10 +33245,10 @@
         <v>45444</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" s="24">
         <v>45444</v>
@@ -33200,7 +33268,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D25" s="50">
         <v>45465</v>
@@ -33220,7 +33288,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D26" s="18">
         <v>45413</v>
@@ -36213,7 +36281,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="44">
         <v>12.99</v>
@@ -36249,7 +36317,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="44">
         <v>6.9</v>
@@ -36282,10 +36350,10 @@
         <v>45437</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="44">
         <v>3.9</v>
@@ -36321,7 +36389,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="44">
         <v>8.99</v>
@@ -36354,10 +36422,10 @@
         <v>45437</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="D8" s="44">
         <v>8.9</v>
@@ -36393,7 +36461,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -36407,7 +36475,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -36418,10 +36486,10 @@
         <v>45442</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="2">
         <v>4.9000000000000004</v>
@@ -36435,7 +36503,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D12" s="2">
         <v>12.99</v>
@@ -36449,7 +36517,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -36463,7 +36531,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -36474,10 +36542,10 @@
         <v>45444</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D15" s="2">
         <v>4.9000000000000004</v>
@@ -36488,10 +36556,10 @@
         <v>45444</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="2">
         <v>3.9</v>
@@ -36505,7 +36573,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D17" s="2">
         <v>8.99</v>
@@ -36516,10 +36584,10 @@
         <v>45447</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="2">
         <v>4.9000000000000004</v>
@@ -36533,7 +36601,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D19" s="2">
         <v>8.99</v>
@@ -36547,7 +36615,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D20" s="2">
         <v>4.9000000000000004</v>
@@ -36558,10 +36626,10 @@
         <v>45449</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D21" s="2">
         <v>3.9</v>
@@ -36572,10 +36640,10 @@
         <v>45449</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D22" s="2">
         <v>4.9000000000000004</v>
@@ -36589,7 +36657,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D23" s="2">
         <v>12.99</v>
@@ -36600,10 +36668,10 @@
         <v>45451</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D24" s="2">
         <v>12.9</v>
@@ -36617,7 +36685,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -36631,7 +36699,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -36645,7 +36713,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D27" s="2">
         <v>5</v>
@@ -36659,7 +36727,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D28" s="2">
         <v>8.99</v>
@@ -36670,10 +36738,10 @@
         <v>45458</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D29" s="2">
         <v>3.9</v>
@@ -36684,10 +36752,10 @@
         <v>45458</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D30" s="2">
         <v>8.9</v>
@@ -36701,7 +36769,7 @@
         <v>24</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D31" s="2">
         <v>5.5</v>
@@ -36712,10 +36780,10 @@
         <v>45458</v>
       </c>
       <c r="B32" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="55" t="s">
         <v>334</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>335</v>
       </c>
       <c r="D32" s="2">
         <v>9.9</v>
@@ -36729,7 +36797,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D33" s="2">
         <v>12.99</v>
@@ -36743,7 +36811,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D34" s="2">
         <v>8.99</v>
@@ -36757,7 +36825,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D35" s="44">
         <v>6</v>
@@ -36790,10 +36858,10 @@
         <v>45465</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D36" s="2">
         <v>4.9000000000000004</v>
@@ -36804,10 +36872,10 @@
         <v>45465</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D37" s="2">
         <v>4.9000000000000004</v>
@@ -36818,10 +36886,10 @@
         <v>45465</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D38" s="2">
         <v>3.9</v>
@@ -36835,7 +36903,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D39" s="2">
         <v>12.99</v>
@@ -36849,7 +36917,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D40" s="2">
         <v>12.99</v>
@@ -36860,10 +36928,10 @@
         <v>45472</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D41" s="44">
         <v>8.9</v>
@@ -36896,10 +36964,10 @@
         <v>45472</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D42" s="2">
         <v>9.9</v>
@@ -36913,7 +36981,7 @@
         <v>24</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D43" s="2">
         <v>3</v>
@@ -36927,7 +36995,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D44" s="2">
         <v>3</v>
@@ -36938,10 +37006,10 @@
         <v>45472</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D45" s="2">
         <v>3.9</v>
@@ -36955,7 +37023,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D46" s="2">
         <v>8.99</v>
@@ -36969,7 +37037,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D47" s="2">
         <v>5.9</v>
@@ -36983,7 +37051,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D48" s="2">
         <v>6</v>
@@ -36994,10 +37062,10 @@
         <v>45472</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D49" s="2">
         <v>4.9000000000000004</v>
@@ -37011,7 +37079,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -37025,7 +37093,7 @@
         <v>24</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D51" s="2">
         <v>12.99</v>
@@ -37036,10 +37104,10 @@
         <v>45479</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D52" s="2">
         <v>4.9000000000000004</v>
@@ -37050,10 +37118,10 @@
         <v>45479</v>
       </c>
       <c r="B53" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D53" s="2">
         <v>4.9000000000000004</v>
@@ -37064,10 +37132,10 @@
         <v>45475</v>
       </c>
       <c r="B54" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="C54" s="55" t="s">
         <v>411</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>412</v>
       </c>
       <c r="D54" s="2">
         <v>4.9000000000000004</v>
@@ -37078,10 +37146,10 @@
         <v>45479</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -37093,7 +37161,7 @@
         <v>24</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D56" s="2">
         <v>8.99</v>
@@ -37107,7 +37175,7 @@
         <v>24</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D57" s="2">
         <v>8.99</v>
@@ -37121,7 +37189,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D58" s="2">
         <v>12.99</v>
@@ -37132,10 +37200,10 @@
         <v>45486</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D59" s="2">
         <v>3.9</v>
@@ -37149,7 +37217,7 @@
         <v>24</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
@@ -37163,7 +37231,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D61" s="2">
         <v>5</v>
@@ -37177,7 +37245,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
@@ -37188,10 +37256,10 @@
         <v>45486</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D63" s="2">
         <v>3.9</v>
@@ -37205,7 +37273,7 @@
         <v>24</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D64" s="2">
         <v>3</v>
@@ -37219,7 +37287,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D65" s="2">
         <v>8.99</v>
@@ -37230,10 +37298,10 @@
         <v>45493</v>
       </c>
       <c r="B66" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D66" s="2">
         <v>7.9</v>
@@ -37247,7 +37315,7 @@
         <v>24</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D67" s="2">
         <v>5.5</v>
@@ -37261,7 +37329,7 @@
         <v>24</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D68" s="2">
         <v>6.9</v>
@@ -37275,7 +37343,7 @@
         <v>24</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D69" s="2">
         <v>5</v>
@@ -37289,7 +37357,7 @@
         <v>24</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D70" s="2">
         <v>4.9000000000000004</v>
@@ -37303,7 +37371,7 @@
         <v>24</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D71" s="2">
         <v>4.9000000000000004</v>
@@ -37317,7 +37385,7 @@
         <v>24</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D72" s="2">
         <v>12.99</v>
@@ -37331,7 +37399,7 @@
         <v>24</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D73" s="2">
         <v>8.99</v>
@@ -37345,7 +37413,7 @@
         <v>24</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D74" s="2">
         <v>8</v>
@@ -37359,7 +37427,7 @@
         <v>24</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D75" s="2">
         <v>6</v>
@@ -37373,7 +37441,7 @@
         <v>24</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D76" s="2">
         <v>6</v>
@@ -37387,7 +37455,7 @@
         <v>24</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D77" s="2">
         <v>5</v>
@@ -37401,7 +37469,7 @@
         <v>24</v>
       </c>
       <c r="C78" s="55" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D78" s="2">
         <v>3</v>
@@ -37415,7 +37483,7 @@
         <v>24</v>
       </c>
       <c r="C79" s="55" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D79" s="2">
         <v>5</v>
@@ -37426,10 +37494,10 @@
         <v>45499</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D80" s="2">
         <v>3.9</v>
@@ -37440,10 +37508,10 @@
         <v>45499</v>
       </c>
       <c r="B81" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D81" s="2">
         <v>3.9</v>
@@ -37454,10 +37522,10 @@
         <v>45492</v>
       </c>
       <c r="B82" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D82" s="2">
         <v>4.9000000000000004</v>
@@ -37468,10 +37536,10 @@
         <v>45499</v>
       </c>
       <c r="B83" s="54" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D83" s="2">
         <v>6</v>
@@ -37482,10 +37550,10 @@
         <v>45499</v>
       </c>
       <c r="B84" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D84" s="2">
         <v>4.9000000000000004</v>
@@ -37499,7 +37567,7 @@
         <v>24</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D85" s="2">
         <v>12.99</v>
@@ -37513,7 +37581,7 @@
         <v>24</v>
       </c>
       <c r="C86" s="55" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D86" s="2">
         <v>12.99</v>
@@ -37527,7 +37595,7 @@
         <v>24</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D87" s="2">
         <v>8</v>
@@ -37541,7 +37609,7 @@
         <v>24</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D88" s="2">
         <v>8.99</v>
@@ -37552,10 +37620,10 @@
         <v>45507</v>
       </c>
       <c r="B89" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D89" s="2">
         <v>4.9000000000000004</v>
@@ -37566,10 +37634,10 @@
         <v>45507</v>
       </c>
       <c r="B90" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D90" s="2">
         <v>4.9000000000000004</v>
@@ -37580,10 +37648,10 @@
         <v>45507</v>
       </c>
       <c r="B91" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D91" s="2">
         <v>3.9</v>
@@ -37594,10 +37662,10 @@
         <v>45507</v>
       </c>
       <c r="B92" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D92" s="2">
         <v>4.9000000000000004</v>
@@ -37611,7 +37679,7 @@
         <v>24</v>
       </c>
       <c r="C93" s="55" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D93" s="2">
         <v>5.9</v>
@@ -40385,10 +40453,10 @@
     <row r="1" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -40397,15 +40465,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -40416,10 +40484,10 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="C4" s="4">
         <v>23</v>
@@ -40433,7 +40501,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="4">
         <v>14</v>
@@ -40442,7 +40510,7 @@
         <v>34943</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
@@ -40450,7 +40518,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" s="4">
         <v>38</v>
@@ -40459,7 +40527,7 @@
         <v>35916</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
@@ -40467,7 +40535,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="4">
         <v>42</v>
@@ -40476,12 +40544,12 @@
         <v>36069</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="4">
         <v>11</v>
@@ -40495,10 +40563,10 @@
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="C9" s="4">
         <v>21</v>
@@ -40557,10 +40625,10 @@
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="4">
         <v>56</v>
@@ -40659,10 +40727,10 @@
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="C28" s="4">
         <v>11</v>
@@ -40705,10 +40773,10 @@
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="4">
         <v>4</v>
@@ -40727,10 +40795,10 @@
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -40744,7 +40812,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C36" s="4">
         <v>21</v>
@@ -40763,10 +40831,10 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -40785,10 +40853,10 @@
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
@@ -40823,10 +40891,10 @@
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C44" s="4">
         <v>5</v>
@@ -40869,10 +40937,10 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C49" s="4">
         <v>7</v>
@@ -40915,10 +40983,10 @@
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="4">
         <v>70</v>
@@ -40953,10 +41021,10 @@
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C58" s="4">
         <v>38</v>
@@ -40975,10 +41043,10 @@
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C60" s="4">
         <v>66</v>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A7C92-8D31-4262-9FE3-E552C4FAEBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F141A8D-F521-4AD1-953A-383A1FBBE79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1490" windowWidth="36340" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="578">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1869,9 +1869,6 @@
     <t>Hirayasumi #6</t>
   </si>
   <si>
-    <t>Skip &amp; Loafer #1 a #3, #4</t>
-  </si>
-  <si>
     <t>Akane Banashi #1, #2, #3, #4, #5</t>
   </si>
   <si>
@@ -1888,6 +1885,18 @@
   </si>
   <si>
     <t>X-Force #1 Logo Var</t>
+  </si>
+  <si>
+    <t>Skip &amp; Loafer #4</t>
+  </si>
+  <si>
+    <t>Amane Gymnasium 3</t>
+  </si>
+  <si>
+    <t>Skip &amp; Loafer #1 a #3, #4, #5</t>
+  </si>
+  <si>
+    <t>Amane Gymnasium #3</t>
   </si>
 </sst>
 </file>
@@ -2802,7 +2811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+    <sheetView zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -3356,7 +3365,7 @@
         <v>45444</v>
       </c>
       <c r="B28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C28" s="1">
         <v>45474</v>
@@ -16076,10 +16085,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B24B1A-5E19-4E45-BE1F-3FD44F3C23E6}">
-  <dimension ref="A2:B55"/>
+  <dimension ref="A2:B56"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A20" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -16090,7 +16099,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -16105,124 +16114,129 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="75" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="75" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>466</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="75" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="75" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>471</v>
       </c>
     </row>
@@ -16233,10 +16247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -17070,127 +17084,165 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="50">
+      <c r="A33" s="118">
+        <v>45519</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="D33" s="76">
+        <v>45505</v>
+      </c>
+      <c r="E33" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="F33" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A34" s="118">
+        <v>45519</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="D34" s="76">
+        <v>45505</v>
+      </c>
+      <c r="E34" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="F34" s="10">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A35" s="50">
         <v>45550</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>462</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E35" s="10">
         <v>7</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F35" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A34" s="50">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A36" s="50">
         <v>45550</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>463</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E36" s="10">
         <v>15</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F36" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="123">
-        <v>45505</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C36" s="157" t="s">
-        <v>541</v>
-      </c>
-      <c r="E36" s="150">
-        <v>14.25</v>
-      </c>
-      <c r="F36" s="150">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A37" s="50">
-        <v>45505</v>
-      </c>
-      <c r="B37" s="149" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="125" t="s">
-        <v>543</v>
-      </c>
-      <c r="E37" s="150">
-        <v>18.91</v>
-      </c>
-      <c r="F37" s="150">
-        <v>1.89</v>
-      </c>
-    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="151">
+      <c r="A38" s="123">
         <v>45505</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C38" s="158" t="s">
-        <v>570</v>
+      <c r="C38" s="157" t="s">
+        <v>541</v>
       </c>
       <c r="E38" s="150">
         <v>14.25</v>
       </c>
       <c r="F38" s="150">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
       <c r="A39" s="50">
+        <v>45505</v>
+      </c>
+      <c r="B39" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="125" t="s">
+        <v>543</v>
+      </c>
+      <c r="E39" s="150">
+        <v>18.91</v>
+      </c>
+      <c r="F39" s="150">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A40" s="151">
+        <v>45505</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C40" s="158" t="s">
+        <v>569</v>
+      </c>
+      <c r="E40" s="150">
+        <v>14.25</v>
+      </c>
+      <c r="F40" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A41" s="118">
         <v>45536</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C41" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="E41" t="s">
         <v>571</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F41" s="150">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A42" s="50">
+        <v>45536</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C42" t="s">
         <v>572</v>
       </c>
-      <c r="F39" s="150">
+      <c r="E42" s="10">
+        <v>7</v>
+      </c>
+      <c r="F42" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="50">
-        <v>45536</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C40" t="s">
-        <v>573</v>
-      </c>
-      <c r="E40" s="10">
-        <v>7</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:6" ht="14.25" customHeight="1"/>
@@ -18149,6 +18201,8 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E7877-B5F0-43A9-84BA-16543680598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382E5DE5-C7D3-4711-974A-3FF95F16E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2950" yWindow="2160" windowWidth="36340" windowHeight="18950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="1930" windowWidth="36340" windowHeight="18950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -23032,8 +23032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z972"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCFF397-7494-4AF6-90B0-1C879F252003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F720B80B-27BD-4895-B8B4-5003CB2A3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="80" windowWidth="36340" windowHeight="18950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="290" yWindow="1810" windowWidth="36340" windowHeight="18950" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="613">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -1989,6 +1989,18 @@
   </si>
   <si>
     <t>MOON IS FOLLOWING US #1 (OF 10) CVR A ROSSMO</t>
+  </si>
+  <si>
+    <t>Super Eroi Classic #385 F4 48</t>
+  </si>
+  <si>
+    <t>Super Eroi Classic #386 Hulk #36</t>
+  </si>
+  <si>
+    <t>Super Eroi Classic #387 Avengers #41</t>
+  </si>
+  <si>
+    <t>Super Eroi Classic #388 Spectacular Spider-man #9</t>
   </si>
 </sst>
 </file>
@@ -16569,8 +16581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A27" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -17361,7 +17373,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="42">
+      <c r="A31" s="98">
         <v>45474</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -17516,13 +17528,13 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="42">
+      <c r="A40" s="98">
         <v>45505</v>
       </c>
       <c r="B40" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="129" t="s">
         <v>524</v>
       </c>
       <c r="E40" s="123">
@@ -23339,8 +23351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A61" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -25271,23 +25283,23 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A80" s="42">
+    <row r="80" spans="1:26" s="102" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A80" s="98">
         <v>45505</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="97" t="s">
         <v>523</v>
       </c>
-      <c r="D80" s="110">
+      <c r="D80" s="206">
         <v>45505</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="101">
         <v>2.85</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="101">
         <v>1</v>
       </c>
     </row>
@@ -33097,7 +33109,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="234" zoomScaleNormal="234" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -33597,7 +33609,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="67">
         <v>45444</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -36628,8 +36640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -38062,60 +38074,104 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D94" s="2"/>
+      <c r="A94" s="42">
+        <v>45514</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="D94" s="2">
+        <v>8.99</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D95" s="2"/>
+      <c r="A95" s="42">
+        <v>45521</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>610</v>
+      </c>
+      <c r="D95" s="2">
+        <v>8.99</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="4:4" ht="14.25" customHeight="1">
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="4:4" ht="14.25" customHeight="1">
+      <c r="A96" s="42">
+        <v>45528</v>
+      </c>
+      <c r="B96" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A97" s="42">
+        <v>45535</v>
+      </c>
+      <c r="B97" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>612</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="14.25" customHeight="1">
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="4:4" ht="14.25" customHeight="1">
+    <row r="99" spans="1:4" ht="14.25" customHeight="1">
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="4:4" ht="14.25" customHeight="1">
+    <row r="100" spans="1:4" ht="14.25" customHeight="1">
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="4:4" ht="14.25" customHeight="1">
+    <row r="101" spans="1:4" ht="14.25" customHeight="1">
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="4:4" ht="14.25" customHeight="1">
+    <row r="102" spans="1:4" ht="14.25" customHeight="1">
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="4:4" ht="14.25" customHeight="1">
+    <row r="103" spans="1:4" ht="14.25" customHeight="1">
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="4:4" ht="14.25" customHeight="1">
+    <row r="104" spans="1:4" ht="14.25" customHeight="1">
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="4:4" ht="14.25" customHeight="1">
+    <row r="105" spans="1:4" ht="14.25" customHeight="1">
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="4:4" ht="14.25" customHeight="1">
+    <row r="106" spans="1:4" ht="14.25" customHeight="1">
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="4:4" ht="14.25" customHeight="1">
+    <row r="107" spans="1:4" ht="14.25" customHeight="1">
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="4:4" ht="14.25" customHeight="1">
+    <row r="108" spans="1:4" ht="14.25" customHeight="1">
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="4:4" ht="14.25" customHeight="1">
+    <row r="109" spans="1:4" ht="14.25" customHeight="1">
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="4:4" ht="14.25" customHeight="1">
+    <row r="110" spans="1:4" ht="14.25" customHeight="1">
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="4:4" ht="14.25" customHeight="1">
+    <row r="111" spans="1:4" ht="14.25" customHeight="1">
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="4:4" ht="14.25" customHeight="1">
+    <row r="112" spans="1:4" ht="14.25" customHeight="1">
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="4:4" ht="14.25" customHeight="1">

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B33B9B-A199-492B-9E91-55AACC4060D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24446643-F880-47C8-B124-8FF84D2EAC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="1810" windowWidth="36340" windowHeight="18950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="290" yWindow="1810" windowWidth="36340" windowHeight="18950" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="640">
   <si>
     <t>NYX #1 Logo Var</t>
   </si>
@@ -2079,6 +2079,9 @@
   </si>
   <si>
     <t>stefior</t>
+  </si>
+  <si>
+    <t>Fall of The House of X #4</t>
   </si>
 </sst>
 </file>
@@ -18573,7 +18576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="277" zoomScaleNormal="277" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScale="277" zoomScaleNormal="277" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
@@ -37067,8 +37070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -38557,10 +38560,32 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D98" s="2"/>
+      <c r="A98" s="41">
+        <v>45535</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D99" s="2"/>
+      <c r="A99" s="41">
+        <v>45535</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>639</v>
+      </c>
+      <c r="D99" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="14.25" customHeight="1">
       <c r="D100" s="2"/>

--- a/00 - Acquisti.xlsx
+++ b/00 - Acquisti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D8C7F-E9CD-4F3D-BAD4-B9D00A78CD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A46D9C-3CFA-4194-88B9-77F906DEBE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4030" yWindow="14450" windowWidth="36340" windowHeight="18950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="36340" windowHeight="18950" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -15252,8 +15252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B24B1A-5E19-4E45-BE1F-3FD44F3C23E6}">
   <dimension ref="A2:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -21562,7 +21562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
